--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="568">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -1553,6 +1553,51 @@
   </si>
   <si>
     <t>XLX7</t>
+  </si>
+  <si>
+    <t>HeyPrimo</t>
+  </si>
+  <si>
+    <t>Ex-Freight</t>
+  </si>
+  <si>
+    <t>YouParcel</t>
+  </si>
+  <si>
+    <t>Nolan Transportation Group</t>
+  </si>
+  <si>
+    <t>Amazon Freight</t>
+  </si>
+  <si>
+    <t>AAA Cooper</t>
+  </si>
+  <si>
+    <t>Ward Trucking</t>
+  </si>
+  <si>
+    <t>ABF Freight System</t>
+  </si>
+  <si>
+    <t>Averitt Express</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>2025-02-25</t>
@@ -2219,20 +2264,29 @@
       <c r="T2" t="s">
         <v>494</v>
       </c>
+      <c r="U2" t="s">
+        <v>513</v>
+      </c>
+      <c r="V2" t="s">
+        <v>517</v>
+      </c>
+      <c r="W2" t="s">
+        <v>522</v>
+      </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="AA2" t="s">
         <v>336</v>
       </c>
       <c r="AB2" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE2" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="AH2" t="s">
         <v>407</v>
@@ -2241,10 +2295,10 @@
         <v>404</v>
       </c>
       <c r="AL2" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="AN2" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2302,20 +2356,29 @@
       <c r="T3" t="s">
         <v>495</v>
       </c>
+      <c r="U3" t="s">
+        <v>514</v>
+      </c>
+      <c r="V3" t="s">
+        <v>518</v>
+      </c>
+      <c r="W3" t="s">
+        <v>523</v>
+      </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="AA3" t="s">
         <v>405</v>
       </c>
       <c r="AB3" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE3" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="AH3" t="s">
         <v>404</v>
@@ -2346,6 +2409,15 @@
       <c r="Q4" t="s">
         <v>461</v>
       </c>
+      <c r="U4" t="s">
+        <v>515</v>
+      </c>
+      <c r="V4" t="s">
+        <v>519</v>
+      </c>
+      <c r="W4" t="s">
+        <v>524</v>
+      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -2405,17 +2477,26 @@
       <c r="T5" t="s">
         <v>495</v>
       </c>
+      <c r="U5" t="s">
+        <v>516</v>
+      </c>
+      <c r="V5" t="s">
+        <v>520</v>
+      </c>
+      <c r="W5" t="s">
+        <v>525</v>
+      </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AA5" t="s">
         <v>331</v>
       </c>
       <c r="AB5" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE5" t="s">
         <v>339</v>
@@ -2427,7 +2508,7 @@
         <v>406</v>
       </c>
       <c r="AL5" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2485,17 +2566,26 @@
       <c r="T6" t="s">
         <v>495</v>
       </c>
+      <c r="U6" t="s">
+        <v>514</v>
+      </c>
+      <c r="V6" t="s">
+        <v>521</v>
+      </c>
+      <c r="W6" t="s">
+        <v>526</v>
+      </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AA6" t="s">
         <v>406</v>
       </c>
       <c r="AB6" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE6" t="s">
         <v>339</v>
@@ -2507,7 +2597,7 @@
         <v>406</v>
       </c>
       <c r="AL6" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2565,17 +2655,23 @@
       <c r="T7" t="s">
         <v>495</v>
       </c>
+      <c r="V7" t="s">
+        <v>520</v>
+      </c>
+      <c r="W7" t="s">
+        <v>527</v>
+      </c>
       <c r="X7">
         <v>38</v>
       </c>
       <c r="Z7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AA7" t="s">
         <v>410</v>
       </c>
       <c r="AB7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE7" t="s">
         <v>339</v>
@@ -2587,7 +2683,7 @@
         <v>406</v>
       </c>
       <c r="AL7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2645,26 +2741,29 @@
       <c r="T8" t="s">
         <v>495</v>
       </c>
+      <c r="W8" t="s">
+        <v>527</v>
+      </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="AA8" t="s">
         <v>388</v>
       </c>
       <c r="AB8" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE8" t="s">
         <v>332</v>
       </c>
       <c r="AH8" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="AI8" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="AL8" t="s">
         <v>335</v>
@@ -2722,20 +2821,23 @@
       <c r="S9" t="s">
         <v>469</v>
       </c>
+      <c r="W9" t="s">
+        <v>527</v>
+      </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="AA9" t="s">
         <v>336</v>
       </c>
       <c r="AB9" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE9" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="AH9" t="s">
         <v>340</v>
@@ -2747,7 +2849,7 @@
         <v>398</v>
       </c>
       <c r="AN9" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2805,11 +2907,14 @@
       <c r="T10" t="s">
         <v>496</v>
       </c>
+      <c r="W10" t="s">
+        <v>527</v>
+      </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="AE10" t="s">
         <v>407</v>
@@ -2843,6 +2948,9 @@
       <c r="Q11" t="s">
         <v>459</v>
       </c>
+      <c r="W11" t="s">
+        <v>527</v>
+      </c>
       <c r="Y11">
         <v>5</v>
       </c>
@@ -2902,11 +3010,14 @@
       <c r="T12" t="s">
         <v>495</v>
       </c>
+      <c r="W12" t="s">
+        <v>527</v>
+      </c>
       <c r="X12">
         <v>78</v>
       </c>
       <c r="Z12" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AE12" t="s">
         <v>331</v>
@@ -2973,26 +3084,29 @@
       <c r="S13" t="s">
         <v>472</v>
       </c>
+      <c r="W13" t="s">
+        <v>527</v>
+      </c>
       <c r="X13">
         <v>24</v>
       </c>
       <c r="Z13" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="AA13" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AB13" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE13" t="s">
         <v>401</v>
       </c>
       <c r="AH13" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="AI13" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AL13" t="s">
         <v>402</v>
@@ -3053,23 +3167,26 @@
       <c r="T14" t="s">
         <v>495</v>
       </c>
+      <c r="W14" t="s">
+        <v>527</v>
+      </c>
       <c r="X14">
         <v>20</v>
       </c>
       <c r="Z14" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AE14" t="s">
         <v>331</v>
       </c>
       <c r="AH14" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="AI14" t="s">
         <v>405</v>
       </c>
       <c r="AL14" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3124,17 +3241,20 @@
       <c r="T15" t="s">
         <v>497</v>
       </c>
+      <c r="W15" t="s">
+        <v>527</v>
+      </c>
       <c r="X15">
         <v>153</v>
       </c>
       <c r="Z15" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA15" t="s">
         <v>408</v>
       </c>
       <c r="AB15" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AI15" t="s">
         <v>399</v>
@@ -3143,7 +3263,7 @@
         <v>399</v>
       </c>
       <c r="AN15" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3201,17 +3321,20 @@
       <c r="T16" t="s">
         <v>498</v>
       </c>
+      <c r="W16" t="s">
+        <v>527</v>
+      </c>
       <c r="X16">
         <v>77</v>
       </c>
       <c r="Z16" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AA16" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="AB16" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE16" t="s">
         <v>335</v>
@@ -3281,32 +3404,35 @@
       <c r="T17" t="s">
         <v>499</v>
       </c>
+      <c r="W17" t="s">
+        <v>527</v>
+      </c>
       <c r="X17">
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AA17" t="s">
         <v>343</v>
       </c>
       <c r="AB17" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE17" t="s">
         <v>401</v>
       </c>
       <c r="AH17" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AI17" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AL17" t="s">
         <v>400</v>
       </c>
       <c r="AN17" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -3328,6 +3454,9 @@
       <c r="Q18" t="s">
         <v>459</v>
       </c>
+      <c r="W18" t="s">
+        <v>527</v>
+      </c>
       <c r="Y18">
         <v>0</v>
       </c>
@@ -3387,11 +3516,14 @@
       <c r="T19" t="s">
         <v>500</v>
       </c>
+      <c r="W19" t="s">
+        <v>527</v>
+      </c>
       <c r="X19">
         <v>150</v>
       </c>
       <c r="Z19" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AE19" t="s">
         <v>344</v>
@@ -3403,7 +3535,7 @@
         <v>410</v>
       </c>
       <c r="AN19" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -3461,17 +3593,20 @@
       <c r="T20" t="s">
         <v>501</v>
       </c>
+      <c r="W20" t="s">
+        <v>527</v>
+      </c>
       <c r="X20">
         <v>142</v>
       </c>
       <c r="Z20" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA20" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AB20" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE20" t="s">
         <v>401</v>
@@ -3480,7 +3615,7 @@
         <v>342</v>
       </c>
       <c r="AN20" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3538,32 +3673,35 @@
       <c r="T21" t="s">
         <v>499</v>
       </c>
+      <c r="W21" t="s">
+        <v>527</v>
+      </c>
       <c r="X21">
         <v>43</v>
       </c>
       <c r="Z21" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AA21" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AB21" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE21" t="s">
         <v>401</v>
       </c>
       <c r="AH21" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AI21" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AL21" t="s">
         <v>400</v>
       </c>
       <c r="AN21" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -3621,17 +3759,20 @@
       <c r="T22" t="s">
         <v>496</v>
       </c>
+      <c r="W22" t="s">
+        <v>527</v>
+      </c>
       <c r="X22">
         <v>29</v>
       </c>
       <c r="Z22" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA22" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AB22" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE22" t="s">
         <v>401</v>
@@ -3640,7 +3781,7 @@
         <v>410</v>
       </c>
       <c r="AN22" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3698,17 +3839,20 @@
       <c r="T23" t="s">
         <v>502</v>
       </c>
+      <c r="W23" t="s">
+        <v>527</v>
+      </c>
       <c r="X23">
         <v>15</v>
       </c>
       <c r="Z23" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AA23" t="s">
         <v>342</v>
       </c>
       <c r="AB23" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE23" t="s">
         <v>401</v>
@@ -3775,17 +3919,20 @@
       <c r="T24" t="s">
         <v>495</v>
       </c>
+      <c r="W24" t="s">
+        <v>527</v>
+      </c>
       <c r="X24">
         <v>273</v>
       </c>
       <c r="Z24" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AA24" t="s">
         <v>406</v>
       </c>
       <c r="AB24" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE24" t="s">
         <v>339</v>
@@ -3797,7 +3944,7 @@
         <v>406</v>
       </c>
       <c r="AL24" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3855,29 +4002,32 @@
       <c r="T25" t="s">
         <v>503</v>
       </c>
+      <c r="W25" t="s">
+        <v>527</v>
+      </c>
       <c r="X25">
         <v>22</v>
       </c>
       <c r="Z25" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AA25" t="s">
         <v>404</v>
       </c>
       <c r="AB25" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE25" t="s">
         <v>344</v>
       </c>
       <c r="AI25" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AL25" t="s">
         <v>402</v>
       </c>
       <c r="AN25" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -3935,17 +4085,20 @@
       <c r="T26" t="s">
         <v>495</v>
       </c>
+      <c r="W26" t="s">
+        <v>527</v>
+      </c>
       <c r="X26">
         <v>272</v>
       </c>
       <c r="Z26" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AA26" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AB26" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE26" t="s">
         <v>339</v>
@@ -3957,7 +4110,7 @@
         <v>406</v>
       </c>
       <c r="AL26" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -4015,17 +4168,20 @@
       <c r="T27" t="s">
         <v>495</v>
       </c>
+      <c r="W27" t="s">
+        <v>527</v>
+      </c>
       <c r="X27">
         <v>122</v>
       </c>
       <c r="Z27" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AA27" t="s">
         <v>406</v>
       </c>
       <c r="AB27" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE27" t="s">
         <v>339</v>
@@ -4037,7 +4193,7 @@
         <v>406</v>
       </c>
       <c r="AL27" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -4095,20 +4251,23 @@
       <c r="T28" t="s">
         <v>504</v>
       </c>
+      <c r="W28" t="s">
+        <v>527</v>
+      </c>
       <c r="X28">
         <v>314</v>
       </c>
       <c r="Z28" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="AA28" t="s">
         <v>406</v>
       </c>
       <c r="AB28" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE28" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="AH28" t="s">
         <v>340</v>
@@ -4175,29 +4334,32 @@
       <c r="T29" t="s">
         <v>495</v>
       </c>
+      <c r="W29" t="s">
+        <v>527</v>
+      </c>
       <c r="X29">
         <v>370</v>
       </c>
       <c r="Z29" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA29" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AB29" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE29" t="s">
         <v>398</v>
       </c>
       <c r="AH29" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AI29" t="s">
         <v>398</v>
       </c>
       <c r="AL29" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -4219,6 +4381,9 @@
       <c r="Q30" t="s">
         <v>459</v>
       </c>
+      <c r="W30" t="s">
+        <v>527</v>
+      </c>
       <c r="Y30">
         <v>0</v>
       </c>
@@ -4242,6 +4407,9 @@
       <c r="Q31" t="s">
         <v>462</v>
       </c>
+      <c r="W31" t="s">
+        <v>527</v>
+      </c>
       <c r="Y31">
         <v>2</v>
       </c>
@@ -4298,17 +4466,20 @@
       <c r="S32" t="s">
         <v>481</v>
       </c>
+      <c r="W32" t="s">
+        <v>527</v>
+      </c>
       <c r="X32">
         <v>16</v>
       </c>
       <c r="Z32" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AA32" t="s">
         <v>406</v>
       </c>
       <c r="AB32" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE32" t="s">
         <v>340</v>
@@ -4378,17 +4549,20 @@
       <c r="T33" t="s">
         <v>500</v>
       </c>
+      <c r="W33" t="s">
+        <v>527</v>
+      </c>
       <c r="X33">
         <v>220</v>
       </c>
       <c r="Z33" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AA33" t="s">
         <v>408</v>
       </c>
       <c r="AB33" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE33" t="s">
         <v>344</v>
@@ -4400,7 +4574,7 @@
         <v>410</v>
       </c>
       <c r="AN33" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -4455,17 +4629,20 @@
       <c r="S34" t="s">
         <v>482</v>
       </c>
+      <c r="W34" t="s">
+        <v>527</v>
+      </c>
       <c r="X34">
         <v>122</v>
       </c>
       <c r="Z34" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="AA34" t="s">
         <v>406</v>
       </c>
       <c r="AB34" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE34" t="s">
         <v>339</v>
@@ -4477,7 +4654,7 @@
         <v>406</v>
       </c>
       <c r="AL34" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -4535,20 +4712,23 @@
       <c r="T35" t="s">
         <v>505</v>
       </c>
+      <c r="W35" t="s">
+        <v>527</v>
+      </c>
       <c r="X35">
         <v>53</v>
       </c>
       <c r="Z35" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA35" t="s">
         <v>343</v>
       </c>
       <c r="AB35" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE35" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AH35" t="s">
         <v>344</v>
@@ -4615,20 +4795,23 @@
       <c r="T36" t="s">
         <v>505</v>
       </c>
+      <c r="W36" t="s">
+        <v>527</v>
+      </c>
       <c r="X36">
         <v>53</v>
       </c>
       <c r="Z36" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="AA36" t="s">
         <v>397</v>
       </c>
       <c r="AB36" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE36" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AH36" t="s">
         <v>344</v>
@@ -4659,6 +4842,9 @@
       <c r="Q37" t="s">
         <v>461</v>
       </c>
+      <c r="W37" t="s">
+        <v>527</v>
+      </c>
       <c r="Y37">
         <v>0</v>
       </c>
@@ -4718,29 +4904,32 @@
       <c r="T38" t="s">
         <v>495</v>
       </c>
+      <c r="W38" t="s">
+        <v>527</v>
+      </c>
       <c r="X38">
         <v>450</v>
       </c>
       <c r="Z38" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA38" t="s">
         <v>408</v>
       </c>
       <c r="AB38" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE38" t="s">
         <v>398</v>
       </c>
       <c r="AH38" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AI38" t="s">
         <v>398</v>
       </c>
       <c r="AL38" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -4798,17 +4987,20 @@
       <c r="T39" t="s">
         <v>495</v>
       </c>
+      <c r="W39" t="s">
+        <v>527</v>
+      </c>
       <c r="X39">
         <v>152</v>
       </c>
       <c r="Z39" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AA39" t="s">
         <v>406</v>
       </c>
       <c r="AB39" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE39" t="s">
         <v>340</v>
@@ -4820,7 +5012,7 @@
         <v>340</v>
       </c>
       <c r="AL39" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:40">
@@ -4842,6 +5034,9 @@
       <c r="Q40" t="s">
         <v>461</v>
       </c>
+      <c r="W40" t="s">
+        <v>527</v>
+      </c>
       <c r="Y40">
         <v>0</v>
       </c>
@@ -4865,6 +5060,9 @@
       <c r="Q41" t="s">
         <v>463</v>
       </c>
+      <c r="W41" t="s">
+        <v>527</v>
+      </c>
       <c r="Y41">
         <v>0</v>
       </c>
@@ -4924,17 +5122,20 @@
       <c r="T42" t="s">
         <v>506</v>
       </c>
+      <c r="W42" t="s">
+        <v>527</v>
+      </c>
       <c r="X42">
         <v>414</v>
       </c>
       <c r="Z42" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA42" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AB42" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE42" t="s">
         <v>401</v>
@@ -5004,17 +5205,20 @@
       <c r="T43" t="s">
         <v>495</v>
       </c>
+      <c r="W43" t="s">
+        <v>527</v>
+      </c>
       <c r="X43">
         <v>168</v>
       </c>
       <c r="Z43" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AA43" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AB43" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE43" t="s">
         <v>339</v>
@@ -5026,7 +5230,7 @@
         <v>406</v>
       </c>
       <c r="AL43" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:40">
@@ -5081,17 +5285,20 @@
       <c r="S44" t="s">
         <v>485</v>
       </c>
+      <c r="W44" t="s">
+        <v>527</v>
+      </c>
       <c r="X44">
         <v>72</v>
       </c>
       <c r="Z44" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA44" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AB44" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE44" t="s">
         <v>401</v>
@@ -5161,17 +5368,20 @@
       <c r="T45" t="s">
         <v>495</v>
       </c>
+      <c r="W45" t="s">
+        <v>527</v>
+      </c>
       <c r="X45">
         <v>75</v>
       </c>
       <c r="Z45" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AA45" t="s">
         <v>408</v>
       </c>
       <c r="AB45" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE45" t="s">
         <v>408</v>
@@ -5180,7 +5390,7 @@
         <v>341</v>
       </c>
       <c r="AI45" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AL45" t="s">
         <v>343</v>
@@ -5241,17 +5451,20 @@
       <c r="T46" t="s">
         <v>496</v>
       </c>
+      <c r="W46" t="s">
+        <v>527</v>
+      </c>
       <c r="X46">
         <v>8</v>
       </c>
       <c r="Z46" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AA46" t="s">
         <v>344</v>
       </c>
       <c r="AB46" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE46" t="s">
         <v>408</v>
@@ -5260,7 +5473,7 @@
         <v>341</v>
       </c>
       <c r="AI46" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:40">
@@ -5315,17 +5528,20 @@
       <c r="S47" t="s">
         <v>486</v>
       </c>
+      <c r="W47" t="s">
+        <v>527</v>
+      </c>
       <c r="X47">
         <v>150</v>
       </c>
       <c r="Z47" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="AA47" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="AB47" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE47" t="s">
         <v>408</v>
@@ -5334,7 +5550,7 @@
         <v>341</v>
       </c>
       <c r="AI47" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AL47" t="s">
         <v>342</v>
@@ -5392,6 +5608,9 @@
       <c r="T48" t="s">
         <v>507</v>
       </c>
+      <c r="W48" t="s">
+        <v>527</v>
+      </c>
       <c r="X48">
         <v>60</v>
       </c>
@@ -5451,6 +5670,9 @@
       <c r="T49" t="s">
         <v>496</v>
       </c>
+      <c r="W49" t="s">
+        <v>527</v>
+      </c>
       <c r="X49">
         <v>15</v>
       </c>
@@ -5458,7 +5680,7 @@
         <v>400</v>
       </c>
       <c r="AB49" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AH49" t="s">
         <v>343</v>
@@ -5510,6 +5732,9 @@
       <c r="Q50" t="s">
         <v>464</v>
       </c>
+      <c r="W50" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="51" spans="1:40">
       <c r="A51" t="s">
@@ -5566,23 +5791,26 @@
       <c r="T51" t="s">
         <v>495</v>
       </c>
+      <c r="W51" t="s">
+        <v>527</v>
+      </c>
       <c r="X51">
         <v>71</v>
       </c>
       <c r="Z51" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="AA51" t="s">
         <v>410</v>
       </c>
       <c r="AB51" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE51" t="s">
         <v>413</v>
       </c>
       <c r="AN51" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:40">
@@ -5637,6 +5865,9 @@
       <c r="T52" t="s">
         <v>508</v>
       </c>
+      <c r="W52" t="s">
+        <v>527</v>
+      </c>
       <c r="X52">
         <v>160</v>
       </c>
@@ -5644,7 +5875,7 @@
         <v>399</v>
       </c>
       <c r="AB52" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:40">
@@ -5699,6 +5930,9 @@
       <c r="T53" t="s">
         <v>508</v>
       </c>
+      <c r="W53" t="s">
+        <v>527</v>
+      </c>
       <c r="X53">
         <v>344</v>
       </c>
@@ -5755,6 +5989,9 @@
       <c r="T54" t="s">
         <v>507</v>
       </c>
+      <c r="W54" t="s">
+        <v>527</v>
+      </c>
       <c r="X54">
         <v>59</v>
       </c>
@@ -5762,7 +5999,7 @@
         <v>399</v>
       </c>
       <c r="AB54" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:40">
@@ -5784,6 +6021,9 @@
       <c r="Q55" t="s">
         <v>459</v>
       </c>
+      <c r="W55" t="s">
+        <v>527</v>
+      </c>
       <c r="Y55">
         <v>0</v>
       </c>
@@ -5843,23 +6083,26 @@
       <c r="T56" t="s">
         <v>495</v>
       </c>
+      <c r="W56" t="s">
+        <v>527</v>
+      </c>
       <c r="X56">
         <v>178</v>
       </c>
       <c r="Z56" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AA56" t="s">
         <v>331</v>
       </c>
       <c r="AB56" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="AE56" t="s">
         <v>413</v>
       </c>
       <c r="AN56" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:40">
@@ -5917,23 +6160,26 @@
       <c r="T57" t="s">
         <v>495</v>
       </c>
+      <c r="W57" t="s">
+        <v>527</v>
+      </c>
       <c r="X57">
         <v>178</v>
       </c>
       <c r="Z57" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AA57" t="s">
         <v>410</v>
       </c>
       <c r="AB57" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AE57" t="s">
         <v>413</v>
       </c>
       <c r="AN57" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:40">
@@ -5991,17 +6237,20 @@
       <c r="T58" t="s">
         <v>500</v>
       </c>
+      <c r="W58" t="s">
+        <v>527</v>
+      </c>
       <c r="X58">
         <v>266</v>
       </c>
       <c r="Z58" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AA58" t="s">
         <v>342</v>
       </c>
       <c r="AB58" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE58" t="s">
         <v>413</v>
@@ -6010,7 +6259,7 @@
         <v>398</v>
       </c>
       <c r="AN58" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:40">
@@ -6065,20 +6314,23 @@
       <c r="S59" t="s">
         <v>486</v>
       </c>
+      <c r="W59" t="s">
+        <v>527</v>
+      </c>
       <c r="X59">
         <v>160</v>
       </c>
       <c r="Z59" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AA59" t="s">
         <v>410</v>
       </c>
       <c r="AB59" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AN59" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:40">
@@ -6133,6 +6385,9 @@
       <c r="T60" t="s">
         <v>509</v>
       </c>
+      <c r="W60" t="s">
+        <v>527</v>
+      </c>
       <c r="X60">
         <v>110</v>
       </c>
@@ -6186,20 +6441,23 @@
       <c r="Q61" t="s">
         <v>460</v>
       </c>
+      <c r="W61" t="s">
+        <v>527</v>
+      </c>
       <c r="Z61" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AA61" t="s">
         <v>410</v>
       </c>
       <c r="AB61" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE61" t="s">
         <v>413</v>
       </c>
       <c r="AN61" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:40">
@@ -6254,6 +6512,9 @@
       <c r="T62" t="s">
         <v>510</v>
       </c>
+      <c r="W62" t="s">
+        <v>527</v>
+      </c>
       <c r="X62">
         <v>35</v>
       </c>
@@ -6277,6 +6538,9 @@
       <c r="Q63" t="s">
         <v>459</v>
       </c>
+      <c r="W63" t="s">
+        <v>527</v>
+      </c>
       <c r="Y63">
         <v>0</v>
       </c>
@@ -6300,6 +6564,9 @@
       <c r="Q64" t="s">
         <v>459</v>
       </c>
+      <c r="W64" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="65" spans="1:40">
       <c r="A65" t="s">
@@ -6356,23 +6623,26 @@
       <c r="T65" t="s">
         <v>495</v>
       </c>
+      <c r="W65" t="s">
+        <v>527</v>
+      </c>
       <c r="X65">
         <v>400</v>
       </c>
       <c r="Z65" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AA65" t="s">
         <v>410</v>
       </c>
       <c r="AB65" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AE65" t="s">
         <v>413</v>
       </c>
       <c r="AN65" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:40">
@@ -6424,6 +6694,9 @@
       <c r="Q66" t="s">
         <v>459</v>
       </c>
+      <c r="W66" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="67" spans="1:40">
       <c r="A67" t="s">
@@ -6477,6 +6750,9 @@
       <c r="T67" t="s">
         <v>495</v>
       </c>
+      <c r="W67" t="s">
+        <v>527</v>
+      </c>
       <c r="X67">
         <v>110</v>
       </c>
@@ -6533,6 +6809,9 @@
       <c r="T68" t="s">
         <v>495</v>
       </c>
+      <c r="W68" t="s">
+        <v>527</v>
+      </c>
       <c r="X68">
         <v>218</v>
       </c>
@@ -6589,6 +6868,9 @@
       <c r="T69" t="s">
         <v>501</v>
       </c>
+      <c r="W69" t="s">
+        <v>527</v>
+      </c>
       <c r="X69">
         <v>187</v>
       </c>
@@ -6645,6 +6927,9 @@
       <c r="T70" t="s">
         <v>508</v>
       </c>
+      <c r="W70" t="s">
+        <v>527</v>
+      </c>
       <c r="X70">
         <v>253</v>
       </c>
@@ -6701,6 +6986,9 @@
       <c r="T71" t="s">
         <v>495</v>
       </c>
+      <c r="W71" t="s">
+        <v>527</v>
+      </c>
       <c r="X71">
         <v>302</v>
       </c>
@@ -6754,6 +7042,9 @@
       <c r="S72" t="s">
         <v>486</v>
       </c>
+      <c r="W72" t="s">
+        <v>527</v>
+      </c>
       <c r="X72">
         <v>203</v>
       </c>
@@ -6810,6 +7101,9 @@
       <c r="T73" t="s">
         <v>495</v>
       </c>
+      <c r="W73" t="s">
+        <v>527</v>
+      </c>
       <c r="X73">
         <v>67</v>
       </c>
@@ -6866,6 +7160,9 @@
       <c r="T74" t="s">
         <v>500</v>
       </c>
+      <c r="W74" t="s">
+        <v>527</v>
+      </c>
       <c r="X74">
         <v>219</v>
       </c>
@@ -6916,6 +7213,9 @@
       <c r="Q75" t="s">
         <v>459</v>
       </c>
+      <c r="W75" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="76" spans="1:40">
       <c r="A76" t="s">
@@ -6963,6 +7263,9 @@
       <c r="Q76" t="s">
         <v>460</v>
       </c>
+      <c r="W76" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="77" spans="1:40">
       <c r="A77" t="s">
@@ -7016,6 +7319,9 @@
       <c r="T77" t="s">
         <v>495</v>
       </c>
+      <c r="W77" t="s">
+        <v>527</v>
+      </c>
       <c r="X77">
         <v>108</v>
       </c>
@@ -7072,6 +7378,9 @@
       <c r="T78" t="s">
         <v>498</v>
       </c>
+      <c r="W78" t="s">
+        <v>527</v>
+      </c>
       <c r="X78">
         <v>120</v>
       </c>
@@ -7122,6 +7431,9 @@
       <c r="Q79" t="s">
         <v>459</v>
       </c>
+      <c r="W79" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="80" spans="1:40">
       <c r="A80" t="s">
@@ -7169,6 +7481,9 @@
       <c r="Q80" t="s">
         <v>460</v>
       </c>
+      <c r="W80" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
@@ -7216,6 +7531,9 @@
       <c r="Q81" t="s">
         <v>462</v>
       </c>
+      <c r="W81" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
@@ -7263,6 +7581,9 @@
       <c r="Q82" t="s">
         <v>460</v>
       </c>
+      <c r="W82" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
@@ -7310,6 +7631,9 @@
       <c r="Q83" t="s">
         <v>466</v>
       </c>
+      <c r="W83" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
@@ -7363,6 +7687,9 @@
       <c r="T84" t="s">
         <v>511</v>
       </c>
+      <c r="W84" t="s">
+        <v>527</v>
+      </c>
       <c r="X84">
         <v>14</v>
       </c>
@@ -7410,6 +7737,9 @@
       <c r="Q85" t="s">
         <v>460</v>
       </c>
+      <c r="W85" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
@@ -7457,6 +7787,9 @@
       <c r="Q86" t="s">
         <v>460</v>
       </c>
+      <c r="W86" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
@@ -7510,6 +7843,9 @@
       <c r="T87" t="s">
         <v>512</v>
       </c>
+      <c r="W87" t="s">
+        <v>527</v>
+      </c>
       <c r="X87">
         <v>34</v>
       </c>
@@ -7566,6 +7902,9 @@
       <c r="T88" t="s">
         <v>504</v>
       </c>
+      <c r="W88" t="s">
+        <v>527</v>
+      </c>
       <c r="X88">
         <v>819</v>
       </c>
@@ -7622,6 +7961,9 @@
       <c r="T89" t="s">
         <v>503</v>
       </c>
+      <c r="W89" t="s">
+        <v>527</v>
+      </c>
       <c r="X89">
         <v>34</v>
       </c>
@@ -7675,6 +8017,9 @@
       <c r="T90" t="s">
         <v>495</v>
       </c>
+      <c r="W90" t="s">
+        <v>527</v>
+      </c>
       <c r="X90">
         <v>198</v>
       </c>
@@ -7725,6 +8070,9 @@
       <c r="Q91" t="s">
         <v>460</v>
       </c>
+      <c r="W91" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
@@ -7775,6 +8123,9 @@
       <c r="T92" t="s">
         <v>495</v>
       </c>
+      <c r="W92" t="s">
+        <v>527</v>
+      </c>
       <c r="X92">
         <v>210</v>
       </c>
@@ -7828,6 +8179,9 @@
       <c r="S93" t="s">
         <v>486</v>
       </c>
+      <c r="W93" t="s">
+        <v>527</v>
+      </c>
       <c r="X93">
         <v>211</v>
       </c>
@@ -7863,6 +8217,9 @@
       <c r="Q94" t="s">
         <v>460</v>
       </c>
+      <c r="W94" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
@@ -7910,6 +8267,9 @@
       <c r="Q95" t="s">
         <v>462</v>
       </c>
+      <c r="W95" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
@@ -7954,6 +8314,9 @@
       <c r="Q96" t="s">
         <v>459</v>
       </c>
+      <c r="W96" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
@@ -7995,6 +8358,9 @@
       <c r="Q97" t="s">
         <v>460</v>
       </c>
+      <c r="W97" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
@@ -8045,6 +8411,9 @@
       <c r="T98" t="s">
         <v>504</v>
       </c>
+      <c r="W98" t="s">
+        <v>527</v>
+      </c>
       <c r="X98">
         <v>59</v>
       </c>
@@ -8089,6 +8458,9 @@
       <c r="T99" t="s">
         <v>504</v>
       </c>
+      <c r="W99" t="s">
+        <v>527</v>
+      </c>
       <c r="X99">
         <v>617</v>
       </c>
@@ -8124,6 +8496,9 @@
       <c r="Q100" t="s">
         <v>460</v>
       </c>
+      <c r="W100" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
@@ -8159,6 +8534,9 @@
       <c r="Q101" t="s">
         <v>460</v>
       </c>
+      <c r="W101" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
@@ -8179,6 +8557,9 @@
       <c r="Q102" t="s">
         <v>462</v>
       </c>
+      <c r="W102" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
@@ -8214,6 +8595,9 @@
       <c r="Q103" t="s">
         <v>459</v>
       </c>
+      <c r="W103" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
@@ -8255,6 +8639,9 @@
       <c r="Q104" t="s">
         <v>460</v>
       </c>
+      <c r="W104" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
@@ -8293,6 +8680,9 @@
       <c r="T105" t="s">
         <v>496</v>
       </c>
+      <c r="W105" t="s">
+        <v>527</v>
+      </c>
       <c r="X105">
         <v>30</v>
       </c>
@@ -8334,6 +8724,9 @@
       <c r="T106" t="s">
         <v>503</v>
       </c>
+      <c r="W106" t="s">
+        <v>527</v>
+      </c>
       <c r="X106">
         <v>42</v>
       </c>
@@ -8357,6 +8750,9 @@
       <c r="Q107" t="s">
         <v>466</v>
       </c>
+      <c r="W107" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="108" spans="1:24">
       <c r="A108" t="s">
@@ -8376,6 +8772,9 @@
       </c>
       <c r="Q108" t="s">
         <v>460</v>
+      </c>
+      <c r="W108" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="559">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -1555,51 +1555,6 @@
     <t>XLX7</t>
   </si>
   <si>
-    <t>HeyPrimo</t>
-  </si>
-  <si>
-    <t>Ex-Freight</t>
-  </si>
-  <si>
-    <t>YouParcel</t>
-  </si>
-  <si>
-    <t>Nolan Transportation Group</t>
-  </si>
-  <si>
-    <t>Amazon Freight</t>
-  </si>
-  <si>
-    <t>AAA Cooper</t>
-  </si>
-  <si>
-    <t>Ward Trucking</t>
-  </si>
-  <si>
-    <t>ABF Freight System</t>
-  </si>
-  <si>
-    <t>Averitt Express</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2025-02-25</t>
   </si>
   <si>
@@ -1681,9 +1636,21 @@
     <t>Reject</t>
   </si>
   <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
     <t>15-03-2025</t>
   </si>
   <si>
+    <t>2025-06-08</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2028-06-06</t>
+  </si>
+  <si>
     <t>22-03-2025</t>
   </si>
   <si>
@@ -1691,6 +1658,12 @@
   </si>
   <si>
     <t>18-02-2025</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2026-05-05</t>
   </si>
   <si>
     <t>07-03-2025</t>
@@ -2264,29 +2237,29 @@
       <c r="T2" t="s">
         <v>494</v>
       </c>
-      <c r="U2" t="s">
-        <v>513</v>
-      </c>
-      <c r="V2" t="s">
-        <v>517</v>
-      </c>
-      <c r="W2" t="s">
-        <v>522</v>
-      </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="AA2" t="s">
         <v>336</v>
       </c>
       <c r="AB2" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>540</v>
       </c>
       <c r="AE2" t="s">
-        <v>555</v>
+        <v>541</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>542</v>
       </c>
       <c r="AH2" t="s">
         <v>407</v>
@@ -2294,11 +2267,17 @@
       <c r="AI2" t="s">
         <v>404</v>
       </c>
+      <c r="AK2" t="s">
+        <v>548</v>
+      </c>
       <c r="AL2" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="AN2" t="s">
-        <v>560</v>
+        <v>551</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2356,29 +2335,26 @@
       <c r="T3" t="s">
         <v>495</v>
       </c>
-      <c r="U3" t="s">
-        <v>514</v>
-      </c>
-      <c r="V3" t="s">
-        <v>518</v>
-      </c>
-      <c r="W3" t="s">
-        <v>523</v>
-      </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="AA3" t="s">
         <v>405</v>
       </c>
       <c r="AB3" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>555</v>
+        <v>541</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>543</v>
       </c>
       <c r="AH3" t="s">
         <v>404</v>
@@ -2386,8 +2362,14 @@
       <c r="AI3" t="s">
         <v>339</v>
       </c>
+      <c r="AK3" t="s">
+        <v>549</v>
+      </c>
       <c r="AL3" t="s">
         <v>406</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2409,16 +2391,16 @@
       <c r="Q4" t="s">
         <v>461</v>
       </c>
-      <c r="U4" t="s">
-        <v>515</v>
-      </c>
-      <c r="V4" t="s">
-        <v>519</v>
-      </c>
-      <c r="W4" t="s">
-        <v>524</v>
-      </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>544</v>
+      </c>
+      <c r="AP4">
         <v>0</v>
       </c>
     </row>
@@ -2477,26 +2459,20 @@
       <c r="T5" t="s">
         <v>495</v>
       </c>
-      <c r="U5" t="s">
-        <v>516</v>
-      </c>
-      <c r="V5" t="s">
-        <v>520</v>
-      </c>
-      <c r="W5" t="s">
-        <v>525</v>
-      </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="AA5" t="s">
         <v>331</v>
       </c>
       <c r="AB5" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
       </c>
       <c r="AE5" t="s">
         <v>339</v>
@@ -2508,7 +2484,10 @@
         <v>406</v>
       </c>
       <c r="AL5" t="s">
-        <v>555</v>
+        <v>541</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2566,26 +2545,20 @@
       <c r="T6" t="s">
         <v>495</v>
       </c>
-      <c r="U6" t="s">
-        <v>514</v>
-      </c>
-      <c r="V6" t="s">
-        <v>521</v>
-      </c>
-      <c r="W6" t="s">
-        <v>526</v>
-      </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="AA6" t="s">
         <v>406</v>
       </c>
       <c r="AB6" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
       </c>
       <c r="AE6" t="s">
         <v>339</v>
@@ -2597,7 +2570,10 @@
         <v>406</v>
       </c>
       <c r="AL6" t="s">
-        <v>555</v>
+        <v>541</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2655,23 +2631,20 @@
       <c r="T7" t="s">
         <v>495</v>
       </c>
-      <c r="V7" t="s">
-        <v>520</v>
-      </c>
-      <c r="W7" t="s">
-        <v>527</v>
-      </c>
       <c r="X7">
         <v>38</v>
       </c>
       <c r="Z7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="AA7" t="s">
         <v>410</v>
       </c>
       <c r="AB7" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
       </c>
       <c r="AE7" t="s">
         <v>339</v>
@@ -2683,7 +2656,10 @@
         <v>406</v>
       </c>
       <c r="AL7" t="s">
-        <v>555</v>
+        <v>541</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2741,32 +2717,35 @@
       <c r="T8" t="s">
         <v>495</v>
       </c>
-      <c r="W8" t="s">
-        <v>527</v>
-      </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="AA8" t="s">
         <v>388</v>
       </c>
       <c r="AB8" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
       </c>
       <c r="AE8" t="s">
         <v>332</v>
       </c>
       <c r="AH8" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="AI8" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="AL8" t="s">
         <v>335</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2821,23 +2800,23 @@
       <c r="S9" t="s">
         <v>469</v>
       </c>
-      <c r="W9" t="s">
-        <v>527</v>
-      </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="AA9" t="s">
         <v>336</v>
       </c>
       <c r="AB9" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="AH9" t="s">
         <v>340</v>
@@ -2849,7 +2828,10 @@
         <v>398</v>
       </c>
       <c r="AN9" t="s">
-        <v>561</v>
+        <v>552</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2907,14 +2889,14 @@
       <c r="T10" t="s">
         <v>496</v>
       </c>
-      <c r="W10" t="s">
-        <v>527</v>
-      </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>533</v>
+        <v>518</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
       </c>
       <c r="AE10" t="s">
         <v>407</v>
@@ -2927,6 +2909,9 @@
       </c>
       <c r="AL10" t="s">
         <v>404</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2948,11 +2933,14 @@
       <c r="Q11" t="s">
         <v>459</v>
       </c>
-      <c r="W11" t="s">
-        <v>527</v>
-      </c>
       <c r="Y11">
         <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3010,14 +2998,14 @@
       <c r="T12" t="s">
         <v>495</v>
       </c>
-      <c r="W12" t="s">
-        <v>527</v>
-      </c>
       <c r="X12">
         <v>78</v>
       </c>
       <c r="Z12" t="s">
-        <v>534</v>
+        <v>519</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
       </c>
       <c r="AE12" t="s">
         <v>331</v>
@@ -3030,6 +3018,9 @@
       </c>
       <c r="AL12" t="s">
         <v>404</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3084,32 +3075,35 @@
       <c r="S13" t="s">
         <v>472</v>
       </c>
-      <c r="W13" t="s">
-        <v>527</v>
-      </c>
       <c r="X13">
         <v>24</v>
       </c>
       <c r="Z13" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="AA13" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AB13" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
       </c>
       <c r="AE13" t="s">
         <v>401</v>
       </c>
       <c r="AH13" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="AI13" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AL13" t="s">
         <v>402</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3167,26 +3161,29 @@
       <c r="T14" t="s">
         <v>495</v>
       </c>
-      <c r="W14" t="s">
-        <v>527</v>
-      </c>
       <c r="X14">
         <v>20</v>
       </c>
       <c r="Z14" t="s">
-        <v>534</v>
+        <v>519</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
       </c>
       <c r="AE14" t="s">
         <v>331</v>
       </c>
       <c r="AH14" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="AI14" t="s">
         <v>405</v>
       </c>
       <c r="AL14" t="s">
-        <v>559</v>
+        <v>550</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3241,20 +3238,20 @@
       <c r="T15" t="s">
         <v>497</v>
       </c>
-      <c r="W15" t="s">
-        <v>527</v>
-      </c>
       <c r="X15">
         <v>153</v>
       </c>
       <c r="Z15" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA15" t="s">
         <v>408</v>
       </c>
       <c r="AB15" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
       </c>
       <c r="AI15" t="s">
         <v>399</v>
@@ -3263,7 +3260,10 @@
         <v>399</v>
       </c>
       <c r="AN15" t="s">
-        <v>562</v>
+        <v>553</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3321,20 +3321,20 @@
       <c r="T16" t="s">
         <v>498</v>
       </c>
-      <c r="W16" t="s">
-        <v>527</v>
-      </c>
       <c r="X16">
         <v>77</v>
       </c>
       <c r="Z16" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA16" t="s">
         <v>534</v>
       </c>
-      <c r="AA16" t="s">
-        <v>549</v>
-      </c>
       <c r="AB16" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
       </c>
       <c r="AE16" t="s">
         <v>335</v>
@@ -3348,8 +3348,11 @@
       <c r="AL16" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="17" spans="1:40">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3404,38 +3407,41 @@
       <c r="T17" t="s">
         <v>499</v>
       </c>
-      <c r="W17" t="s">
-        <v>527</v>
-      </c>
       <c r="X17">
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="AA17" t="s">
         <v>343</v>
       </c>
       <c r="AB17" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
       </c>
       <c r="AE17" t="s">
         <v>401</v>
       </c>
       <c r="AH17" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AI17" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AL17" t="s">
         <v>400</v>
       </c>
       <c r="AN17" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
+        <v>554</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3454,14 +3460,17 @@
       <c r="Q18" t="s">
         <v>459</v>
       </c>
-      <c r="W18" t="s">
-        <v>527</v>
-      </c>
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:40">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3516,14 +3525,14 @@
       <c r="T19" t="s">
         <v>500</v>
       </c>
-      <c r="W19" t="s">
-        <v>527</v>
-      </c>
       <c r="X19">
         <v>150</v>
       </c>
       <c r="Z19" t="s">
-        <v>538</v>
+        <v>523</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
       </c>
       <c r="AE19" t="s">
         <v>344</v>
@@ -3535,10 +3544,13 @@
         <v>410</v>
       </c>
       <c r="AN19" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3593,20 +3605,20 @@
       <c r="T20" t="s">
         <v>501</v>
       </c>
-      <c r="W20" t="s">
-        <v>527</v>
-      </c>
       <c r="X20">
         <v>142</v>
       </c>
       <c r="Z20" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA20" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AB20" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
       </c>
       <c r="AE20" t="s">
         <v>401</v>
@@ -3615,10 +3627,13 @@
         <v>342</v>
       </c>
       <c r="AN20" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
+        <v>556</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3673,38 +3688,41 @@
       <c r="T21" t="s">
         <v>499</v>
       </c>
-      <c r="W21" t="s">
-        <v>527</v>
-      </c>
       <c r="X21">
         <v>43</v>
       </c>
       <c r="Z21" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="AA21" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AB21" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
       </c>
       <c r="AE21" t="s">
         <v>401</v>
       </c>
       <c r="AH21" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AI21" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AL21" t="s">
         <v>400</v>
       </c>
       <c r="AN21" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40">
+        <v>557</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3759,20 +3777,20 @@
       <c r="T22" t="s">
         <v>496</v>
       </c>
-      <c r="W22" t="s">
-        <v>527</v>
-      </c>
       <c r="X22">
         <v>29</v>
       </c>
       <c r="Z22" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA22" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AB22" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
       </c>
       <c r="AE22" t="s">
         <v>401</v>
@@ -3781,10 +3799,13 @@
         <v>410</v>
       </c>
       <c r="AN22" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
+        <v>558</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -3839,20 +3860,20 @@
       <c r="T23" t="s">
         <v>502</v>
       </c>
-      <c r="W23" t="s">
-        <v>527</v>
-      </c>
       <c r="X23">
         <v>15</v>
       </c>
       <c r="Z23" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AA23" t="s">
         <v>342</v>
       </c>
       <c r="AB23" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
       </c>
       <c r="AE23" t="s">
         <v>401</v>
@@ -3863,8 +3884,11 @@
       <c r="AI23" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="24" spans="1:40">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -3919,20 +3943,20 @@
       <c r="T24" t="s">
         <v>495</v>
       </c>
-      <c r="W24" t="s">
-        <v>527</v>
-      </c>
       <c r="X24">
         <v>273</v>
       </c>
       <c r="Z24" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AA24" t="s">
         <v>406</v>
       </c>
       <c r="AB24" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
       </c>
       <c r="AE24" t="s">
         <v>339</v>
@@ -3944,10 +3968,13 @@
         <v>406</v>
       </c>
       <c r="AL24" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40">
+        <v>541</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -4002,35 +4029,38 @@
       <c r="T25" t="s">
         <v>503</v>
       </c>
-      <c r="W25" t="s">
-        <v>527</v>
-      </c>
       <c r="X25">
         <v>22</v>
       </c>
       <c r="Z25" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="AA25" t="s">
         <v>404</v>
       </c>
       <c r="AB25" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
       </c>
       <c r="AE25" t="s">
         <v>344</v>
       </c>
       <c r="AI25" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AL25" t="s">
         <v>402</v>
       </c>
       <c r="AN25" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -4085,20 +4115,20 @@
       <c r="T26" t="s">
         <v>495</v>
       </c>
-      <c r="W26" t="s">
-        <v>527</v>
-      </c>
       <c r="X26">
         <v>272</v>
       </c>
       <c r="Z26" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="AA26" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AB26" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
       </c>
       <c r="AE26" t="s">
         <v>339</v>
@@ -4110,10 +4140,13 @@
         <v>406</v>
       </c>
       <c r="AL26" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40">
+        <v>541</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -4168,20 +4201,20 @@
       <c r="T27" t="s">
         <v>495</v>
       </c>
-      <c r="W27" t="s">
-        <v>527</v>
-      </c>
       <c r="X27">
         <v>122</v>
       </c>
       <c r="Z27" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="AA27" t="s">
         <v>406</v>
       </c>
       <c r="AB27" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
       </c>
       <c r="AE27" t="s">
         <v>339</v>
@@ -4193,10 +4226,13 @@
         <v>406</v>
       </c>
       <c r="AL27" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40">
+        <v>541</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -4251,23 +4287,23 @@
       <c r="T28" t="s">
         <v>504</v>
       </c>
-      <c r="W28" t="s">
-        <v>527</v>
-      </c>
       <c r="X28">
         <v>314</v>
       </c>
       <c r="Z28" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="AA28" t="s">
         <v>406</v>
       </c>
       <c r="AB28" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="AH28" t="s">
         <v>340</v>
@@ -4278,8 +4314,11 @@
       <c r="AL28" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="29" spans="1:40">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -4334,35 +4373,38 @@
       <c r="T29" t="s">
         <v>495</v>
       </c>
-      <c r="W29" t="s">
-        <v>527</v>
-      </c>
       <c r="X29">
         <v>370</v>
       </c>
       <c r="Z29" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA29" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AB29" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
       </c>
       <c r="AE29" t="s">
         <v>398</v>
       </c>
       <c r="AH29" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AI29" t="s">
         <v>398</v>
       </c>
       <c r="AL29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40">
+        <v>545</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -4381,14 +4423,17 @@
       <c r="Q30" t="s">
         <v>459</v>
       </c>
-      <c r="W30" t="s">
-        <v>527</v>
-      </c>
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:40">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -4407,14 +4452,17 @@
       <c r="Q31" t="s">
         <v>462</v>
       </c>
-      <c r="W31" t="s">
-        <v>527</v>
-      </c>
       <c r="Y31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:40">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4466,20 +4514,20 @@
       <c r="S32" t="s">
         <v>481</v>
       </c>
-      <c r="W32" t="s">
-        <v>527</v>
-      </c>
       <c r="X32">
         <v>16</v>
       </c>
       <c r="Z32" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AA32" t="s">
         <v>406</v>
       </c>
       <c r="AB32" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
       </c>
       <c r="AE32" t="s">
         <v>340</v>
@@ -4493,8 +4541,11 @@
       <c r="AL32" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="33" spans="1:40">
+      <c r="AP32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -4549,20 +4600,20 @@
       <c r="T33" t="s">
         <v>500</v>
       </c>
-      <c r="W33" t="s">
-        <v>527</v>
-      </c>
       <c r="X33">
         <v>220</v>
       </c>
       <c r="Z33" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AA33" t="s">
         <v>408</v>
       </c>
       <c r="AB33" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
       </c>
       <c r="AE33" t="s">
         <v>344</v>
@@ -4574,10 +4625,13 @@
         <v>410</v>
       </c>
       <c r="AN33" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4629,20 +4683,20 @@
       <c r="S34" t="s">
         <v>482</v>
       </c>
-      <c r="W34" t="s">
-        <v>527</v>
-      </c>
       <c r="X34">
         <v>122</v>
       </c>
       <c r="Z34" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="AA34" t="s">
         <v>406</v>
       </c>
       <c r="AB34" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
       </c>
       <c r="AE34" t="s">
         <v>339</v>
@@ -4654,10 +4708,13 @@
         <v>406</v>
       </c>
       <c r="AL34" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40">
+        <v>541</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -4712,23 +4769,23 @@
       <c r="T35" t="s">
         <v>505</v>
       </c>
-      <c r="W35" t="s">
-        <v>527</v>
-      </c>
       <c r="X35">
         <v>53</v>
       </c>
       <c r="Z35" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA35" t="s">
         <v>343</v>
       </c>
       <c r="AB35" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
       </c>
       <c r="AE35" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AH35" t="s">
         <v>344</v>
@@ -4739,8 +4796,11 @@
       <c r="AL35" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="36" spans="1:40">
+      <c r="AP35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -4795,23 +4855,23 @@
       <c r="T36" t="s">
         <v>505</v>
       </c>
-      <c r="W36" t="s">
-        <v>527</v>
-      </c>
       <c r="X36">
         <v>53</v>
       </c>
       <c r="Z36" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="AA36" t="s">
         <v>397</v>
       </c>
       <c r="AB36" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AH36" t="s">
         <v>344</v>
@@ -4822,8 +4882,11 @@
       <c r="AL36" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="1:40">
+      <c r="AP36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -4842,14 +4905,17 @@
       <c r="Q37" t="s">
         <v>461</v>
       </c>
-      <c r="W37" t="s">
-        <v>527</v>
-      </c>
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:40">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -4904,35 +4970,38 @@
       <c r="T38" t="s">
         <v>495</v>
       </c>
-      <c r="W38" t="s">
-        <v>527</v>
-      </c>
       <c r="X38">
         <v>450</v>
       </c>
       <c r="Z38" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA38" t="s">
         <v>408</v>
       </c>
       <c r="AB38" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
       </c>
       <c r="AE38" t="s">
         <v>398</v>
       </c>
       <c r="AH38" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AI38" t="s">
         <v>398</v>
       </c>
       <c r="AL38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40">
+        <v>545</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4987,20 +5056,20 @@
       <c r="T39" t="s">
         <v>495</v>
       </c>
-      <c r="W39" t="s">
-        <v>527</v>
-      </c>
       <c r="X39">
         <v>152</v>
       </c>
       <c r="Z39" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AA39" t="s">
         <v>406</v>
       </c>
       <c r="AB39" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
       </c>
       <c r="AE39" t="s">
         <v>340</v>
@@ -5012,10 +5081,13 @@
         <v>340</v>
       </c>
       <c r="AL39" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40">
+        <v>535</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -5034,14 +5106,17 @@
       <c r="Q40" t="s">
         <v>461</v>
       </c>
-      <c r="W40" t="s">
-        <v>527</v>
-      </c>
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:40">
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -5060,14 +5135,17 @@
       <c r="Q41" t="s">
         <v>463</v>
       </c>
-      <c r="W41" t="s">
-        <v>527</v>
-      </c>
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:40">
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -5122,20 +5200,20 @@
       <c r="T42" t="s">
         <v>506</v>
       </c>
-      <c r="W42" t="s">
-        <v>527</v>
-      </c>
       <c r="X42">
         <v>414</v>
       </c>
       <c r="Z42" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA42" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AB42" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
       </c>
       <c r="AE42" t="s">
         <v>401</v>
@@ -5149,8 +5227,11 @@
       <c r="AL42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:40">
+      <c r="AP42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -5205,20 +5286,20 @@
       <c r="T43" t="s">
         <v>495</v>
       </c>
-      <c r="W43" t="s">
-        <v>527</v>
-      </c>
       <c r="X43">
         <v>168</v>
       </c>
       <c r="Z43" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AA43" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AB43" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
       </c>
       <c r="AE43" t="s">
         <v>339</v>
@@ -5230,10 +5311,13 @@
         <v>406</v>
       </c>
       <c r="AL43" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40">
+        <v>541</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -5285,20 +5369,20 @@
       <c r="S44" t="s">
         <v>485</v>
       </c>
-      <c r="W44" t="s">
-        <v>527</v>
-      </c>
       <c r="X44">
         <v>72</v>
       </c>
       <c r="Z44" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA44" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AB44" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
       </c>
       <c r="AE44" t="s">
         <v>401</v>
@@ -5312,8 +5396,11 @@
       <c r="AL44" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="45" spans="1:40">
+      <c r="AP44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -5368,20 +5455,20 @@
       <c r="T45" t="s">
         <v>495</v>
       </c>
-      <c r="W45" t="s">
-        <v>527</v>
-      </c>
       <c r="X45">
         <v>75</v>
       </c>
       <c r="Z45" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AA45" t="s">
         <v>408</v>
       </c>
       <c r="AB45" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
       </c>
       <c r="AE45" t="s">
         <v>408</v>
@@ -5390,13 +5477,16 @@
         <v>341</v>
       </c>
       <c r="AI45" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AL45" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="46" spans="1:40">
+      <c r="AP45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -5451,20 +5541,20 @@
       <c r="T46" t="s">
         <v>496</v>
       </c>
-      <c r="W46" t="s">
-        <v>527</v>
-      </c>
       <c r="X46">
         <v>8</v>
       </c>
       <c r="Z46" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AA46" t="s">
         <v>344</v>
       </c>
       <c r="AB46" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
       </c>
       <c r="AE46" t="s">
         <v>408</v>
@@ -5473,10 +5563,13 @@
         <v>341</v>
       </c>
       <c r="AI46" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40">
+        <v>535</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -5528,20 +5621,20 @@
       <c r="S47" t="s">
         <v>486</v>
       </c>
-      <c r="W47" t="s">
-        <v>527</v>
-      </c>
       <c r="X47">
         <v>150</v>
       </c>
       <c r="Z47" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="AA47" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="AB47" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
       </c>
       <c r="AE47" t="s">
         <v>408</v>
@@ -5550,13 +5643,16 @@
         <v>341</v>
       </c>
       <c r="AI47" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AL47" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="48" spans="1:40">
+      <c r="AP47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -5608,14 +5704,17 @@
       <c r="T48" t="s">
         <v>507</v>
       </c>
-      <c r="W48" t="s">
-        <v>527</v>
-      </c>
       <c r="X48">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:40">
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -5670,9 +5769,6 @@
       <c r="T49" t="s">
         <v>496</v>
       </c>
-      <c r="W49" t="s">
-        <v>527</v>
-      </c>
       <c r="X49">
         <v>15</v>
       </c>
@@ -5680,7 +5776,10 @@
         <v>400</v>
       </c>
       <c r="AB49" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
       </c>
       <c r="AH49" t="s">
         <v>343</v>
@@ -5688,8 +5787,11 @@
       <c r="AI49" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="50" spans="1:40">
+      <c r="AP49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -5732,11 +5834,14 @@
       <c r="Q50" t="s">
         <v>464</v>
       </c>
-      <c r="W50" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -5791,29 +5896,32 @@
       <c r="T51" t="s">
         <v>495</v>
       </c>
-      <c r="W51" t="s">
-        <v>527</v>
-      </c>
       <c r="X51">
         <v>71</v>
       </c>
       <c r="Z51" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="AA51" t="s">
         <v>410</v>
       </c>
       <c r="AB51" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
       </c>
       <c r="AE51" t="s">
         <v>413</v>
       </c>
       <c r="AN51" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -5865,9 +5973,6 @@
       <c r="T52" t="s">
         <v>508</v>
       </c>
-      <c r="W52" t="s">
-        <v>527</v>
-      </c>
       <c r="X52">
         <v>160</v>
       </c>
@@ -5875,10 +5980,16 @@
         <v>399</v>
       </c>
       <c r="AB52" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40">
+        <v>538</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -5930,14 +6041,17 @@
       <c r="T53" t="s">
         <v>508</v>
       </c>
-      <c r="W53" t="s">
-        <v>527</v>
-      </c>
       <c r="X53">
         <v>344</v>
       </c>
-    </row>
-    <row r="54" spans="1:40">
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -5989,9 +6103,6 @@
       <c r="T54" t="s">
         <v>507</v>
       </c>
-      <c r="W54" t="s">
-        <v>527</v>
-      </c>
       <c r="X54">
         <v>59</v>
       </c>
@@ -5999,10 +6110,16 @@
         <v>399</v>
       </c>
       <c r="AB54" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40">
+        <v>537</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -6021,14 +6138,17 @@
       <c r="Q55" t="s">
         <v>459</v>
       </c>
-      <c r="W55" t="s">
-        <v>527</v>
-      </c>
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:40">
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -6083,29 +6203,32 @@
       <c r="T56" t="s">
         <v>495</v>
       </c>
-      <c r="W56" t="s">
-        <v>527</v>
-      </c>
       <c r="X56">
         <v>178</v>
       </c>
       <c r="Z56" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AA56" t="s">
         <v>331</v>
       </c>
       <c r="AB56" t="s">
-        <v>554</v>
+        <v>539</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
       </c>
       <c r="AE56" t="s">
         <v>413</v>
       </c>
       <c r="AN56" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -6160,29 +6283,32 @@
       <c r="T57" t="s">
         <v>495</v>
       </c>
-      <c r="W57" t="s">
-        <v>527</v>
-      </c>
       <c r="X57">
         <v>178</v>
       </c>
       <c r="Z57" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AA57" t="s">
         <v>410</v>
       </c>
       <c r="AB57" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
       </c>
       <c r="AE57" t="s">
         <v>413</v>
       </c>
       <c r="AN57" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -6237,20 +6363,20 @@
       <c r="T58" t="s">
         <v>500</v>
       </c>
-      <c r="W58" t="s">
-        <v>527</v>
-      </c>
       <c r="X58">
         <v>266</v>
       </c>
       <c r="Z58" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="AA58" t="s">
         <v>342</v>
       </c>
       <c r="AB58" t="s">
-        <v>553</v>
+        <v>537</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
       </c>
       <c r="AE58" t="s">
         <v>413</v>
@@ -6259,10 +6385,13 @@
         <v>398</v>
       </c>
       <c r="AN58" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -6314,26 +6443,29 @@
       <c r="S59" t="s">
         <v>486</v>
       </c>
-      <c r="W59" t="s">
-        <v>527</v>
-      </c>
       <c r="X59">
         <v>160</v>
       </c>
       <c r="Z59" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AA59" t="s">
         <v>410</v>
       </c>
       <c r="AB59" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
       </c>
       <c r="AN59" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -6385,14 +6517,17 @@
       <c r="T60" t="s">
         <v>509</v>
       </c>
-      <c r="W60" t="s">
-        <v>527</v>
-      </c>
       <c r="X60">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" spans="1:40">
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -6441,26 +6576,29 @@
       <c r="Q61" t="s">
         <v>460</v>
       </c>
-      <c r="W61" t="s">
-        <v>527</v>
-      </c>
       <c r="Z61" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AA61" t="s">
         <v>410</v>
       </c>
       <c r="AB61" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
       </c>
       <c r="AE61" t="s">
         <v>413</v>
       </c>
       <c r="AN61" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -6512,14 +6650,17 @@
       <c r="T62" t="s">
         <v>510</v>
       </c>
-      <c r="W62" t="s">
-        <v>527</v>
-      </c>
       <c r="X62">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:40">
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -6538,14 +6679,17 @@
       <c r="Q63" t="s">
         <v>459</v>
       </c>
-      <c r="W63" t="s">
-        <v>527</v>
-      </c>
       <c r="Y63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:40">
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -6564,11 +6708,14 @@
       <c r="Q64" t="s">
         <v>459</v>
       </c>
-      <c r="W64" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:40">
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -6623,29 +6770,32 @@
       <c r="T65" t="s">
         <v>495</v>
       </c>
-      <c r="W65" t="s">
-        <v>527</v>
-      </c>
       <c r="X65">
         <v>400</v>
       </c>
       <c r="Z65" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AA65" t="s">
         <v>410</v>
       </c>
       <c r="AB65" t="s">
-        <v>553</v>
+        <v>538</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
       </c>
       <c r="AE65" t="s">
         <v>413</v>
       </c>
       <c r="AN65" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="66" spans="1:40">
+        <v>555</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -6694,11 +6844,14 @@
       <c r="Q66" t="s">
         <v>459</v>
       </c>
-      <c r="W66" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40">
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -6750,14 +6903,17 @@
       <c r="T67" t="s">
         <v>495</v>
       </c>
-      <c r="W67" t="s">
-        <v>527</v>
-      </c>
       <c r="X67">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:40">
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -6809,14 +6965,17 @@
       <c r="T68" t="s">
         <v>495</v>
       </c>
-      <c r="W68" t="s">
-        <v>527</v>
-      </c>
       <c r="X68">
         <v>218</v>
       </c>
-    </row>
-    <row r="69" spans="1:40">
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -6868,14 +7027,17 @@
       <c r="T69" t="s">
         <v>501</v>
       </c>
-      <c r="W69" t="s">
-        <v>527</v>
-      </c>
       <c r="X69">
         <v>187</v>
       </c>
-    </row>
-    <row r="70" spans="1:40">
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -6927,14 +7089,17 @@
       <c r="T70" t="s">
         <v>508</v>
       </c>
-      <c r="W70" t="s">
-        <v>527</v>
-      </c>
       <c r="X70">
         <v>253</v>
       </c>
-    </row>
-    <row r="71" spans="1:40">
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42">
       <c r="A71" t="s">
         <v>108</v>
       </c>
@@ -6986,14 +7151,17 @@
       <c r="T71" t="s">
         <v>495</v>
       </c>
-      <c r="W71" t="s">
-        <v>527</v>
-      </c>
       <c r="X71">
         <v>302</v>
       </c>
-    </row>
-    <row r="72" spans="1:40">
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -7042,14 +7210,17 @@
       <c r="S72" t="s">
         <v>486</v>
       </c>
-      <c r="W72" t="s">
-        <v>527</v>
-      </c>
       <c r="X72">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:40">
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -7101,14 +7272,17 @@
       <c r="T73" t="s">
         <v>495</v>
       </c>
-      <c r="W73" t="s">
-        <v>527</v>
-      </c>
       <c r="X73">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="1:40">
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -7160,14 +7334,17 @@
       <c r="T74" t="s">
         <v>500</v>
       </c>
-      <c r="W74" t="s">
-        <v>527</v>
-      </c>
       <c r="X74">
         <v>219</v>
       </c>
-    </row>
-    <row r="75" spans="1:40">
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -7213,11 +7390,14 @@
       <c r="Q75" t="s">
         <v>459</v>
       </c>
-      <c r="W75" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="76" spans="1:40">
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -7263,11 +7443,14 @@
       <c r="Q76" t="s">
         <v>460</v>
       </c>
-      <c r="W76" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="77" spans="1:40">
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -7319,14 +7502,17 @@
       <c r="T77" t="s">
         <v>495</v>
       </c>
-      <c r="W77" t="s">
-        <v>527</v>
-      </c>
       <c r="X77">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="1:40">
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -7378,14 +7564,17 @@
       <c r="T78" t="s">
         <v>498</v>
       </c>
-      <c r="W78" t="s">
-        <v>527</v>
-      </c>
       <c r="X78">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:40">
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -7431,11 +7620,14 @@
       <c r="Q79" t="s">
         <v>459</v>
       </c>
-      <c r="W79" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="80" spans="1:40">
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -7481,11 +7673,14 @@
       <c r="Q80" t="s">
         <v>460</v>
       </c>
-      <c r="W80" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -7531,11 +7726,14 @@
       <c r="Q81" t="s">
         <v>462</v>
       </c>
-      <c r="W81" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42">
       <c r="A82" t="s">
         <v>119</v>
       </c>
@@ -7581,11 +7779,14 @@
       <c r="Q82" t="s">
         <v>460</v>
       </c>
-      <c r="W82" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42">
       <c r="A83" t="s">
         <v>120</v>
       </c>
@@ -7631,11 +7832,14 @@
       <c r="Q83" t="s">
         <v>466</v>
       </c>
-      <c r="W83" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -7687,14 +7891,17 @@
       <c r="T84" t="s">
         <v>511</v>
       </c>
-      <c r="W84" t="s">
-        <v>527</v>
-      </c>
       <c r="X84">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>122</v>
       </c>
@@ -7737,11 +7944,14 @@
       <c r="Q85" t="s">
         <v>460</v>
       </c>
-      <c r="W85" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -7787,11 +7997,14 @@
       <c r="Q86" t="s">
         <v>460</v>
       </c>
-      <c r="W86" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -7843,14 +8056,17 @@
       <c r="T87" t="s">
         <v>512</v>
       </c>
-      <c r="W87" t="s">
-        <v>527</v>
-      </c>
       <c r="X87">
         <v>34</v>
       </c>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -7902,14 +8118,17 @@
       <c r="T88" t="s">
         <v>504</v>
       </c>
-      <c r="W88" t="s">
-        <v>527</v>
-      </c>
       <c r="X88">
         <v>819</v>
       </c>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -7961,14 +8180,17 @@
       <c r="T89" t="s">
         <v>503</v>
       </c>
-      <c r="W89" t="s">
-        <v>527</v>
-      </c>
       <c r="X89">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -8017,14 +8239,17 @@
       <c r="T90" t="s">
         <v>495</v>
       </c>
-      <c r="W90" t="s">
-        <v>527</v>
-      </c>
       <c r="X90">
         <v>198</v>
       </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -8070,11 +8295,14 @@
       <c r="Q91" t="s">
         <v>460</v>
       </c>
-      <c r="W91" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -8123,14 +8351,17 @@
       <c r="T92" t="s">
         <v>495</v>
       </c>
-      <c r="W92" t="s">
-        <v>527</v>
-      </c>
       <c r="X92">
         <v>210</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -8179,14 +8410,17 @@
       <c r="S93" t="s">
         <v>486</v>
       </c>
-      <c r="W93" t="s">
-        <v>527</v>
-      </c>
       <c r="X93">
         <v>211</v>
       </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42">
       <c r="A94" t="s">
         <v>131</v>
       </c>
@@ -8217,11 +8451,14 @@
       <c r="Q94" t="s">
         <v>460</v>
       </c>
-      <c r="W94" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -8267,11 +8504,14 @@
       <c r="Q95" t="s">
         <v>462</v>
       </c>
-      <c r="W95" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -8314,11 +8554,14 @@
       <c r="Q96" t="s">
         <v>459</v>
       </c>
-      <c r="W96" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -8358,11 +8601,14 @@
       <c r="Q97" t="s">
         <v>460</v>
       </c>
-      <c r="W97" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42">
       <c r="A98" t="s">
         <v>135</v>
       </c>
@@ -8411,14 +8657,17 @@
       <c r="T98" t="s">
         <v>504</v>
       </c>
-      <c r="W98" t="s">
-        <v>527</v>
-      </c>
       <c r="X98">
         <v>59</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42">
       <c r="A99" t="s">
         <v>136</v>
       </c>
@@ -8458,14 +8707,17 @@
       <c r="T99" t="s">
         <v>504</v>
       </c>
-      <c r="W99" t="s">
-        <v>527</v>
-      </c>
       <c r="X99">
         <v>617</v>
       </c>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:42">
       <c r="A100" t="s">
         <v>137</v>
       </c>
@@ -8496,11 +8748,14 @@
       <c r="Q100" t="s">
         <v>460</v>
       </c>
-      <c r="W100" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42">
       <c r="A101" t="s">
         <v>138</v>
       </c>
@@ -8534,11 +8789,14 @@
       <c r="Q101" t="s">
         <v>460</v>
       </c>
-      <c r="W101" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42">
       <c r="A102" t="s">
         <v>139</v>
       </c>
@@ -8557,11 +8815,14 @@
       <c r="Q102" t="s">
         <v>462</v>
       </c>
-      <c r="W102" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:42">
       <c r="A103" t="s">
         <v>140</v>
       </c>
@@ -8595,11 +8856,14 @@
       <c r="Q103" t="s">
         <v>459</v>
       </c>
-      <c r="W103" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:42">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -8639,11 +8903,14 @@
       <c r="Q104" t="s">
         <v>460</v>
       </c>
-      <c r="W104" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:42">
       <c r="A105" t="s">
         <v>142</v>
       </c>
@@ -8680,14 +8947,17 @@
       <c r="T105" t="s">
         <v>496</v>
       </c>
-      <c r="W105" t="s">
-        <v>527</v>
-      </c>
       <c r="X105">
         <v>30</v>
       </c>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:42">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -8724,14 +8994,17 @@
       <c r="T106" t="s">
         <v>503</v>
       </c>
-      <c r="W106" t="s">
-        <v>527</v>
-      </c>
       <c r="X106">
         <v>42</v>
       </c>
-    </row>
-    <row r="107" spans="1:24">
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:42">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -8750,11 +9023,14 @@
       <c r="Q107" t="s">
         <v>466</v>
       </c>
-      <c r="W107" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:42">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -8773,8 +9049,11 @@
       <c r="Q108" t="s">
         <v>460</v>
       </c>
-      <c r="W108" t="s">
-        <v>527</v>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="563">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -1553,6 +1553,18 @@
   </si>
   <si>
     <t>XLX7</t>
+  </si>
+  <si>
+    <t>Nolan Transportation Group</t>
+  </si>
+  <si>
+    <t>A Duie Pyle</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>2025-02-25</t>
@@ -2237,29 +2249,38 @@
       <c r="T2" t="s">
         <v>494</v>
       </c>
+      <c r="U2" t="s">
+        <v>513</v>
+      </c>
+      <c r="V2" t="s">
+        <v>514</v>
+      </c>
+      <c r="W2" t="s">
+        <v>515</v>
+      </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AA2" t="s">
         <v>336</v>
       </c>
       <c r="AB2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AE2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AG2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AH2" t="s">
         <v>407</v>
@@ -2268,13 +2289,13 @@
         <v>404</v>
       </c>
       <c r="AK2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AL2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AN2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -2335,26 +2356,29 @@
       <c r="T3" t="s">
         <v>495</v>
       </c>
+      <c r="W3" t="s">
+        <v>516</v>
+      </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AA3" t="s">
         <v>405</v>
       </c>
       <c r="AB3" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AG3" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AH3" t="s">
         <v>404</v>
@@ -2363,7 +2387,7 @@
         <v>339</v>
       </c>
       <c r="AK3" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AL3" t="s">
         <v>406</v>
@@ -2391,6 +2415,9 @@
       <c r="Q4" t="s">
         <v>461</v>
       </c>
+      <c r="W4" t="s">
+        <v>516</v>
+      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -2398,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -2459,17 +2486,20 @@
       <c r="T5" t="s">
         <v>495</v>
       </c>
+      <c r="W5" t="s">
+        <v>516</v>
+      </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AA5" t="s">
         <v>331</v>
       </c>
       <c r="AB5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2484,7 +2514,7 @@
         <v>406</v>
       </c>
       <c r="AL5" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -2545,17 +2575,20 @@
       <c r="T6" t="s">
         <v>495</v>
       </c>
+      <c r="W6" t="s">
+        <v>516</v>
+      </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AA6" t="s">
         <v>406</v>
       </c>
       <c r="AB6" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2570,7 +2603,7 @@
         <v>406</v>
       </c>
       <c r="AL6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -2631,17 +2664,20 @@
       <c r="T7" t="s">
         <v>495</v>
       </c>
+      <c r="W7" t="s">
+        <v>516</v>
+      </c>
       <c r="X7">
         <v>38</v>
       </c>
       <c r="Z7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AA7" t="s">
         <v>410</v>
       </c>
       <c r="AB7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2656,7 +2692,7 @@
         <v>406</v>
       </c>
       <c r="AL7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -2717,17 +2753,20 @@
       <c r="T8" t="s">
         <v>495</v>
       </c>
+      <c r="W8" t="s">
+        <v>516</v>
+      </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AA8" t="s">
         <v>388</v>
       </c>
       <c r="AB8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2736,10 +2775,10 @@
         <v>332</v>
       </c>
       <c r="AH8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AI8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AL8" t="s">
         <v>335</v>
@@ -2800,23 +2839,26 @@
       <c r="S9" t="s">
         <v>469</v>
       </c>
+      <c r="W9" t="s">
+        <v>516</v>
+      </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AA9" t="s">
         <v>336</v>
       </c>
       <c r="AB9" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AH9" t="s">
         <v>340</v>
@@ -2828,7 +2870,7 @@
         <v>398</v>
       </c>
       <c r="AN9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2889,11 +2931,14 @@
       <c r="T10" t="s">
         <v>496</v>
       </c>
+      <c r="W10" t="s">
+        <v>516</v>
+      </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2933,6 +2978,9 @@
       <c r="Q11" t="s">
         <v>459</v>
       </c>
+      <c r="W11" t="s">
+        <v>516</v>
+      </c>
       <c r="Y11">
         <v>5</v>
       </c>
@@ -2998,11 +3046,14 @@
       <c r="T12" t="s">
         <v>495</v>
       </c>
+      <c r="W12" t="s">
+        <v>516</v>
+      </c>
       <c r="X12">
         <v>78</v>
       </c>
       <c r="Z12" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -3075,17 +3126,20 @@
       <c r="S13" t="s">
         <v>472</v>
       </c>
+      <c r="W13" t="s">
+        <v>516</v>
+      </c>
       <c r="X13">
         <v>24</v>
       </c>
       <c r="Z13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AA13" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AB13" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -3094,10 +3148,10 @@
         <v>401</v>
       </c>
       <c r="AH13" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AI13" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AL13" t="s">
         <v>402</v>
@@ -3161,11 +3215,14 @@
       <c r="T14" t="s">
         <v>495</v>
       </c>
+      <c r="W14" t="s">
+        <v>516</v>
+      </c>
       <c r="X14">
         <v>20</v>
       </c>
       <c r="Z14" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -3174,13 +3231,13 @@
         <v>331</v>
       </c>
       <c r="AH14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AI14" t="s">
         <v>405</v>
       </c>
       <c r="AL14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -3238,17 +3295,20 @@
       <c r="T15" t="s">
         <v>497</v>
       </c>
+      <c r="W15" t="s">
+        <v>516</v>
+      </c>
       <c r="X15">
         <v>153</v>
       </c>
       <c r="Z15" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA15" t="s">
         <v>408</v>
       </c>
       <c r="AB15" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -3260,7 +3320,7 @@
         <v>399</v>
       </c>
       <c r="AN15" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -3321,17 +3381,20 @@
       <c r="T16" t="s">
         <v>498</v>
       </c>
+      <c r="W16" t="s">
+        <v>516</v>
+      </c>
       <c r="X16">
         <v>77</v>
       </c>
       <c r="Z16" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AA16" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AB16" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -3407,17 +3470,20 @@
       <c r="T17" t="s">
         <v>499</v>
       </c>
+      <c r="W17" t="s">
+        <v>516</v>
+      </c>
       <c r="X17">
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AA17" t="s">
         <v>343</v>
       </c>
       <c r="AB17" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -3426,16 +3492,16 @@
         <v>401</v>
       </c>
       <c r="AH17" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AI17" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AL17" t="s">
         <v>400</v>
       </c>
       <c r="AN17" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AP17">
         <v>0</v>
@@ -3460,6 +3526,9 @@
       <c r="Q18" t="s">
         <v>459</v>
       </c>
+      <c r="W18" t="s">
+        <v>516</v>
+      </c>
       <c r="Y18">
         <v>0</v>
       </c>
@@ -3525,11 +3594,14 @@
       <c r="T19" t="s">
         <v>500</v>
       </c>
+      <c r="W19" t="s">
+        <v>516</v>
+      </c>
       <c r="X19">
         <v>150</v>
       </c>
       <c r="Z19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3544,7 +3616,7 @@
         <v>410</v>
       </c>
       <c r="AN19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -3605,17 +3677,20 @@
       <c r="T20" t="s">
         <v>501</v>
       </c>
+      <c r="W20" t="s">
+        <v>516</v>
+      </c>
       <c r="X20">
         <v>142</v>
       </c>
       <c r="Z20" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA20" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AB20" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3627,7 +3702,7 @@
         <v>342</v>
       </c>
       <c r="AN20" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -3688,17 +3763,20 @@
       <c r="T21" t="s">
         <v>499</v>
       </c>
+      <c r="W21" t="s">
+        <v>516</v>
+      </c>
       <c r="X21">
         <v>43</v>
       </c>
       <c r="Z21" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AA21" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AB21" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3707,16 +3785,16 @@
         <v>401</v>
       </c>
       <c r="AH21" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AI21" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AL21" t="s">
         <v>400</v>
       </c>
       <c r="AN21" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -3777,17 +3855,20 @@
       <c r="T22" t="s">
         <v>496</v>
       </c>
+      <c r="W22" t="s">
+        <v>516</v>
+      </c>
       <c r="X22">
         <v>29</v>
       </c>
       <c r="Z22" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA22" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AB22" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3799,7 +3880,7 @@
         <v>410</v>
       </c>
       <c r="AN22" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -3860,17 +3941,20 @@
       <c r="T23" t="s">
         <v>502</v>
       </c>
+      <c r="W23" t="s">
+        <v>516</v>
+      </c>
       <c r="X23">
         <v>15</v>
       </c>
       <c r="Z23" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AA23" t="s">
         <v>342</v>
       </c>
       <c r="AB23" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3943,17 +4027,20 @@
       <c r="T24" t="s">
         <v>495</v>
       </c>
+      <c r="W24" t="s">
+        <v>516</v>
+      </c>
       <c r="X24">
         <v>273</v>
       </c>
       <c r="Z24" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AA24" t="s">
         <v>406</v>
       </c>
       <c r="AB24" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3968,7 +4055,7 @@
         <v>406</v>
       </c>
       <c r="AL24" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -4029,17 +4116,20 @@
       <c r="T25" t="s">
         <v>503</v>
       </c>
+      <c r="W25" t="s">
+        <v>516</v>
+      </c>
       <c r="X25">
         <v>22</v>
       </c>
       <c r="Z25" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AA25" t="s">
         <v>404</v>
       </c>
       <c r="AB25" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -4048,13 +4138,13 @@
         <v>344</v>
       </c>
       <c r="AI25" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AL25" t="s">
         <v>402</v>
       </c>
       <c r="AN25" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -4115,17 +4205,20 @@
       <c r="T26" t="s">
         <v>495</v>
       </c>
+      <c r="W26" t="s">
+        <v>516</v>
+      </c>
       <c r="X26">
         <v>272</v>
       </c>
       <c r="Z26" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AA26" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AB26" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4140,7 +4233,7 @@
         <v>406</v>
       </c>
       <c r="AL26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -4201,17 +4294,20 @@
       <c r="T27" t="s">
         <v>495</v>
       </c>
+      <c r="W27" t="s">
+        <v>516</v>
+      </c>
       <c r="X27">
         <v>122</v>
       </c>
       <c r="Z27" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AA27" t="s">
         <v>406</v>
       </c>
       <c r="AB27" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -4226,7 +4322,7 @@
         <v>406</v>
       </c>
       <c r="AL27" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -4287,23 +4383,26 @@
       <c r="T28" t="s">
         <v>504</v>
       </c>
+      <c r="W28" t="s">
+        <v>516</v>
+      </c>
       <c r="X28">
         <v>314</v>
       </c>
       <c r="Z28" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="AA28" t="s">
         <v>406</v>
       </c>
       <c r="AB28" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AH28" t="s">
         <v>340</v>
@@ -4373,17 +4472,20 @@
       <c r="T29" t="s">
         <v>495</v>
       </c>
+      <c r="W29" t="s">
+        <v>516</v>
+      </c>
       <c r="X29">
         <v>370</v>
       </c>
       <c r="Z29" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA29" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AB29" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4392,13 +4494,13 @@
         <v>398</v>
       </c>
       <c r="AH29" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AI29" t="s">
         <v>398</v>
       </c>
       <c r="AL29" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -4423,6 +4525,9 @@
       <c r="Q30" t="s">
         <v>459</v>
       </c>
+      <c r="W30" t="s">
+        <v>516</v>
+      </c>
       <c r="Y30">
         <v>0</v>
       </c>
@@ -4452,6 +4557,9 @@
       <c r="Q31" t="s">
         <v>462</v>
       </c>
+      <c r="W31" t="s">
+        <v>516</v>
+      </c>
       <c r="Y31">
         <v>2</v>
       </c>
@@ -4514,17 +4622,20 @@
       <c r="S32" t="s">
         <v>481</v>
       </c>
+      <c r="W32" t="s">
+        <v>516</v>
+      </c>
       <c r="X32">
         <v>16</v>
       </c>
       <c r="Z32" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AA32" t="s">
         <v>406</v>
       </c>
       <c r="AB32" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -4600,17 +4711,20 @@
       <c r="T33" t="s">
         <v>500</v>
       </c>
+      <c r="W33" t="s">
+        <v>516</v>
+      </c>
       <c r="X33">
         <v>220</v>
       </c>
       <c r="Z33" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AA33" t="s">
         <v>408</v>
       </c>
       <c r="AB33" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4625,7 +4739,7 @@
         <v>410</v>
       </c>
       <c r="AN33" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP33">
         <v>0</v>
@@ -4683,17 +4797,20 @@
       <c r="S34" t="s">
         <v>482</v>
       </c>
+      <c r="W34" t="s">
+        <v>516</v>
+      </c>
       <c r="X34">
         <v>122</v>
       </c>
       <c r="Z34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AA34" t="s">
         <v>406</v>
       </c>
       <c r="AB34" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -4708,7 +4825,7 @@
         <v>406</v>
       </c>
       <c r="AL34" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AP34">
         <v>0</v>
@@ -4769,23 +4886,26 @@
       <c r="T35" t="s">
         <v>505</v>
       </c>
+      <c r="W35" t="s">
+        <v>516</v>
+      </c>
       <c r="X35">
         <v>53</v>
       </c>
       <c r="Z35" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA35" t="s">
         <v>343</v>
       </c>
       <c r="AB35" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC35">
         <v>0</v>
       </c>
       <c r="AE35" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AH35" t="s">
         <v>344</v>
@@ -4855,23 +4975,26 @@
       <c r="T36" t="s">
         <v>505</v>
       </c>
+      <c r="W36" t="s">
+        <v>516</v>
+      </c>
       <c r="X36">
         <v>53</v>
       </c>
       <c r="Z36" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AA36" t="s">
         <v>397</v>
       </c>
       <c r="AB36" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC36">
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AH36" t="s">
         <v>344</v>
@@ -4905,6 +5028,9 @@
       <c r="Q37" t="s">
         <v>461</v>
       </c>
+      <c r="W37" t="s">
+        <v>516</v>
+      </c>
       <c r="Y37">
         <v>0</v>
       </c>
@@ -4970,17 +5096,20 @@
       <c r="T38" t="s">
         <v>495</v>
       </c>
+      <c r="W38" t="s">
+        <v>516</v>
+      </c>
       <c r="X38">
         <v>450</v>
       </c>
       <c r="Z38" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA38" t="s">
         <v>408</v>
       </c>
       <c r="AB38" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4989,13 +5118,13 @@
         <v>398</v>
       </c>
       <c r="AH38" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AI38" t="s">
         <v>398</v>
       </c>
       <c r="AL38" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -5056,17 +5185,20 @@
       <c r="T39" t="s">
         <v>495</v>
       </c>
+      <c r="W39" t="s">
+        <v>516</v>
+      </c>
       <c r="X39">
         <v>152</v>
       </c>
       <c r="Z39" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AA39" t="s">
         <v>406</v>
       </c>
       <c r="AB39" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -5081,7 +5213,7 @@
         <v>340</v>
       </c>
       <c r="AL39" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -5106,6 +5238,9 @@
       <c r="Q40" t="s">
         <v>461</v>
       </c>
+      <c r="W40" t="s">
+        <v>516</v>
+      </c>
       <c r="Y40">
         <v>0</v>
       </c>
@@ -5135,6 +5270,9 @@
       <c r="Q41" t="s">
         <v>463</v>
       </c>
+      <c r="W41" t="s">
+        <v>516</v>
+      </c>
       <c r="Y41">
         <v>0</v>
       </c>
@@ -5200,17 +5338,20 @@
       <c r="T42" t="s">
         <v>506</v>
       </c>
+      <c r="W42" t="s">
+        <v>516</v>
+      </c>
       <c r="X42">
         <v>414</v>
       </c>
       <c r="Z42" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA42" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AB42" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -5286,17 +5427,20 @@
       <c r="T43" t="s">
         <v>495</v>
       </c>
+      <c r="W43" t="s">
+        <v>516</v>
+      </c>
       <c r="X43">
         <v>168</v>
       </c>
       <c r="Z43" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AA43" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AB43" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -5311,7 +5455,7 @@
         <v>406</v>
       </c>
       <c r="AL43" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AP43">
         <v>0</v>
@@ -5369,17 +5513,20 @@
       <c r="S44" t="s">
         <v>485</v>
       </c>
+      <c r="W44" t="s">
+        <v>516</v>
+      </c>
       <c r="X44">
         <v>72</v>
       </c>
       <c r="Z44" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA44" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AB44" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -5455,17 +5602,20 @@
       <c r="T45" t="s">
         <v>495</v>
       </c>
+      <c r="W45" t="s">
+        <v>516</v>
+      </c>
       <c r="X45">
         <v>75</v>
       </c>
       <c r="Z45" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA45" t="s">
         <v>408</v>
       </c>
       <c r="AB45" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -5477,7 +5627,7 @@
         <v>341</v>
       </c>
       <c r="AI45" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AL45" t="s">
         <v>343</v>
@@ -5541,17 +5691,20 @@
       <c r="T46" t="s">
         <v>496</v>
       </c>
+      <c r="W46" t="s">
+        <v>516</v>
+      </c>
       <c r="X46">
         <v>8</v>
       </c>
       <c r="Z46" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AA46" t="s">
         <v>344</v>
       </c>
       <c r="AB46" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -5563,7 +5716,7 @@
         <v>341</v>
       </c>
       <c r="AI46" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AP46">
         <v>0</v>
@@ -5621,17 +5774,20 @@
       <c r="S47" t="s">
         <v>486</v>
       </c>
+      <c r="W47" t="s">
+        <v>516</v>
+      </c>
       <c r="X47">
         <v>150</v>
       </c>
       <c r="Z47" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AA47" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AB47" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -5643,7 +5799,7 @@
         <v>341</v>
       </c>
       <c r="AI47" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AL47" t="s">
         <v>342</v>
@@ -5704,6 +5860,9 @@
       <c r="T48" t="s">
         <v>507</v>
       </c>
+      <c r="W48" t="s">
+        <v>516</v>
+      </c>
       <c r="X48">
         <v>60</v>
       </c>
@@ -5769,6 +5928,9 @@
       <c r="T49" t="s">
         <v>496</v>
       </c>
+      <c r="W49" t="s">
+        <v>516</v>
+      </c>
       <c r="X49">
         <v>15</v>
       </c>
@@ -5776,7 +5938,7 @@
         <v>400</v>
       </c>
       <c r="AB49" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -5834,6 +5996,9 @@
       <c r="Q50" t="s">
         <v>464</v>
       </c>
+      <c r="W50" t="s">
+        <v>516</v>
+      </c>
       <c r="AC50">
         <v>0</v>
       </c>
@@ -5896,17 +6061,20 @@
       <c r="T51" t="s">
         <v>495</v>
       </c>
+      <c r="W51" t="s">
+        <v>516</v>
+      </c>
       <c r="X51">
         <v>71</v>
       </c>
       <c r="Z51" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AA51" t="s">
         <v>410</v>
       </c>
       <c r="AB51" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -5915,7 +6083,7 @@
         <v>413</v>
       </c>
       <c r="AN51" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP51">
         <v>0</v>
@@ -5973,6 +6141,9 @@
       <c r="T52" t="s">
         <v>508</v>
       </c>
+      <c r="W52" t="s">
+        <v>516</v>
+      </c>
       <c r="X52">
         <v>160</v>
       </c>
@@ -5980,7 +6151,7 @@
         <v>399</v>
       </c>
       <c r="AB52" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -6041,6 +6212,9 @@
       <c r="T53" t="s">
         <v>508</v>
       </c>
+      <c r="W53" t="s">
+        <v>516</v>
+      </c>
       <c r="X53">
         <v>344</v>
       </c>
@@ -6103,6 +6277,9 @@
       <c r="T54" t="s">
         <v>507</v>
       </c>
+      <c r="W54" t="s">
+        <v>516</v>
+      </c>
       <c r="X54">
         <v>59</v>
       </c>
@@ -6110,7 +6287,7 @@
         <v>399</v>
       </c>
       <c r="AB54" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -6138,6 +6315,9 @@
       <c r="Q55" t="s">
         <v>459</v>
       </c>
+      <c r="W55" t="s">
+        <v>516</v>
+      </c>
       <c r="Y55">
         <v>0</v>
       </c>
@@ -6203,17 +6383,20 @@
       <c r="T56" t="s">
         <v>495</v>
       </c>
+      <c r="W56" t="s">
+        <v>516</v>
+      </c>
       <c r="X56">
         <v>178</v>
       </c>
       <c r="Z56" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AA56" t="s">
         <v>331</v>
       </c>
       <c r="AB56" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -6222,7 +6405,7 @@
         <v>413</v>
       </c>
       <c r="AN56" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP56">
         <v>0</v>
@@ -6283,17 +6466,20 @@
       <c r="T57" t="s">
         <v>495</v>
       </c>
+      <c r="W57" t="s">
+        <v>516</v>
+      </c>
       <c r="X57">
         <v>178</v>
       </c>
       <c r="Z57" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AA57" t="s">
         <v>410</v>
       </c>
       <c r="AB57" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -6302,7 +6488,7 @@
         <v>413</v>
       </c>
       <c r="AN57" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP57">
         <v>0</v>
@@ -6363,17 +6549,20 @@
       <c r="T58" t="s">
         <v>500</v>
       </c>
+      <c r="W58" t="s">
+        <v>516</v>
+      </c>
       <c r="X58">
         <v>266</v>
       </c>
       <c r="Z58" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="AA58" t="s">
         <v>342</v>
       </c>
       <c r="AB58" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -6385,7 +6574,7 @@
         <v>398</v>
       </c>
       <c r="AN58" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP58">
         <v>0</v>
@@ -6443,23 +6632,26 @@
       <c r="S59" t="s">
         <v>486</v>
       </c>
+      <c r="W59" t="s">
+        <v>516</v>
+      </c>
       <c r="X59">
         <v>160</v>
       </c>
       <c r="Z59" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AA59" t="s">
         <v>410</v>
       </c>
       <c r="AB59" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC59">
         <v>0</v>
       </c>
       <c r="AN59" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP59">
         <v>0</v>
@@ -6517,6 +6709,9 @@
       <c r="T60" t="s">
         <v>509</v>
       </c>
+      <c r="W60" t="s">
+        <v>516</v>
+      </c>
       <c r="X60">
         <v>110</v>
       </c>
@@ -6576,14 +6771,17 @@
       <c r="Q61" t="s">
         <v>460</v>
       </c>
+      <c r="W61" t="s">
+        <v>516</v>
+      </c>
       <c r="Z61" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AA61" t="s">
         <v>410</v>
       </c>
       <c r="AB61" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -6592,7 +6790,7 @@
         <v>413</v>
       </c>
       <c r="AN61" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP61">
         <v>0</v>
@@ -6650,6 +6848,9 @@
       <c r="T62" t="s">
         <v>510</v>
       </c>
+      <c r="W62" t="s">
+        <v>516</v>
+      </c>
       <c r="X62">
         <v>35</v>
       </c>
@@ -6679,6 +6880,9 @@
       <c r="Q63" t="s">
         <v>459</v>
       </c>
+      <c r="W63" t="s">
+        <v>516</v>
+      </c>
       <c r="Y63">
         <v>0</v>
       </c>
@@ -6708,6 +6912,9 @@
       <c r="Q64" t="s">
         <v>459</v>
       </c>
+      <c r="W64" t="s">
+        <v>516</v>
+      </c>
       <c r="AC64">
         <v>0</v>
       </c>
@@ -6770,17 +6977,20 @@
       <c r="T65" t="s">
         <v>495</v>
       </c>
+      <c r="W65" t="s">
+        <v>516</v>
+      </c>
       <c r="X65">
         <v>400</v>
       </c>
       <c r="Z65" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AA65" t="s">
         <v>410</v>
       </c>
       <c r="AB65" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -6789,7 +6999,7 @@
         <v>413</v>
       </c>
       <c r="AN65" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AP65">
         <v>0</v>
@@ -6844,6 +7054,9 @@
       <c r="Q66" t="s">
         <v>459</v>
       </c>
+      <c r="W66" t="s">
+        <v>516</v>
+      </c>
       <c r="AC66">
         <v>0</v>
       </c>
@@ -6903,6 +7116,9 @@
       <c r="T67" t="s">
         <v>495</v>
       </c>
+      <c r="W67" t="s">
+        <v>516</v>
+      </c>
       <c r="X67">
         <v>110</v>
       </c>
@@ -6965,6 +7181,9 @@
       <c r="T68" t="s">
         <v>495</v>
       </c>
+      <c r="W68" t="s">
+        <v>516</v>
+      </c>
       <c r="X68">
         <v>218</v>
       </c>
@@ -7027,6 +7246,9 @@
       <c r="T69" t="s">
         <v>501</v>
       </c>
+      <c r="W69" t="s">
+        <v>516</v>
+      </c>
       <c r="X69">
         <v>187</v>
       </c>
@@ -7089,6 +7311,9 @@
       <c r="T70" t="s">
         <v>508</v>
       </c>
+      <c r="W70" t="s">
+        <v>516</v>
+      </c>
       <c r="X70">
         <v>253</v>
       </c>
@@ -7151,6 +7376,9 @@
       <c r="T71" t="s">
         <v>495</v>
       </c>
+      <c r="W71" t="s">
+        <v>516</v>
+      </c>
       <c r="X71">
         <v>302</v>
       </c>
@@ -7210,6 +7438,9 @@
       <c r="S72" t="s">
         <v>486</v>
       </c>
+      <c r="W72" t="s">
+        <v>516</v>
+      </c>
       <c r="X72">
         <v>203</v>
       </c>
@@ -7272,6 +7503,9 @@
       <c r="T73" t="s">
         <v>495</v>
       </c>
+      <c r="W73" t="s">
+        <v>516</v>
+      </c>
       <c r="X73">
         <v>67</v>
       </c>
@@ -7334,6 +7568,9 @@
       <c r="T74" t="s">
         <v>500</v>
       </c>
+      <c r="W74" t="s">
+        <v>516</v>
+      </c>
       <c r="X74">
         <v>219</v>
       </c>
@@ -7390,6 +7627,9 @@
       <c r="Q75" t="s">
         <v>459</v>
       </c>
+      <c r="W75" t="s">
+        <v>516</v>
+      </c>
       <c r="AC75">
         <v>0</v>
       </c>
@@ -7443,6 +7683,9 @@
       <c r="Q76" t="s">
         <v>460</v>
       </c>
+      <c r="W76" t="s">
+        <v>516</v>
+      </c>
       <c r="AC76">
         <v>0</v>
       </c>
@@ -7502,6 +7745,9 @@
       <c r="T77" t="s">
         <v>495</v>
       </c>
+      <c r="W77" t="s">
+        <v>516</v>
+      </c>
       <c r="X77">
         <v>108</v>
       </c>
@@ -7564,6 +7810,9 @@
       <c r="T78" t="s">
         <v>498</v>
       </c>
+      <c r="W78" t="s">
+        <v>516</v>
+      </c>
       <c r="X78">
         <v>120</v>
       </c>
@@ -7620,6 +7869,9 @@
       <c r="Q79" t="s">
         <v>459</v>
       </c>
+      <c r="W79" t="s">
+        <v>516</v>
+      </c>
       <c r="AC79">
         <v>0</v>
       </c>
@@ -7673,6 +7925,9 @@
       <c r="Q80" t="s">
         <v>460</v>
       </c>
+      <c r="W80" t="s">
+        <v>516</v>
+      </c>
       <c r="AC80">
         <v>0</v>
       </c>
@@ -7726,6 +7981,9 @@
       <c r="Q81" t="s">
         <v>462</v>
       </c>
+      <c r="W81" t="s">
+        <v>516</v>
+      </c>
       <c r="AC81">
         <v>0</v>
       </c>
@@ -7779,6 +8037,9 @@
       <c r="Q82" t="s">
         <v>460</v>
       </c>
+      <c r="W82" t="s">
+        <v>516</v>
+      </c>
       <c r="AC82">
         <v>0</v>
       </c>
@@ -7832,6 +8093,9 @@
       <c r="Q83" t="s">
         <v>466</v>
       </c>
+      <c r="W83" t="s">
+        <v>516</v>
+      </c>
       <c r="AC83">
         <v>0</v>
       </c>
@@ -7891,6 +8155,9 @@
       <c r="T84" t="s">
         <v>511</v>
       </c>
+      <c r="W84" t="s">
+        <v>516</v>
+      </c>
       <c r="X84">
         <v>14</v>
       </c>
@@ -7944,6 +8211,9 @@
       <c r="Q85" t="s">
         <v>460</v>
       </c>
+      <c r="W85" t="s">
+        <v>516</v>
+      </c>
       <c r="AC85">
         <v>0</v>
       </c>
@@ -7997,6 +8267,9 @@
       <c r="Q86" t="s">
         <v>460</v>
       </c>
+      <c r="W86" t="s">
+        <v>516</v>
+      </c>
       <c r="AC86">
         <v>0</v>
       </c>
@@ -8056,6 +8329,9 @@
       <c r="T87" t="s">
         <v>512</v>
       </c>
+      <c r="W87" t="s">
+        <v>516</v>
+      </c>
       <c r="X87">
         <v>34</v>
       </c>
@@ -8118,6 +8394,9 @@
       <c r="T88" t="s">
         <v>504</v>
       </c>
+      <c r="W88" t="s">
+        <v>516</v>
+      </c>
       <c r="X88">
         <v>819</v>
       </c>
@@ -8180,6 +8459,9 @@
       <c r="T89" t="s">
         <v>503</v>
       </c>
+      <c r="W89" t="s">
+        <v>516</v>
+      </c>
       <c r="X89">
         <v>34</v>
       </c>
@@ -8239,6 +8521,9 @@
       <c r="T90" t="s">
         <v>495</v>
       </c>
+      <c r="W90" t="s">
+        <v>516</v>
+      </c>
       <c r="X90">
         <v>198</v>
       </c>
@@ -8295,6 +8580,9 @@
       <c r="Q91" t="s">
         <v>460</v>
       </c>
+      <c r="W91" t="s">
+        <v>516</v>
+      </c>
       <c r="AC91">
         <v>0</v>
       </c>
@@ -8351,6 +8639,9 @@
       <c r="T92" t="s">
         <v>495</v>
       </c>
+      <c r="W92" t="s">
+        <v>516</v>
+      </c>
       <c r="X92">
         <v>210</v>
       </c>
@@ -8410,6 +8701,9 @@
       <c r="S93" t="s">
         <v>486</v>
       </c>
+      <c r="W93" t="s">
+        <v>516</v>
+      </c>
       <c r="X93">
         <v>211</v>
       </c>
@@ -8451,6 +8745,9 @@
       <c r="Q94" t="s">
         <v>460</v>
       </c>
+      <c r="W94" t="s">
+        <v>516</v>
+      </c>
       <c r="AC94">
         <v>0</v>
       </c>
@@ -8504,6 +8801,9 @@
       <c r="Q95" t="s">
         <v>462</v>
       </c>
+      <c r="W95" t="s">
+        <v>516</v>
+      </c>
       <c r="AC95">
         <v>0</v>
       </c>
@@ -8554,6 +8854,9 @@
       <c r="Q96" t="s">
         <v>459</v>
       </c>
+      <c r="W96" t="s">
+        <v>516</v>
+      </c>
       <c r="AC96">
         <v>0</v>
       </c>
@@ -8601,6 +8904,9 @@
       <c r="Q97" t="s">
         <v>460</v>
       </c>
+      <c r="W97" t="s">
+        <v>516</v>
+      </c>
       <c r="AC97">
         <v>0</v>
       </c>
@@ -8657,6 +8963,9 @@
       <c r="T98" t="s">
         <v>504</v>
       </c>
+      <c r="W98" t="s">
+        <v>516</v>
+      </c>
       <c r="X98">
         <v>59</v>
       </c>
@@ -8707,6 +9016,9 @@
       <c r="T99" t="s">
         <v>504</v>
       </c>
+      <c r="W99" t="s">
+        <v>516</v>
+      </c>
       <c r="X99">
         <v>617</v>
       </c>
@@ -8748,6 +9060,9 @@
       <c r="Q100" t="s">
         <v>460</v>
       </c>
+      <c r="W100" t="s">
+        <v>516</v>
+      </c>
       <c r="AC100">
         <v>0</v>
       </c>
@@ -8789,6 +9104,9 @@
       <c r="Q101" t="s">
         <v>460</v>
       </c>
+      <c r="W101" t="s">
+        <v>516</v>
+      </c>
       <c r="AC101">
         <v>0</v>
       </c>
@@ -8815,6 +9133,9 @@
       <c r="Q102" t="s">
         <v>462</v>
       </c>
+      <c r="W102" t="s">
+        <v>516</v>
+      </c>
       <c r="AC102">
         <v>0</v>
       </c>
@@ -8856,6 +9177,9 @@
       <c r="Q103" t="s">
         <v>459</v>
       </c>
+      <c r="W103" t="s">
+        <v>516</v>
+      </c>
       <c r="AC103">
         <v>0</v>
       </c>
@@ -8903,6 +9227,9 @@
       <c r="Q104" t="s">
         <v>460</v>
       </c>
+      <c r="W104" t="s">
+        <v>516</v>
+      </c>
       <c r="AC104">
         <v>0</v>
       </c>
@@ -8947,6 +9274,9 @@
       <c r="T105" t="s">
         <v>496</v>
       </c>
+      <c r="W105" t="s">
+        <v>516</v>
+      </c>
       <c r="X105">
         <v>30</v>
       </c>
@@ -8994,6 +9324,9 @@
       <c r="T106" t="s">
         <v>503</v>
       </c>
+      <c r="W106" t="s">
+        <v>516</v>
+      </c>
       <c r="X106">
         <v>42</v>
       </c>
@@ -9023,6 +9356,9 @@
       <c r="Q107" t="s">
         <v>466</v>
       </c>
+      <c r="W107" t="s">
+        <v>516</v>
+      </c>
       <c r="AC107">
         <v>0</v>
       </c>
@@ -9048,6 +9384,9 @@
       </c>
       <c r="Q108" t="s">
         <v>460</v>
+      </c>
+      <c r="W108" t="s">
+        <v>516</v>
       </c>
       <c r="AC108">
         <v>0</v>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="575">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -703,6 +703,9 @@
     <t>MUMF27020700</t>
   </si>
   <si>
+    <t xml:space="preserve"> NAV/NYC/31787</t>
+  </si>
+  <si>
     <t xml:space="preserve"> NAV/CHS/08305</t>
   </si>
   <si>
@@ -949,6 +952,9 @@
     <t>PLE2503B0236</t>
   </si>
   <si>
+    <t>PLE2504B0268</t>
+  </si>
+  <si>
     <t>PLE2503B0254</t>
   </si>
   <si>
@@ -961,6 +967,15 @@
     <t>PLE2503B0252</t>
   </si>
   <si>
+    <t>PLE2504B0258</t>
+  </si>
+  <si>
+    <t>PLE2504B0259</t>
+  </si>
+  <si>
+    <t>PLE2504B0260</t>
+  </si>
+  <si>
     <t>PLE2504B0263</t>
   </si>
   <si>
@@ -1051,6 +1066,15 @@
     <t>24-03-2025</t>
   </si>
   <si>
+    <t>03-04-2025</t>
+  </si>
+  <si>
+    <t>04-04-2025</t>
+  </si>
+  <si>
+    <t>02-04-2025</t>
+  </si>
+  <si>
     <t>HMMU6222330</t>
   </si>
   <si>
@@ -1153,6 +1177,9 @@
     <t>TCNU4432055</t>
   </si>
   <si>
+    <t>BEAU4039728</t>
+  </si>
+  <si>
     <t>HLBU2057231</t>
   </si>
   <si>
@@ -1162,6 +1189,9 @@
     <t>SEGU6382548</t>
   </si>
   <si>
+    <t>TLLU4917648</t>
+  </si>
+  <si>
     <t>25-01-2025</t>
   </si>
   <si>
@@ -1222,7 +1252,7 @@
     <t>30-03-2025</t>
   </si>
   <si>
-    <t>02-04-2025</t>
+    <t>07-04-2025</t>
   </si>
   <si>
     <t>06-04-2025</t>
@@ -1249,7 +1279,7 @@
     <t>27-03-2025</t>
   </si>
   <si>
-    <t>03-04-2025</t>
+    <t>20-04-2025</t>
   </si>
   <si>
     <t>08-04-2025</t>
@@ -1498,6 +1528,9 @@
     <t>XLX7 92394, Victorville, Victorville, California, United States</t>
   </si>
   <si>
+    <t>19116, Northeast Philadelphia, Philadelphia, Pennsylvania, United States</t>
+  </si>
+  <si>
     <t>HIA1</t>
   </si>
   <si>
@@ -1558,13 +1591,13 @@
     <t>Nolan Transportation Group</t>
   </si>
   <si>
+    <t>HeyPrimo</t>
+  </si>
+  <si>
     <t>A Duie Pyle</t>
   </si>
   <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>Old Dominion</t>
   </si>
   <si>
     <t>2025-02-25</t>
@@ -1627,6 +1660,9 @@
     <t>2025-03-28</t>
   </si>
   <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
     <t>26-03-2025</t>
   </si>
   <si>
@@ -1648,9 +1684,18 @@
     <t>Reject</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2025-09-08</t>
   </si>
   <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>NaT</t>
+  </si>
+  <si>
     <t>15-03-2025</t>
   </si>
   <si>
@@ -1687,22 +1732,13 @@
     <t>pod pending from trucker</t>
   </si>
   <si>
-    <t>Awaiting for pickup schdule</t>
-  </si>
-  <si>
-    <t>AWAITING FOR DELIVERY SCHDULE</t>
+    <t>POD PENDING FROM TRUCKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awaiting entry summary approval </t>
   </si>
   <si>
     <t>AWAITING FOR PICKUP SCHDULE</t>
-  </si>
-  <si>
-    <t>AWAITING FOR PICKUP SCHEDULE</t>
-  </si>
-  <si>
-    <t>POD PENDING FROM TRUCKER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWAITING FOR PICKUP SCHEDULE </t>
   </si>
 </sst>
 </file>
@@ -2205,100 +2241,100 @@
         <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O2" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="Q2" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S2" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="T2" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="U2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="V2" t="s">
-        <v>514</v>
-      </c>
-      <c r="W2" t="s">
-        <v>515</v>
+        <v>526</v>
+      </c>
+      <c r="W2">
+        <v>200</v>
       </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="AA2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AB2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>556</v>
       </c>
       <c r="AD2" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="AE2" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="AG2" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="AH2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AI2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AK2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="AL2" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="AN2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
+        <v>570</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2312,88 +2348,100 @@
         <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="G3" t="s">
+        <v>324</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J3" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L3" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N3" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O3" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P3" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q3" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S3" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T3" t="s">
-        <v>495</v>
-      </c>
-      <c r="W3" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="U3" t="s">
+        <v>525</v>
+      </c>
+      <c r="V3" t="s">
+        <v>527</v>
+      </c>
+      <c r="W3">
+        <v>500</v>
       </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="AA3" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AB3" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>558</v>
       </c>
       <c r="AE3" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="AG3" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="AH3" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AI3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AK3" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="AL3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
+        <v>416</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2404,31 +2452,40 @@
         <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>325</v>
+      </c>
+      <c r="G4" t="s">
+        <v>324</v>
       </c>
       <c r="P4" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="Q4" t="s">
-        <v>461</v>
-      </c>
-      <c r="W4" t="s">
-        <v>516</v>
+        <v>471</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
+      <c r="AC4" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>559</v>
       </c>
       <c r="AG4" t="s">
-        <v>548</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
+        <v>563</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2442,82 +2499,85 @@
         <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="G5" t="s">
+        <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I5" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J5" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K5" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L5" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M5" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N5" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O5" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P5" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S5" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T5" t="s">
-        <v>495</v>
-      </c>
-      <c r="W5" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
       </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="AA5" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AB5" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>556</v>
       </c>
       <c r="AE5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AH5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AI5" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL5" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2531,82 +2591,85 @@
         <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F6" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="G6" t="s">
+        <v>324</v>
       </c>
       <c r="H6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I6" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J6" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K6" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L6" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M6" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N6" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O6" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P6" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q6" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S6" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T6" t="s">
-        <v>495</v>
-      </c>
-      <c r="W6" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
       </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="AA6" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AB6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>556</v>
       </c>
       <c r="AE6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AH6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AI6" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL6" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2620,82 +2683,85 @@
         <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="G7" t="s">
+        <v>324</v>
       </c>
       <c r="H7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T7" t="s">
-        <v>495</v>
-      </c>
-      <c r="W7" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
       </c>
       <c r="X7">
         <v>38</v>
       </c>
       <c r="Z7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="AA7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB7" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>556</v>
       </c>
       <c r="AE7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AH7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AI7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL7" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2709,82 +2775,82 @@
         <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="J8" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K8" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L8" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M8" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N8" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O8" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P8" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="Q8" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S8" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T8" t="s">
-        <v>495</v>
-      </c>
-      <c r="W8" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
       </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="AA8" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AB8" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>556</v>
       </c>
       <c r="AE8" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AH8" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="AI8" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="AL8" t="s">
-        <v>335</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2798,82 +2864,82 @@
         <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J9" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L9" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N9" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O9" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P9" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q9" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S9" t="s">
-        <v>469</v>
-      </c>
-      <c r="W9" t="s">
-        <v>516</v>
+        <v>479</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
       </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="AA9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AB9" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>556</v>
       </c>
       <c r="AE9" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="AH9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AI9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AL9" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AN9" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
+        <v>571</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2887,76 +2953,76 @@
         <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I10" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K10" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M10" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="N10" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O10" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P10" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q10" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="T10" t="s">
-        <v>496</v>
-      </c>
-      <c r="W10" t="s">
-        <v>516</v>
+        <v>507</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
       </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>556</v>
       </c>
       <c r="AE10" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AH10" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AI10" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AL10" t="s">
-        <v>404</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
+        <v>414</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2967,28 +3033,34 @@
         <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P11" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q11" t="s">
-        <v>459</v>
-      </c>
-      <c r="W11" t="s">
-        <v>516</v>
+        <v>469</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>5</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
+      <c r="AC11" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3002,76 +3074,76 @@
         <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I12" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="K12" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M12" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N12" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O12" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P12" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q12" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S12" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="T12" t="s">
-        <v>495</v>
-      </c>
-      <c r="W12" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
       </c>
       <c r="X12">
         <v>78</v>
       </c>
       <c r="Z12" t="s">
-        <v>523</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
+        <v>534</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>556</v>
       </c>
       <c r="AE12" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AH12" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="AI12" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AL12" t="s">
-        <v>404</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
+        <v>414</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3085,79 +3157,79 @@
         <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F13" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I13" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J13" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L13" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N13" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O13" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P13" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="Q13" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S13" t="s">
-        <v>472</v>
-      </c>
-      <c r="W13" t="s">
-        <v>516</v>
+        <v>482</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
       </c>
       <c r="X13">
         <v>24</v>
       </c>
       <c r="Z13" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="AA13" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AB13" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>556</v>
       </c>
       <c r="AE13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AH13" t="s">
+        <v>564</v>
+      </c>
+      <c r="AI13" t="s">
         <v>549</v>
       </c>
-      <c r="AI13" t="s">
-        <v>537</v>
-      </c>
       <c r="AL13" t="s">
-        <v>402</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
+        <v>352</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3171,76 +3243,76 @@
         <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H14" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I14" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J14" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="K14" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L14" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M14" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N14" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O14" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P14" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="Q14" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S14" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T14" t="s">
-        <v>495</v>
-      </c>
-      <c r="W14" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
       </c>
       <c r="X14">
         <v>20</v>
       </c>
       <c r="Z14" t="s">
-        <v>523</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
+        <v>534</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>556</v>
       </c>
       <c r="AE14" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AH14" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="AI14" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AL14" t="s">
-        <v>554</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
+        <v>569</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3251,79 +3323,82 @@
         <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F15" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H15" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I15" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="J15" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="K15" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="L15" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M15" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="N15" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O15" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P15" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q15" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="S15" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="T15" t="s">
-        <v>497</v>
-      </c>
-      <c r="W15" t="s">
-        <v>516</v>
+        <v>508</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
       </c>
       <c r="X15">
         <v>153</v>
       </c>
       <c r="Z15" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA15" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AB15" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>410</v>
       </c>
       <c r="AI15" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AL15" t="s">
-        <v>399</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>557</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3337,82 +3412,82 @@
         <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F16" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I16" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J16" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K16" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L16" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M16" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N16" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O16" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P16" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q16" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S16" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="T16" t="s">
-        <v>498</v>
-      </c>
-      <c r="W16" t="s">
-        <v>516</v>
+        <v>509</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
       </c>
       <c r="X16">
         <v>77</v>
       </c>
       <c r="Z16" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="AA16" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="AB16" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>556</v>
       </c>
       <c r="AE16" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AH16" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AI16" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AL16" t="s">
-        <v>405</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -3426,85 +3501,82 @@
         <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F17" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I17" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J17" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K17" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L17" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M17" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N17" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O17" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P17" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="Q17" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S17" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="T17" t="s">
-        <v>499</v>
-      </c>
-      <c r="W17" t="s">
-        <v>516</v>
+        <v>510</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
       </c>
       <c r="X17">
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="AA17" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB17" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>556</v>
       </c>
       <c r="AE17" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AH17" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AI17" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AL17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>558</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
+        <v>410</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -3515,28 +3587,34 @@
         <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P18" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q18" t="s">
-        <v>459</v>
-      </c>
-      <c r="W18" t="s">
-        <v>516</v>
+        <v>469</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
+      <c r="AC18" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -3550,76 +3628,73 @@
         <v>198</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F19" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H19" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I19" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J19" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L19" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="M19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N19" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O19" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P19" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="Q19" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S19" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="T19" t="s">
-        <v>500</v>
-      </c>
-      <c r="W19" t="s">
-        <v>516</v>
+        <v>511</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
       </c>
       <c r="X19">
         <v>150</v>
       </c>
       <c r="Z19" t="s">
-        <v>527</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
+        <v>538</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>556</v>
       </c>
       <c r="AE19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AH19" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AI19" t="s">
-        <v>410</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -3633,79 +3708,76 @@
         <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I20" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J20" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L20" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N20" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O20" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P20" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q20" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S20" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="T20" t="s">
-        <v>501</v>
-      </c>
-      <c r="W20" t="s">
-        <v>516</v>
+        <v>512</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
       </c>
       <c r="X20">
         <v>142</v>
       </c>
       <c r="Z20" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA20" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AB20" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>556</v>
       </c>
       <c r="AE20" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AI20" t="s">
-        <v>342</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -3719,85 +3791,85 @@
         <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F21" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H21" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I21" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J21" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K21" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L21" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M21" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N21" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O21" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P21" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="Q21" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S21" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="T21" t="s">
-        <v>499</v>
-      </c>
-      <c r="W21" t="s">
-        <v>516</v>
+        <v>510</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
       </c>
       <c r="X21">
         <v>43</v>
       </c>
       <c r="Z21" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="AA21" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AB21" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>556</v>
       </c>
       <c r="AE21" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AH21" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AI21" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AL21" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AN21" t="s">
-        <v>561</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
+        <v>572</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -3811,79 +3883,76 @@
         <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F22" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H22" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I22" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J22" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K22" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L22" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M22" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N22" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O22" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P22" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="Q22" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S22" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="T22" t="s">
-        <v>496</v>
-      </c>
-      <c r="W22" t="s">
-        <v>516</v>
+        <v>507</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
       </c>
       <c r="X22">
         <v>29</v>
       </c>
       <c r="Z22" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA22" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AB22" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>556</v>
       </c>
       <c r="AE22" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AI22" t="s">
-        <v>410</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>562</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -3897,79 +3966,79 @@
         <v>195</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F23" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H23" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I23" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J23" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K23" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L23" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M23" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N23" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O23" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P23" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q23" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S23" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="T23" t="s">
-        <v>502</v>
-      </c>
-      <c r="W23" t="s">
-        <v>516</v>
+        <v>513</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
       </c>
       <c r="X23">
         <v>15</v>
       </c>
       <c r="Z23" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="AA23" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AB23" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>556</v>
       </c>
       <c r="AE23" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AH23" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AI23" t="s">
-        <v>410</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -3983,82 +4052,82 @@
         <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H24" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J24" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K24" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L24" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M24" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N24" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O24" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P24" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q24" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S24" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T24" t="s">
-        <v>495</v>
-      </c>
-      <c r="W24" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
       </c>
       <c r="X24">
         <v>273</v>
       </c>
       <c r="Z24" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="AA24" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AB24" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>556</v>
       </c>
       <c r="AE24" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AH24" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AI24" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL24" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:42">
@@ -4072,82 +4141,79 @@
         <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H25" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I25" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="J25" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K25" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L25" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M25" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N25" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O25" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P25" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="Q25" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S25" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="T25" t="s">
-        <v>503</v>
-      </c>
-      <c r="W25" t="s">
-        <v>516</v>
+        <v>514</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
       </c>
       <c r="X25">
         <v>22</v>
       </c>
       <c r="Z25" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="AA25" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AB25" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>556</v>
       </c>
       <c r="AE25" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AI25" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AL25" t="s">
-        <v>402</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
+        <v>352</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -4161,82 +4227,82 @@
         <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H26" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I26" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J26" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K26" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L26" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M26" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N26" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O26" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P26" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q26" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S26" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T26" t="s">
-        <v>495</v>
-      </c>
-      <c r="W26" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
       </c>
       <c r="X26">
         <v>272</v>
       </c>
       <c r="Z26" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="AA26" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AB26" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>556</v>
       </c>
       <c r="AE26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AH26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AI26" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL26" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -4250,82 +4316,82 @@
         <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E27" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H27" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I27" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J27" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K27" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L27" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M27" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N27" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O27" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P27" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q27" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S27" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T27" t="s">
-        <v>495</v>
-      </c>
-      <c r="W27" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
       </c>
       <c r="X27">
         <v>122</v>
       </c>
       <c r="Z27" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="AA27" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AB27" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>556</v>
       </c>
       <c r="AE27" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AH27" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AI27" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL27" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -4339,82 +4405,82 @@
         <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E28" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H28" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I28" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J28" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K28" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L28" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M28" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N28" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O28" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P28" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q28" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S28" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="T28" t="s">
-        <v>504</v>
-      </c>
-      <c r="W28" t="s">
-        <v>516</v>
+        <v>515</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
       </c>
       <c r="X28">
         <v>314</v>
       </c>
       <c r="Z28" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="AA28" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AB28" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>556</v>
       </c>
       <c r="AE28" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="AH28" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AI28" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL28" t="s">
-        <v>406</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
+        <v>416</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:42">
@@ -4428,82 +4494,82 @@
         <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F29" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H29" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I29" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="J29" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K29" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L29" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M29" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N29" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O29" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P29" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q29" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S29" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T29" t="s">
-        <v>495</v>
-      </c>
-      <c r="W29" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
       </c>
       <c r="X29">
         <v>370</v>
       </c>
       <c r="Z29" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA29" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AB29" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>556</v>
       </c>
       <c r="AE29" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AH29" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AI29" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AL29" t="s">
-        <v>549</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
+        <v>564</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:42">
@@ -4514,28 +4580,34 @@
         <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P30" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="Q30" t="s">
-        <v>459</v>
-      </c>
-      <c r="W30" t="s">
-        <v>516</v>
+        <v>469</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
+      <c r="AC30" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -4546,28 +4618,34 @@
         <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F31" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P31" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q31" t="s">
-        <v>462</v>
-      </c>
-      <c r="W31" t="s">
-        <v>516</v>
+        <v>472</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>2</v>
       </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
+      <c r="AC31" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:42">
@@ -4581,79 +4659,79 @@
         <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E32" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F32" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H32" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I32" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J32" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K32" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L32" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M32" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="N32" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O32" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P32" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="Q32" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S32" t="s">
-        <v>481</v>
-      </c>
-      <c r="W32" t="s">
-        <v>516</v>
+        <v>491</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
       </c>
       <c r="X32">
         <v>16</v>
       </c>
       <c r="Z32" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="AA32" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AB32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>556</v>
       </c>
       <c r="AE32" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AH32" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AI32" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AL32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
+        <v>344</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:42">
@@ -4667,82 +4745,79 @@
         <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E33" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H33" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I33" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="J33" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K33" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L33" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="M33" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N33" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O33" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P33" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q33" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S33" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="T33" t="s">
-        <v>500</v>
-      </c>
-      <c r="W33" t="s">
-        <v>516</v>
+        <v>511</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
       </c>
       <c r="X33">
         <v>220</v>
       </c>
       <c r="Z33" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="AA33" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH33" t="s">
         <v>408</v>
       </c>
-      <c r="AB33" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>398</v>
-      </c>
       <c r="AI33" t="s">
-        <v>410</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:42">
@@ -4756,79 +4831,79 @@
         <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E34" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H34" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I34" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J34" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K34" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L34" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M34" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N34" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O34" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P34" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="Q34" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S34" t="s">
-        <v>482</v>
-      </c>
-      <c r="W34" t="s">
-        <v>516</v>
+        <v>492</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
       </c>
       <c r="X34">
         <v>122</v>
       </c>
       <c r="Z34" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="AA34" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AB34" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>556</v>
       </c>
       <c r="AE34" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AH34" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AI34" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL34" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:42">
@@ -4842,82 +4917,85 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E35" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H35" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I35" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="J35" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K35" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L35" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M35" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="N35" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O35" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P35" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="Q35" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="S35" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="T35" t="s">
-        <v>505</v>
-      </c>
-      <c r="W35" t="s">
         <v>516</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
       </c>
       <c r="X35">
         <v>53</v>
       </c>
       <c r="Z35" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA35" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB35" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>556</v>
       </c>
       <c r="AE35" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AH35" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AI35" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AL35" t="s">
-        <v>400</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
+        <v>410</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>572</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:42">
@@ -4931,82 +5009,85 @@
         <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H36" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I36" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K36" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L36" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M36" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="N36" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O36" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P36" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="Q36" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="S36" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="T36" t="s">
-        <v>505</v>
-      </c>
-      <c r="W36" t="s">
         <v>516</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
       </c>
       <c r="X36">
         <v>53</v>
       </c>
       <c r="Z36" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="AA36" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AB36" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>556</v>
       </c>
       <c r="AE36" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AH36" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AI36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AL36" t="s">
-        <v>400</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
+        <v>410</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>572</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:42">
@@ -5017,28 +5098,34 @@
         <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P37" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="Q37" t="s">
-        <v>461</v>
-      </c>
-      <c r="W37" t="s">
-        <v>516</v>
+        <v>471</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
+      <c r="AC37" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:42">
@@ -5052,82 +5139,82 @@
         <v>191</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E38" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H38" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I38" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K38" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M38" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N38" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O38" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P38" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q38" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S38" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T38" t="s">
-        <v>495</v>
-      </c>
-      <c r="W38" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
       </c>
       <c r="X38">
         <v>450</v>
       </c>
       <c r="Z38" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA38" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE38" t="s">
         <v>408</v>
       </c>
-      <c r="AB38" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>398</v>
-      </c>
       <c r="AH38" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AI38" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AL38" t="s">
-        <v>549</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
+        <v>564</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:42">
@@ -5141,82 +5228,82 @@
         <v>204</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E39" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H39" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J39" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M39" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="N39" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O39" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P39" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q39" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S39" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T39" t="s">
-        <v>495</v>
-      </c>
-      <c r="W39" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
       </c>
       <c r="X39">
         <v>152</v>
       </c>
       <c r="Z39" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="AA39" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AB39" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>556</v>
       </c>
       <c r="AE39" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AH39" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AI39" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s">
-        <v>539</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
+        <v>551</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:42">
@@ -5227,28 +5314,34 @@
         <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P40" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="Q40" t="s">
-        <v>461</v>
-      </c>
-      <c r="W40" t="s">
-        <v>516</v>
+        <v>471</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
+      <c r="AC40" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:42">
@@ -5259,28 +5352,34 @@
         <v>148</v>
       </c>
       <c r="E41" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P41" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="Q41" t="s">
-        <v>463</v>
-      </c>
-      <c r="W41" t="s">
-        <v>516</v>
+        <v>473</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
+      <c r="AC41" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:42">
@@ -5294,82 +5393,82 @@
         <v>195</v>
       </c>
       <c r="D42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H42" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J42" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K42" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M42" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N42" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O42" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P42" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q42" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S42" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="T42" t="s">
-        <v>506</v>
-      </c>
-      <c r="W42" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
       </c>
       <c r="X42">
         <v>414</v>
       </c>
       <c r="Z42" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA42" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AB42" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>556</v>
       </c>
       <c r="AE42" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AH42" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AI42" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s">
-        <v>342</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:42">
@@ -5383,82 +5482,82 @@
         <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E43" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H43" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J43" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K43" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L43" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M43" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N43" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O43" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P43" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q43" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S43" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T43" t="s">
-        <v>495</v>
-      </c>
-      <c r="W43" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
       </c>
       <c r="X43">
         <v>168</v>
       </c>
       <c r="Z43" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="AA43" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AB43" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>556</v>
       </c>
       <c r="AE43" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AH43" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AI43" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AL43" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:42">
@@ -5472,79 +5571,79 @@
         <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E44" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H44" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J44" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K44" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M44" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N44" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O44" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P44" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="Q44" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S44" t="s">
-        <v>485</v>
-      </c>
-      <c r="W44" t="s">
-        <v>516</v>
+        <v>495</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
       </c>
       <c r="X44">
         <v>72</v>
       </c>
       <c r="Z44" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA44" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AB44" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>556</v>
       </c>
       <c r="AE44" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AH44" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AI44" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AL44" t="s">
-        <v>399</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:42">
@@ -5558,82 +5657,82 @@
         <v>205</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E45" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H45" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I45" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K45" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N45" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O45" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P45" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="Q45" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S45" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T45" t="s">
-        <v>495</v>
-      </c>
-      <c r="W45" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
       </c>
       <c r="X45">
         <v>75</v>
       </c>
       <c r="Z45" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AA45" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AB45" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>556</v>
       </c>
       <c r="AE45" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AH45" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AI45" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AL45" t="s">
-        <v>343</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
+        <v>348</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:42">
@@ -5647,79 +5746,79 @@
         <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E46" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H46" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I46" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="J46" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L46" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N46" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O46" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P46" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="Q46" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S46" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="T46" t="s">
-        <v>496</v>
-      </c>
-      <c r="W46" t="s">
-        <v>516</v>
+        <v>507</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
       </c>
       <c r="X46">
         <v>8</v>
       </c>
       <c r="Z46" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="AA46" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AB46" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>556</v>
       </c>
       <c r="AE46" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AH46" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AI46" t="s">
-        <v>539</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
+        <v>551</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:42">
@@ -5733,79 +5832,79 @@
         <v>207</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E47" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H47" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K47" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O47" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P47" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q47" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S47" t="s">
-        <v>486</v>
-      </c>
-      <c r="W47" t="s">
-        <v>516</v>
+        <v>496</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
       </c>
       <c r="X47">
         <v>150</v>
       </c>
       <c r="Z47" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="AA47" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AB47" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>556</v>
       </c>
       <c r="AE47" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AH47" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AI47" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AL47" t="s">
-        <v>342</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:42">
@@ -5819,58 +5918,58 @@
         <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F48" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H48" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I48" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J48" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P48" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="Q48" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="S48" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="T48" t="s">
-        <v>507</v>
-      </c>
-      <c r="W48" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
       </c>
       <c r="X48">
         <v>60</v>
       </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
+      <c r="AC48" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:42">
@@ -5884,73 +5983,79 @@
         <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E49" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F49" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H49" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I49" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="J49" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K49" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="N49" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O49" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P49" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="Q49" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S49" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="T49" t="s">
-        <v>496</v>
-      </c>
-      <c r="W49" t="s">
-        <v>516</v>
+        <v>507</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
       </c>
       <c r="X49">
         <v>15</v>
       </c>
       <c r="AA49" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AB49" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>351</v>
       </c>
       <c r="AH49" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AI49" t="s">
-        <v>411</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>573</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:42">
@@ -5964,46 +6069,58 @@
         <v>210</v>
       </c>
       <c r="D50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E50" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I50" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>347</v>
       </c>
       <c r="L50" t="s">
-        <v>391</v>
+        <v>401</v>
+      </c>
+      <c r="M50" t="s">
+        <v>347</v>
       </c>
       <c r="N50" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O50" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P50" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q50" t="s">
-        <v>464</v>
-      </c>
-      <c r="W50" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="1:42">
@@ -6017,76 +6134,76 @@
         <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E51" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F51" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H51" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I51" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J51" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N51" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O51" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P51" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q51" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S51" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T51" t="s">
-        <v>495</v>
-      </c>
-      <c r="W51" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
       </c>
       <c r="X51">
         <v>71</v>
       </c>
       <c r="Z51" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="AA51" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB51" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>556</v>
       </c>
       <c r="AE51" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AN51" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:42">
@@ -6100,64 +6217,73 @@
         <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E52" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F52" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H52" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I52" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="J52" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="L52" t="s">
-        <v>391</v>
+        <v>401</v>
+      </c>
+      <c r="M52" t="s">
+        <v>350</v>
       </c>
       <c r="N52" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O52" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P52" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q52" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="S52" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="T52" t="s">
-        <v>508</v>
-      </c>
-      <c r="W52" t="s">
-        <v>516</v>
+        <v>519</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
       </c>
       <c r="X52">
         <v>160</v>
       </c>
+      <c r="Z52" t="s">
+        <v>547</v>
+      </c>
       <c r="AA52" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AB52" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:42">
@@ -6171,58 +6297,58 @@
         <v>213</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E53" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F53" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H53" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="J53" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="N53" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O53" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P53" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Q53" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="S53" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="T53" t="s">
-        <v>508</v>
-      </c>
-      <c r="W53" t="s">
-        <v>516</v>
+        <v>519</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
       </c>
       <c r="X53">
         <v>344</v>
       </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
+      <c r="AC53" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="1:42">
@@ -6236,64 +6362,73 @@
         <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E54" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F54" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H54" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I54" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="J54" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K54" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="L54" t="s">
-        <v>392</v>
+        <v>402</v>
+      </c>
+      <c r="M54" t="s">
+        <v>351</v>
       </c>
       <c r="N54" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O54" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P54" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Q54" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="S54" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="T54" t="s">
-        <v>507</v>
-      </c>
-      <c r="W54" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
       </c>
       <c r="X54">
         <v>59</v>
       </c>
+      <c r="Z54" t="s">
+        <v>548</v>
+      </c>
       <c r="AA54" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AB54" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:42">
@@ -6304,28 +6439,34 @@
         <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P55" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q55" t="s">
-        <v>459</v>
-      </c>
-      <c r="W55" t="s">
-        <v>516</v>
+        <v>469</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
       </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
+      <c r="AC55" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:42">
@@ -6339,76 +6480,76 @@
         <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F56" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H56" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I56" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J56" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K56" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N56" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O56" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P56" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="Q56" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S56" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T56" t="s">
-        <v>495</v>
-      </c>
-      <c r="W56" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
       </c>
       <c r="X56">
         <v>178</v>
       </c>
       <c r="Z56" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="AA56" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AB56" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
+        <v>555</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>556</v>
       </c>
       <c r="AE56" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AN56" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP56">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:42">
@@ -6422,76 +6563,76 @@
         <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E57" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F57" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H57" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I57" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K57" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N57" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O57" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P57" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="Q57" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S57" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T57" t="s">
-        <v>495</v>
-      </c>
-      <c r="W57" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
       </c>
       <c r="X57">
         <v>178</v>
       </c>
       <c r="Z57" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="AA57" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB57" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>556</v>
       </c>
       <c r="AE57" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AN57" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP57">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:42">
@@ -6505,79 +6646,79 @@
         <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E58" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F58" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H58" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I58" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J58" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M58" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N58" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O58" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P58" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q58" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S58" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="T58" t="s">
-        <v>500</v>
-      </c>
-      <c r="W58" t="s">
-        <v>516</v>
+        <v>511</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
       </c>
       <c r="X58">
         <v>266</v>
       </c>
       <c r="Z58" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="AA58" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AB58" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>556</v>
       </c>
       <c r="AE58" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AH58" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AN58" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP58">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:42">
@@ -6591,70 +6732,73 @@
         <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E59" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F59" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H59" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I59" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J59" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K59" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N59" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O59" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P59" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="Q59" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S59" t="s">
-        <v>486</v>
-      </c>
-      <c r="W59" t="s">
-        <v>516</v>
+        <v>496</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
       </c>
       <c r="X59">
         <v>160</v>
       </c>
       <c r="Z59" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="AA59" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB59" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>423</v>
       </c>
       <c r="AN59" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:42">
@@ -6668,58 +6812,61 @@
         <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F60" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H60" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I60" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="J60" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="L60" t="s">
-        <v>392</v>
+        <v>402</v>
+      </c>
+      <c r="M60" t="s">
+        <v>351</v>
       </c>
       <c r="N60" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O60" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P60" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q60" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="S60" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="T60" t="s">
-        <v>509</v>
-      </c>
-      <c r="W60" t="s">
-        <v>516</v>
+        <v>520</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
       </c>
       <c r="X60">
         <v>110</v>
       </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AP60">
-        <v>0</v>
+      <c r="AC60" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:42">
@@ -6733,67 +6880,76 @@
         <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E61" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F61" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H61" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I61" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J61" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K61" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L61" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N61" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O61" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P61" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q61" t="s">
-        <v>460</v>
-      </c>
-      <c r="W61" t="s">
-        <v>516</v>
+        <v>470</v>
+      </c>
+      <c r="S61" t="s">
+        <v>478</v>
+      </c>
+      <c r="T61" t="s">
+        <v>506</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>59</v>
       </c>
       <c r="Z61" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="AA61" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB61" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>556</v>
       </c>
       <c r="AE61" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AN61" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP61">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="62" spans="1:42">
@@ -6807,58 +6963,61 @@
         <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E62" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F62" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H62" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I62" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J62" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K62" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="N62" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O62" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P62" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q62" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="S62" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="T62" t="s">
-        <v>510</v>
-      </c>
-      <c r="W62" t="s">
-        <v>516</v>
+        <v>521</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
       </c>
       <c r="X62">
         <v>35</v>
       </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AP62">
-        <v>0</v>
+      <c r="AC62" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="63" spans="1:42">
@@ -6869,28 +7028,34 @@
         <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F63" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P63" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q63" t="s">
-        <v>459</v>
-      </c>
-      <c r="W63" t="s">
-        <v>516</v>
+        <v>469</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
+      <c r="AC63" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="64" spans="1:42">
@@ -6901,25 +7066,31 @@
         <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F64" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P64" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="Q64" t="s">
-        <v>459</v>
-      </c>
-      <c r="W64" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -6933,76 +7104,76 @@
         <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H65" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I65" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J65" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K65" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L65" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M65" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N65" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O65" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P65" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q65" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S65" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T65" t="s">
-        <v>495</v>
-      </c>
-      <c r="W65" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
       </c>
       <c r="X65">
         <v>400</v>
       </c>
       <c r="Z65" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="AA65" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB65" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>556</v>
       </c>
       <c r="AE65" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AN65" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP65">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="1:42">
@@ -7016,52 +7187,64 @@
         <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E66" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H66" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I66" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="J66" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K66" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="L66" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M66" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="N66" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O66" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P66" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q66" t="s">
-        <v>459</v>
-      </c>
-      <c r="W66" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AP66">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="S66" t="s">
+        <v>490</v>
+      </c>
+      <c r="T66" t="s">
+        <v>515</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>160</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="67" spans="1:42">
@@ -7075,58 +7258,58 @@
         <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E67" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F67" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H67" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I67" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="J67" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K67" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L67" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="N67" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O67" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P67" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="Q67" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S67" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T67" t="s">
-        <v>495</v>
-      </c>
-      <c r="W67" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
       </c>
       <c r="X67">
         <v>110</v>
       </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AP67">
-        <v>0</v>
+      <c r="AC67" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:42">
@@ -7140,58 +7323,58 @@
         <v>218</v>
       </c>
       <c r="D68" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E68" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F68" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H68" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I68" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="J68" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K68" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L68" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="N68" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O68" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P68" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q68" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S68" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T68" t="s">
-        <v>495</v>
-      </c>
-      <c r="W68" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
       </c>
       <c r="X68">
         <v>218</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AP68">
-        <v>0</v>
+      <c r="AC68" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="69" spans="1:42">
@@ -7205,58 +7388,58 @@
         <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E69" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F69" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H69" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I69" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="J69" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K69" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L69" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O69" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P69" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q69" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S69" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="T69" t="s">
-        <v>501</v>
-      </c>
-      <c r="W69" t="s">
-        <v>516</v>
+        <v>512</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
       </c>
       <c r="X69">
         <v>187</v>
       </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AP69">
-        <v>0</v>
+      <c r="AC69" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="70" spans="1:42">
@@ -7270,58 +7453,58 @@
         <v>220</v>
       </c>
       <c r="D70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E70" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H70" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I70" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="J70" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K70" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="N70" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O70" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P70" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q70" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="S70" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="T70" t="s">
-        <v>508</v>
-      </c>
-      <c r="W70" t="s">
-        <v>516</v>
+        <v>519</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
       </c>
       <c r="X70">
         <v>253</v>
       </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AP70">
-        <v>0</v>
+      <c r="AC70" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="1:42">
@@ -7335,58 +7518,58 @@
         <v>218</v>
       </c>
       <c r="D71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F71" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H71" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I71" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="J71" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K71" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L71" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="N71" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O71" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P71" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="Q71" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S71" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T71" t="s">
-        <v>495</v>
-      </c>
-      <c r="W71" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
       </c>
       <c r="X71">
         <v>302</v>
       </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AP71">
-        <v>0</v>
+      <c r="AC71" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="72" spans="1:42">
@@ -7400,55 +7583,55 @@
         <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E72" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F72" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H72" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I72" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="J72" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K72" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L72" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N72" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O72" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P72" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q72" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S72" t="s">
-        <v>486</v>
-      </c>
-      <c r="W72" t="s">
-        <v>516</v>
+        <v>496</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
       </c>
       <c r="X72">
         <v>203</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AP72">
-        <v>0</v>
+      <c r="AC72" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="73" spans="1:42">
@@ -7462,58 +7645,58 @@
         <v>218</v>
       </c>
       <c r="D73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E73" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F73" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H73" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I73" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="J73" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K73" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L73" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="N73" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O73" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P73" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q73" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S73" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T73" t="s">
-        <v>495</v>
-      </c>
-      <c r="W73" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
       </c>
       <c r="X73">
         <v>67</v>
       </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AP73">
-        <v>0</v>
+      <c r="AC73" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="1:42">
@@ -7527,58 +7710,58 @@
         <v>219</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E74" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F74" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H74" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I74" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="J74" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K74" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L74" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N74" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O74" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P74" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q74" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S74" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="T74" t="s">
-        <v>500</v>
-      </c>
-      <c r="W74" t="s">
-        <v>516</v>
+        <v>511</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
       </c>
       <c r="X74">
         <v>219</v>
       </c>
-      <c r="AC74">
-        <v>0</v>
-      </c>
-      <c r="AP74">
-        <v>0</v>
+      <c r="AC74" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:42">
@@ -7592,49 +7775,49 @@
         <v>219</v>
       </c>
       <c r="D75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F75" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H75" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I75" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="J75" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K75" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L75" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N75" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O75" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P75" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q75" t="s">
-        <v>459</v>
-      </c>
-      <c r="W75" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AP75">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="76" spans="1:42">
@@ -7648,49 +7831,49 @@
         <v>221</v>
       </c>
       <c r="D76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F76" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H76" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I76" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J76" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K76" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L76" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="N76" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O76" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P76" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q76" t="s">
-        <v>460</v>
-      </c>
-      <c r="W76" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-      <c r="AP76">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="77" spans="1:42">
@@ -7704,58 +7887,58 @@
         <v>221</v>
       </c>
       <c r="D77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E77" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F77" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H77" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I77" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J77" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K77" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L77" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="N77" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O77" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P77" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q77" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S77" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T77" t="s">
-        <v>495</v>
-      </c>
-      <c r="W77" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
       </c>
       <c r="X77">
         <v>108</v>
       </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AP77">
-        <v>0</v>
+      <c r="AC77" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:42">
@@ -7769,58 +7952,58 @@
         <v>221</v>
       </c>
       <c r="D78" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E78" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F78" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H78" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I78" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J78" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K78" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L78" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="N78" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O78" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P78" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q78" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S78" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="T78" t="s">
-        <v>498</v>
-      </c>
-      <c r="W78" t="s">
-        <v>516</v>
+        <v>509</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
       </c>
       <c r="X78">
         <v>120</v>
       </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AP78">
-        <v>0</v>
+      <c r="AC78" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:42">
@@ -7834,49 +8017,49 @@
         <v>221</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E79" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F79" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H79" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I79" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J79" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K79" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L79" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="N79" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O79" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P79" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q79" t="s">
-        <v>459</v>
-      </c>
-      <c r="W79" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AP79">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:42">
@@ -7890,49 +8073,49 @@
         <v>221</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F80" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H80" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I80" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J80" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K80" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L80" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="N80" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O80" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P80" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q80" t="s">
-        <v>460</v>
-      </c>
-      <c r="W80" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AP80">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="81" spans="1:42">
@@ -7946,49 +8129,49 @@
         <v>222</v>
       </c>
       <c r="D81" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E81" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F81" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H81" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I81" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="J81" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="K81" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L81" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="N81" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O81" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P81" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q81" t="s">
-        <v>462</v>
-      </c>
-      <c r="W81" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AP81">
-        <v>0</v>
+        <v>472</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="82" spans="1:42">
@@ -8002,49 +8185,49 @@
         <v>221</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E82" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F82" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H82" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I82" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J82" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K82" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L82" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="N82" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O82" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P82" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q82" t="s">
-        <v>460</v>
-      </c>
-      <c r="W82" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AP82">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="1:42">
@@ -8058,49 +8241,49 @@
         <v>223</v>
       </c>
       <c r="D83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E83" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F83" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H83" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I83" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="J83" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="K83" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L83" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="N83" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O83" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P83" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q83" t="s">
-        <v>466</v>
-      </c>
-      <c r="W83" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AP83">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:42">
@@ -8114,58 +8297,58 @@
         <v>224</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E84" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F84" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H84" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I84" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="J84" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="K84" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L84" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="N84" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O84" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P84" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q84" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="S84" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="T84" t="s">
-        <v>511</v>
-      </c>
-      <c r="W84" t="s">
-        <v>516</v>
+        <v>522</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
       </c>
       <c r="X84">
         <v>14</v>
       </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AP84">
-        <v>0</v>
+      <c r="AC84" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="85" spans="1:42">
@@ -8179,46 +8362,46 @@
         <v>225</v>
       </c>
       <c r="D85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E85" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I85" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J85" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K85" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="L85" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="N85" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O85" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P85" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q85" t="s">
-        <v>460</v>
-      </c>
-      <c r="W85" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AP85">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="86" spans="1:42">
@@ -8232,49 +8415,49 @@
         <v>226</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E86" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F86" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H86" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I86" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="J86" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K86" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="L86" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="N86" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O86" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P86" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q86" t="s">
-        <v>460</v>
-      </c>
-      <c r="W86" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AP86">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:42">
@@ -8288,58 +8471,58 @@
         <v>227</v>
       </c>
       <c r="D87" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F87" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H87" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="I87" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="J87" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K87" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L87" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="N87" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O87" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P87" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q87" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="S87" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="T87" t="s">
-        <v>512</v>
-      </c>
-      <c r="W87" t="s">
-        <v>516</v>
+        <v>523</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
       </c>
       <c r="X87">
         <v>34</v>
       </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AP87">
-        <v>0</v>
+      <c r="AC87" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="88" spans="1:42">
@@ -8353,58 +8536,58 @@
         <v>228</v>
       </c>
       <c r="D88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E88" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F88" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H88" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="I88" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J88" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K88" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L88" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="N88" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O88" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P88" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q88" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S88" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="T88" t="s">
-        <v>504</v>
-      </c>
-      <c r="W88" t="s">
-        <v>516</v>
+        <v>515</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
       </c>
       <c r="X88">
         <v>819</v>
       </c>
-      <c r="AC88">
-        <v>0</v>
-      </c>
-      <c r="AP88">
-        <v>0</v>
+      <c r="AC88" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:42">
@@ -8418,58 +8601,58 @@
         <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E89" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F89" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H89" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="I89" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J89" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K89" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L89" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="N89" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O89" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P89" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="Q89" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S89" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="T89" t="s">
-        <v>503</v>
-      </c>
-      <c r="W89" t="s">
-        <v>516</v>
+        <v>514</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
       </c>
       <c r="X89">
         <v>34</v>
       </c>
-      <c r="AC89">
-        <v>0</v>
-      </c>
-      <c r="AP89">
-        <v>0</v>
+      <c r="AC89" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP89" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:42">
@@ -8483,55 +8666,55 @@
         <v>225</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E90" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F90" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I90" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J90" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K90" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L90" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="N90" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O90" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P90" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q90" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S90" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T90" t="s">
-        <v>495</v>
-      </c>
-      <c r="W90" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
       </c>
       <c r="X90">
         <v>198</v>
       </c>
-      <c r="AC90">
-        <v>0</v>
-      </c>
-      <c r="AP90">
-        <v>0</v>
+      <c r="AC90" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:42">
@@ -8545,49 +8728,49 @@
         <v>228</v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E91" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F91" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H91" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="I91" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J91" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K91" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L91" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="N91" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O91" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P91" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q91" t="s">
-        <v>460</v>
-      </c>
-      <c r="W91" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC91">
-        <v>0</v>
-      </c>
-      <c r="AP91">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:42">
@@ -8601,55 +8784,55 @@
         <v>225</v>
       </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E92" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F92" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I92" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J92" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K92" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="L92" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="N92" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O92" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P92" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q92" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S92" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="T92" t="s">
-        <v>495</v>
-      </c>
-      <c r="W92" t="s">
-        <v>516</v>
+        <v>506</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
       </c>
       <c r="X92">
         <v>210</v>
       </c>
-      <c r="AC92">
-        <v>0</v>
-      </c>
-      <c r="AP92">
-        <v>0</v>
+      <c r="AC92" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="93" spans="1:42">
@@ -8663,55 +8846,55 @@
         <v>228</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E93" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F93" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H93" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="I93" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J93" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="K93" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L93" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="N93" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O93" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P93" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="Q93" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S93" t="s">
-        <v>486</v>
-      </c>
-      <c r="W93" t="s">
-        <v>516</v>
+        <v>496</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
       </c>
       <c r="X93">
         <v>211</v>
       </c>
-      <c r="AC93">
-        <v>0</v>
-      </c>
-      <c r="AP93">
-        <v>0</v>
+      <c r="AC93" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP93" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="1:42">
@@ -8721,38 +8904,50 @@
       <c r="B94" t="s">
         <v>182</v>
       </c>
+      <c r="C94" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" t="s">
+        <v>312</v>
+      </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F94" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="H94" t="s">
+        <v>350</v>
+      </c>
+      <c r="I94" t="s">
+        <v>387</v>
       </c>
       <c r="J94" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K94" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N94" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O94" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P94" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q94" t="s">
-        <v>460</v>
-      </c>
-      <c r="W94" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AP94">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="95" spans="1:42">
@@ -8763,52 +8958,52 @@
         <v>147</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F95" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H95" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I95" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="J95" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K95" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L95" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="N95" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O95" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="P95" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q95" t="s">
-        <v>462</v>
-      </c>
-      <c r="W95" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC95">
-        <v>0</v>
-      </c>
-      <c r="AP95">
-        <v>0</v>
+        <v>472</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="96" spans="1:42">
@@ -8819,49 +9014,52 @@
         <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E96" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H96" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I96" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="J96" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="K96" t="s">
-        <v>421</v>
+        <v>432</v>
+      </c>
+      <c r="L96" t="s">
+        <v>352</v>
       </c>
       <c r="N96" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O96" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P96" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q96" t="s">
-        <v>459</v>
-      </c>
-      <c r="W96" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AP96">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP96" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="97" spans="1:42">
@@ -8872,46 +9070,49 @@
         <v>176</v>
       </c>
       <c r="C97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D97" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E97" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F97" t="s">
-        <v>320</v>
+        <v>325</v>
+      </c>
+      <c r="H97" t="s">
+        <v>351</v>
       </c>
       <c r="I97" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="J97" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K97" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N97" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O97" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P97" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q97" t="s">
-        <v>460</v>
-      </c>
-      <c r="W97" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AP97">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP97" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="98" spans="1:42">
@@ -8922,58 +9123,61 @@
         <v>183</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D98" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E98" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F98" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H98" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I98" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="J98" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="K98" t="s">
-        <v>421</v>
+        <v>432</v>
+      </c>
+      <c r="L98" t="s">
+        <v>352</v>
       </c>
       <c r="N98" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O98" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P98" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q98" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S98" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="T98" t="s">
-        <v>504</v>
-      </c>
-      <c r="W98" t="s">
-        <v>516</v>
+        <v>515</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
       </c>
       <c r="X98">
         <v>59</v>
       </c>
-      <c r="AC98">
-        <v>0</v>
-      </c>
-      <c r="AP98">
-        <v>0</v>
+      <c r="AC98" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="99" spans="1:42">
@@ -8984,49 +9188,55 @@
         <v>184</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="D99" t="s">
+        <v>317</v>
       </c>
       <c r="E99" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F99" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="I99" t="s">
+        <v>391</v>
       </c>
       <c r="J99" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K99" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N99" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O99" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P99" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="Q99" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S99" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="T99" t="s">
-        <v>504</v>
-      </c>
-      <c r="W99" t="s">
-        <v>516</v>
+        <v>515</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
       </c>
       <c r="X99">
         <v>617</v>
       </c>
-      <c r="AC99">
-        <v>0</v>
-      </c>
-      <c r="AP99">
-        <v>0</v>
+      <c r="AC99" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="100" spans="1:42">
@@ -9037,37 +9247,37 @@
         <v>185</v>
       </c>
       <c r="E100" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F100" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J100" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K100" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N100" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O100" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P100" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q100" t="s">
-        <v>460</v>
-      </c>
-      <c r="W100" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AP100">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:42">
@@ -9078,40 +9288,49 @@
         <v>150</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="D101" t="s">
+        <v>318</v>
       </c>
       <c r="E101" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F101" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="H101" t="s">
+        <v>352</v>
+      </c>
+      <c r="I101" t="s">
+        <v>391</v>
       </c>
       <c r="J101" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K101" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N101" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O101" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P101" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q101" t="s">
-        <v>460</v>
-      </c>
-      <c r="W101" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC101">
-        <v>0</v>
-      </c>
-      <c r="AP101">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP101" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:42">
@@ -9122,25 +9341,25 @@
         <v>186</v>
       </c>
       <c r="E102" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F102" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P102" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q102" t="s">
-        <v>462</v>
-      </c>
-      <c r="W102" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC102">
-        <v>0</v>
-      </c>
-      <c r="AP102">
-        <v>0</v>
+        <v>472</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="103" spans="1:42">
@@ -9151,40 +9370,49 @@
         <v>176</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="D103" t="s">
+        <v>319</v>
       </c>
       <c r="E103" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F103" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="H103" t="s">
+        <v>352</v>
+      </c>
+      <c r="I103" t="s">
+        <v>391</v>
       </c>
       <c r="J103" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K103" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N103" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O103" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P103" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q103" t="s">
-        <v>459</v>
-      </c>
-      <c r="W103" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC103">
-        <v>0</v>
-      </c>
-      <c r="AP103">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="104" spans="1:42">
@@ -9195,46 +9423,55 @@
         <v>176</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D104" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E104" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F104" t="s">
-        <v>320</v>
+        <v>325</v>
+      </c>
+      <c r="H104" t="s">
+        <v>351</v>
       </c>
       <c r="I104" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="J104" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K104" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N104" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O104" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P104" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q104" t="s">
-        <v>460</v>
-      </c>
-      <c r="W104" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC104">
-        <v>0</v>
-      </c>
-      <c r="AP104">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="S104" t="s">
+        <v>504</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>636</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="105" spans="1:42">
@@ -9245,46 +9482,46 @@
         <v>187</v>
       </c>
       <c r="E105" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F105" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J105" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K105" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N105" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O105" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P105" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="Q105" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S105" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="T105" t="s">
-        <v>496</v>
-      </c>
-      <c r="W105" t="s">
-        <v>516</v>
+        <v>507</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
       </c>
       <c r="X105">
         <v>30</v>
       </c>
-      <c r="AC105">
-        <v>0</v>
-      </c>
-      <c r="AP105">
-        <v>0</v>
+      <c r="AC105" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="106" spans="1:42">
@@ -9295,46 +9532,46 @@
         <v>159</v>
       </c>
       <c r="E106" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F106" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J106" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K106" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N106" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O106" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P106" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="Q106" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="S106" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="T106" t="s">
-        <v>503</v>
-      </c>
-      <c r="W106" t="s">
-        <v>516</v>
+        <v>514</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
       </c>
       <c r="X106">
         <v>42</v>
       </c>
-      <c r="AC106">
-        <v>0</v>
-      </c>
-      <c r="AP106">
-        <v>0</v>
+      <c r="AC106" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="107" spans="1:42">
@@ -9345,25 +9582,25 @@
         <v>188</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P107" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q107" t="s">
-        <v>466</v>
-      </c>
-      <c r="W107" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC107">
-        <v>0</v>
-      </c>
-      <c r="AP107">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="108" spans="1:42">
@@ -9374,25 +9611,25 @@
         <v>189</v>
       </c>
       <c r="E108" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F108" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P108" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q108" t="s">
-        <v>460</v>
-      </c>
-      <c r="W108" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC108">
-        <v>0</v>
-      </c>
-      <c r="AP108">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="563">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -454,6 +454,9 @@
     <t>2504LCLCMM07050004</t>
   </si>
   <si>
+    <t>2504LCLCMM06440021</t>
+  </si>
+  <si>
     <t>METAMASH PRIVATE LIMITED</t>
   </si>
   <si>
@@ -1588,18 +1591,6 @@
     <t>XLX7</t>
   </si>
   <si>
-    <t>Nolan Transportation Group</t>
-  </si>
-  <si>
-    <t>HeyPrimo</t>
-  </si>
-  <si>
-    <t>A Duie Pyle</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
     <t>2025-02-25</t>
   </si>
   <si>
@@ -1684,30 +1675,9 @@
     <t>Reject</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2025-09-08</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>NaT</t>
-  </si>
-  <si>
     <t>15-03-2025</t>
   </si>
   <si>
-    <t>2025-06-08</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2028-06-06</t>
-  </si>
-  <si>
     <t>22-03-2025</t>
   </si>
   <si>
@@ -1715,12 +1685,6 @@
   </si>
   <si>
     <t>18-02-2025</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2026-05-05</t>
   </si>
   <si>
     <t>07-03-2025</t>
@@ -2096,7 +2060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP108"/>
+  <dimension ref="A1:AP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2235,106 +2199,82 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="T2" t="s">
-        <v>505</v>
-      </c>
-      <c r="U2" t="s">
-        <v>524</v>
-      </c>
-      <c r="V2" t="s">
-        <v>526</v>
-      </c>
-      <c r="W2">
-        <v>200</v>
+        <v>506</v>
       </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AB2" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE2" t="s">
         <v>553</v>
       </c>
-      <c r="AC2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>557</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>560</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>561</v>
-      </c>
       <c r="AH2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AI2" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>567</v>
+        <v>415</v>
       </c>
       <c r="AL2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AN2" t="s">
-        <v>570</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2342,106 +2282,79 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T3" t="s">
-        <v>506</v>
-      </c>
-      <c r="U3" t="s">
-        <v>525</v>
-      </c>
-      <c r="V3" t="s">
-        <v>527</v>
-      </c>
-      <c r="W3">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AA3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH3" t="s">
         <v>415</v>
       </c>
-      <c r="AB3" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>560</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>414</v>
-      </c>
       <c r="AI3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>568</v>
+        <v>345</v>
       </c>
       <c r="AL3" t="s">
-        <v>416</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>556</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2449,43 +2362,22 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q4" t="s">
-        <v>471</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="Y4">
         <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>563</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2493,91 +2385,79 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T5" t="s">
-        <v>506</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AA5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB5" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL5" t="s">
         <v>553</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>556</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2585,91 +2465,79 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T6" t="s">
-        <v>506</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AA6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AB6" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL6" t="s">
         <v>553</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>556</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2677,91 +2545,79 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T7" t="s">
-        <v>506</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X7">
         <v>38</v>
       </c>
       <c r="Z7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AA7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AB7" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AI7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL7" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2769,88 +2625,79 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T8" t="s">
-        <v>506</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AA8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AB8" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC8" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>547</v>
+      </c>
+      <c r="AI8" t="s">
         <v>556</v>
       </c>
-      <c r="AE8" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>550</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>566</v>
-      </c>
       <c r="AL8" t="s">
-        <v>340</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>556</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2858,88 +2705,79 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S9" t="s">
-        <v>479</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AA9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AB9" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE9" t="s">
         <v>553</v>
       </c>
-      <c r="AC9" t="s">
-        <v>556</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>560</v>
-      </c>
       <c r="AH9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN9" t="s">
-        <v>571</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2947,82 +2785,73 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T10" t="s">
-        <v>507</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="AE10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AH10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL10" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>556</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -3030,37 +2859,22 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q11" t="s">
-        <v>469</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="Y11">
         <v>5</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3068,82 +2882,73 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T12" t="s">
-        <v>506</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X12">
         <v>78</v>
       </c>
       <c r="Z12" t="s">
-        <v>534</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="AE12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL12" t="s">
         <v>415</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3151,85 +2956,76 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S13" t="s">
-        <v>482</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="X13">
         <v>24</v>
       </c>
       <c r="Z13" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AA13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AB13" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH13" t="s">
         <v>554</v>
       </c>
-      <c r="AC13" t="s">
-        <v>556</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>411</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>564</v>
-      </c>
       <c r="AI13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AL13" t="s">
-        <v>352</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>556</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3237,82 +3033,73 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T14" t="s">
-        <v>506</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X14">
         <v>20</v>
       </c>
       <c r="Z14" t="s">
-        <v>534</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="AE14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH14" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="AI14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL14" t="s">
-        <v>569</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3320,85 +3107,76 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T15" t="s">
-        <v>508</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="X15">
         <v>153</v>
       </c>
       <c r="Z15" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AB15" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AH15" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI15" t="s">
         <v>410</v>
       </c>
-      <c r="AI15" t="s">
-        <v>409</v>
-      </c>
       <c r="AL15" t="s">
-        <v>409</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>556</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3406,6230 +3184,5359 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T16" t="s">
-        <v>509</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="X16">
         <v>77</v>
       </c>
       <c r="Z16" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AA16" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AB16" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL16" t="s">
-        <v>415</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T17" t="s">
-        <v>510</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="X17">
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AA17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AB17" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE17" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>546</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>546</v>
+      </c>
+      <c r="AL17" t="s">
         <v>411</v>
       </c>
-      <c r="AH17" t="s">
-        <v>549</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>549</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>410</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42">
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q18" t="s">
-        <v>469</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="AC18" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42">
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J19" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L19" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P19" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q19" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T19" t="s">
-        <v>511</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="X19">
         <v>150</v>
       </c>
       <c r="Z19" t="s">
-        <v>538</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="AE19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AI19" t="s">
-        <v>420</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T20" t="s">
-        <v>512</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="X20">
         <v>142</v>
       </c>
       <c r="Z20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA20" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AB20" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AI20" t="s">
-        <v>347</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T21" t="s">
-        <v>510</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="X21">
         <v>43</v>
       </c>
       <c r="Z21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AA21" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB21" t="s">
         <v>551</v>
       </c>
-      <c r="AB21" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>556</v>
-      </c>
       <c r="AE21" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>546</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>546</v>
+      </c>
+      <c r="AL21" t="s">
         <v>411</v>
       </c>
-      <c r="AH21" t="s">
-        <v>549</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>549</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>410</v>
-      </c>
       <c r="AN21" t="s">
-        <v>572</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N22" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P22" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S22" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T22" t="s">
-        <v>507</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="X22">
         <v>29</v>
       </c>
       <c r="Z22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA22" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AB22" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AI22" t="s">
-        <v>420</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S23" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T23" t="s">
-        <v>513</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="X23">
         <v>15</v>
       </c>
       <c r="Z23" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB23" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AH23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AI23" t="s">
-        <v>420</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T24" t="s">
-        <v>506</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X24">
         <v>273</v>
       </c>
       <c r="Z24" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AA24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AB24" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AI24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL24" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
         <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I25" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N25" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P25" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q25" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T25" t="s">
-        <v>514</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="X25">
         <v>22</v>
       </c>
       <c r="Z25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AA25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AB25" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AI25" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AL25" t="s">
-        <v>352</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q26" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S26" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T26" t="s">
-        <v>506</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X26">
         <v>272</v>
       </c>
       <c r="Z26" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AA26" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB26" t="s">
         <v>551</v>
       </c>
-      <c r="AB26" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>556</v>
-      </c>
       <c r="AE26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AI26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T27" t="s">
-        <v>506</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X27">
         <v>122</v>
       </c>
       <c r="Z27" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AA27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AB27" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AI27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL27" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N28" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S28" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T28" t="s">
-        <v>515</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="X28">
         <v>314</v>
       </c>
       <c r="Z28" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AA28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AB28" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE28" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AH28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL28" t="s">
-        <v>416</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J29" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L29" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q29" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S29" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T29" t="s">
-        <v>506</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X29">
         <v>370</v>
       </c>
       <c r="Z29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA29" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB29" t="s">
         <v>551</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AE29" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>548</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL29" t="s">
         <v>554</v>
       </c>
-      <c r="AC29" t="s">
-        <v>556</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>408</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>551</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>408</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>564</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42">
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q30" t="s">
-        <v>469</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="AC30" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42">
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q31" t="s">
-        <v>472</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="Y31">
         <v>2</v>
       </c>
-      <c r="AC31" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42">
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H32" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N32" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O32" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q32" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S32" t="s">
-        <v>491</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="X32">
         <v>16</v>
       </c>
       <c r="Z32" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AA32" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AB32" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL32" t="s">
         <v>345</v>
       </c>
-      <c r="AH32" t="s">
-        <v>414</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>344</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42">
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F33" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J33" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N33" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O33" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P33" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q33" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T33" t="s">
-        <v>511</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="X33">
         <v>220</v>
       </c>
       <c r="Z33" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AA33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AB33" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE33" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH33" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AI33" t="s">
-        <v>420</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I34" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O34" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q34" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S34" t="s">
-        <v>492</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="X34">
         <v>122</v>
       </c>
       <c r="Z34" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AA34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AB34" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL34" t="s">
         <v>553</v>
       </c>
-      <c r="AC34" t="s">
-        <v>556</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42">
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J35" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L35" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N35" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O35" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P35" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q35" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T35" t="s">
-        <v>516</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="X35">
         <v>53</v>
       </c>
       <c r="Z35" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AB35" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE35" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AH35" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI35" t="s">
         <v>349</v>
       </c>
-      <c r="AI35" t="s">
-        <v>348</v>
-      </c>
       <c r="AL35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN35" t="s">
-        <v>572</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O36" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P36" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q36" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S36" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T36" t="s">
-        <v>516</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="X36">
         <v>53</v>
       </c>
       <c r="Z36" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AA36" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AB36" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE36" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AH36" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI36" t="s">
         <v>349</v>
       </c>
-      <c r="AI36" t="s">
-        <v>348</v>
-      </c>
       <c r="AL36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN36" t="s">
-        <v>572</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P37" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q37" t="s">
-        <v>471</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
-      <c r="AC37" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42">
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J38" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L38" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N38" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P38" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T38" t="s">
-        <v>506</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X38">
         <v>450</v>
       </c>
       <c r="Z38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AB38" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>548</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL38" t="s">
         <v>554</v>
       </c>
-      <c r="AC38" t="s">
-        <v>556</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>408</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>551</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>408</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>564</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42">
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
         <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I39" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P39" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q39" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S39" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T39" t="s">
-        <v>506</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X39">
         <v>152</v>
       </c>
       <c r="Z39" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AA39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AB39" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AH39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s">
-        <v>551</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P40" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q40" t="s">
-        <v>471</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="AC40" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42">
+    </row>
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P41" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q41" t="s">
-        <v>473</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
-      <c r="AC41" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP41" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42">
+    </row>
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K42" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M42" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N42" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P42" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q42" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S42" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T42" t="s">
-        <v>517</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="X42">
         <v>414</v>
       </c>
       <c r="Z42" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA42" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB42" t="s">
         <v>551</v>
       </c>
-      <c r="AB42" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>556</v>
-      </c>
       <c r="AE42" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AH42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL42" t="s">
         <v>348</v>
       </c>
-      <c r="AI42" t="s">
-        <v>348</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>347</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42">
+    </row>
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
         <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K43" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M43" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q43" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S43" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T43" t="s">
-        <v>506</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X43">
         <v>168</v>
       </c>
       <c r="Z43" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AA43" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB43" t="s">
         <v>551</v>
       </c>
-      <c r="AB43" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>556</v>
-      </c>
       <c r="AE43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AI43" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL43" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
         <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K44" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M44" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N44" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q44" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S44" t="s">
-        <v>495</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="X44">
         <v>72</v>
       </c>
       <c r="Z44" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA44" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AB44" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE44" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AH44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AI44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s">
-        <v>409</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
         <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H45" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O45" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P45" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q45" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S45" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T45" t="s">
-        <v>506</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X45">
         <v>75</v>
       </c>
       <c r="Z45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA45" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AB45" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE45" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AH45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AI45" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AL45" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O46" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P46" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q46" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S46" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T46" t="s">
-        <v>507</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="X46">
         <v>8</v>
       </c>
       <c r="Z46" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AA46" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AB46" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AH46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AI46" t="s">
-        <v>551</v>
-      </c>
-      <c r="AP46" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
         <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J47" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M47" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O47" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P47" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q47" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S47" t="s">
-        <v>496</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="X47">
         <v>150</v>
       </c>
       <c r="Z47" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AA47" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AB47" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE47" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AH47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AI47" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AL47" t="s">
-        <v>347</v>
-      </c>
-      <c r="AP47" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
         <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K48" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N48" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O48" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P48" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q48" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S48" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T48" t="s">
-        <v>518</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="X48">
         <v>60</v>
       </c>
-      <c r="AC48" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42">
+    </row>
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I49" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K49" t="s">
+        <v>412</v>
+      </c>
+      <c r="L49" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" t="s">
         <v>411</v>
       </c>
-      <c r="L49" t="s">
-        <v>343</v>
-      </c>
-      <c r="M49" t="s">
-        <v>410</v>
-      </c>
       <c r="N49" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P49" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q49" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S49" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T49" t="s">
-        <v>507</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="X49">
         <v>15</v>
       </c>
       <c r="AA49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB49" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI49" t="s">
         <v>351</v>
       </c>
-      <c r="AH49" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>350</v>
-      </c>
       <c r="AN49" t="s">
-        <v>573</v>
-      </c>
-      <c r="AP49" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" spans="1:42">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
         <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E50" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I50" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O50" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P50" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q50" t="s">
-        <v>474</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="AE50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AH50" t="s">
-        <v>420</v>
-      </c>
-      <c r="AP50" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
         <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J51" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K51" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O51" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P51" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q51" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T51" t="s">
-        <v>506</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X51">
         <v>71</v>
       </c>
       <c r="Z51" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AA51" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AB51" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE51" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP51" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
         <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I52" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J52" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N52" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O52" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P52" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q52" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S52" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T52" t="s">
-        <v>519</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="X52">
         <v>160</v>
       </c>
       <c r="Z52" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AA52" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB52" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AN52" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP52" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
         <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F53" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I53" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J53" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K53" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N53" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O53" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P53" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q53" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S53" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T53" t="s">
-        <v>519</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="X53">
         <v>344</v>
       </c>
-      <c r="AC53" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP53" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42">
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
         <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E54" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I54" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J54" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K54" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L54" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N54" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O54" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P54" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q54" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="S54" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T54" t="s">
-        <v>518</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="X54">
         <v>59</v>
       </c>
       <c r="Z54" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AA54" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB54" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AN54" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP54" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F55" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P55" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q55" t="s">
-        <v>469</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="Y55">
         <v>0</v>
       </c>
-      <c r="AC55" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP55" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42">
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
         <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I56" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O56" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P56" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q56" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S56" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T56" t="s">
-        <v>506</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X56">
         <v>178</v>
       </c>
       <c r="Z56" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB56" t="s">
-        <v>555</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AE56" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN56" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
         <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J57" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K57" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N57" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O57" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P57" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q57" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S57" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T57" t="s">
-        <v>506</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X57">
         <v>178</v>
       </c>
       <c r="Z57" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA57" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AB57" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE57" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN57" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
         <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I58" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J58" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N58" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O58" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P58" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q58" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S58" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T58" t="s">
-        <v>511</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="X58">
         <v>266</v>
       </c>
       <c r="Z58" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AA58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB58" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AE58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH58" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN58" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP58" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
         <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J59" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K59" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M59" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N59" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O59" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P59" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q59" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S59" t="s">
-        <v>496</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="X59">
         <v>160</v>
       </c>
       <c r="Z59" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA59" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AB59" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE59" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN59" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP59" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
         <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J60" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K60" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N60" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P60" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q60" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S60" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T60" t="s">
-        <v>520</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="X60">
         <v>110</v>
       </c>
-      <c r="AC60" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42">
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
         <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J61" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N61" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O61" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P61" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q61" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S61" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T61" t="s">
-        <v>506</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X61">
         <v>59</v>
       </c>
       <c r="Z61" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AB61" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE61" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN61" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="62" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
         <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E62" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J62" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K62" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L62" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N62" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O62" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P62" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S62" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T62" t="s">
-        <v>521</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="X62">
         <v>35</v>
       </c>
-      <c r="AC62" t="s">
-        <v>556</v>
-      </c>
       <c r="AN62" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP62" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
         <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F63" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P63" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q63" t="s">
-        <v>469</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
-      <c r="AC63" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP63" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42">
+    </row>
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
         <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F64" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P64" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q64" t="s">
-        <v>469</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>559</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>559</v>
-      </c>
-      <c r="AP64" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="65" spans="1:42">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E65" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I65" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J65" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L65" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N65" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O65" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q65" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S65" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T65" t="s">
-        <v>506</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X65">
         <v>400</v>
       </c>
       <c r="Z65" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AB65" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE65" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN65" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP65" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
         <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E66" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H66" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I66" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J66" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O66" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P66" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q66" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S66" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T66" t="s">
-        <v>515</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="X66">
         <v>160</v>
       </c>
-      <c r="AC66" t="s">
-        <v>556</v>
-      </c>
       <c r="AN66" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP66" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E67" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F67" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J67" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K67" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L67" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N67" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P67" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q67" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S67" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T67" t="s">
-        <v>506</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X67">
         <v>110</v>
       </c>
-      <c r="AC67" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP67" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42">
+    </row>
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
         <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I68" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q68" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S68" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T68" t="s">
-        <v>506</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X68">
         <v>218</v>
       </c>
-      <c r="AC68" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP68" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:42">
+    </row>
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
         <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F69" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H69" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I69" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N69" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O69" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P69" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q69" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S69" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="T69" t="s">
-        <v>512</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="X69">
         <v>187</v>
       </c>
-      <c r="AC69" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP69" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:42">
+    </row>
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
         <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F70" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I70" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J70" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K70" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N70" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O70" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P70" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S70" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T70" t="s">
-        <v>519</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="X70">
         <v>253</v>
       </c>
-      <c r="AC70" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP70" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="71" spans="1:42">
+    </row>
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
         <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H71" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I71" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J71" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K71" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L71" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N71" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P71" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q71" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S71" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T71" t="s">
-        <v>506</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X71">
         <v>302</v>
       </c>
-      <c r="AC71" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="72" spans="1:42">
+    </row>
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H72" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I72" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J72" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K72" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L72" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N72" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O72" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P72" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q72" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S72" t="s">
-        <v>496</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="X72">
         <v>203</v>
       </c>
-      <c r="AC72" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP72" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="73" spans="1:42">
+    </row>
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
         <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F73" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H73" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I73" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K73" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N73" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P73" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q73" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S73" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T73" t="s">
-        <v>506</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X73">
         <v>67</v>
       </c>
-      <c r="AC73" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:42">
+    </row>
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
         <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H74" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J74" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K74" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L74" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N74" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O74" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P74" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q74" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S74" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T74" t="s">
-        <v>511</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="X74">
         <v>219</v>
       </c>
-      <c r="AC74" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:42">
+    </row>
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
         <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E75" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F75" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I75" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J75" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K75" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L75" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N75" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O75" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q75" t="s">
-        <v>469</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP75" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:42">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
         <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E76" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F76" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H76" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I76" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J76" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K76" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L76" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N76" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O76" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P76" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q76" t="s">
-        <v>470</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP76" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="77" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
         <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E77" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F77" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H77" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J77" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K77" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L77" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N77" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O77" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q77" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S77" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T77" t="s">
-        <v>506</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X77">
         <v>108</v>
       </c>
-      <c r="AC77" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP77" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="78" spans="1:42">
+    </row>
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
         <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F78" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I78" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J78" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K78" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L78" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N78" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O78" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P78" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q78" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S78" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T78" t="s">
-        <v>509</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="X78">
         <v>120</v>
       </c>
-      <c r="AC78" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP78" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="79" spans="1:42">
+    </row>
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
         <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K79" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N79" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O79" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P79" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q79" t="s">
-        <v>469</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP79" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="80" spans="1:42">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40">
       <c r="A80" t="s">
         <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E80" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F80" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H80" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J80" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K80" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L80" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N80" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O80" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P80" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q80" t="s">
-        <v>470</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP80" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
         <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H81" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J81" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K81" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L81" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O81" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P81" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q81" t="s">
-        <v>472</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP81" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:42">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
         <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F82" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H82" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I82" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J82" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K82" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L82" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N82" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O82" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P82" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q82" t="s">
-        <v>470</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP82" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
         <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K83" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N83" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O83" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P83" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q83" t="s">
-        <v>476</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP83" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="84" spans="1:42">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
         <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I84" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J84" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K84" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L84" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N84" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O84" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P84" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q84" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T84" t="s">
-        <v>522</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="X84">
         <v>14</v>
       </c>
-      <c r="AC84" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP84" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="85" spans="1:42">
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
         <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D85" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E85" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F85" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I85" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J85" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K85" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N85" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O85" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P85" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q85" t="s">
-        <v>470</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP85" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="86" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
         <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D86" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I86" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J86" t="s">
+        <v>411</v>
+      </c>
+      <c r="K86" t="s">
+        <v>430</v>
+      </c>
+      <c r="L86" t="s">
         <v>410</v>
       </c>
-      <c r="K86" t="s">
-        <v>429</v>
-      </c>
-      <c r="L86" t="s">
-        <v>409</v>
-      </c>
       <c r="N86" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O86" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P86" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q86" t="s">
-        <v>470</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP86" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="87" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
         <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E87" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F87" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I87" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J87" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K87" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L87" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N87" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O87" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P87" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q87" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S87" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T87" t="s">
-        <v>523</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="X87">
         <v>34</v>
       </c>
-      <c r="AC87" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP87" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:42">
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
         <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I88" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J88" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K88" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N88" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O88" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P88" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q88" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S88" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T88" t="s">
-        <v>515</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="X88">
         <v>819</v>
       </c>
-      <c r="AC88" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP88" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:42">
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D89" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F89" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H89" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I89" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J89" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K89" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L89" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N89" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O89" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P89" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q89" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S89" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T89" t="s">
-        <v>514</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="X89">
         <v>34</v>
       </c>
-      <c r="AC89" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP89" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:42">
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
         <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D90" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E90" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F90" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I90" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J90" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K90" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N90" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O90" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P90" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S90" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T90" t="s">
-        <v>506</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X90">
         <v>198</v>
       </c>
-      <c r="AC90" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP90" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:42">
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
         <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E91" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F91" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H91" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I91" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J91" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K91" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L91" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N91" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O91" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P91" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q91" t="s">
-        <v>470</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP91" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="92" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
         <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D92" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F92" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I92" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J92" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K92" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N92" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O92" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P92" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q92" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S92" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T92" t="s">
-        <v>506</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="X92">
         <v>210</v>
       </c>
-      <c r="AC92" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP92" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="93" spans="1:42">
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
         <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E93" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H93" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I93" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J93" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K93" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L93" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N93" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O93" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P93" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q93" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S93" t="s">
-        <v>496</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="X93">
         <v>211</v>
       </c>
-      <c r="AC93" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP93" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:42">
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
         <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D94" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E94" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F94" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H94" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I94" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J94" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K94" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N94" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O94" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P94" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q94" t="s">
-        <v>470</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP94" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
         <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D95" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E95" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H95" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I95" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J95" t="s">
+        <v>411</v>
+      </c>
+      <c r="K95" t="s">
+        <v>434</v>
+      </c>
+      <c r="L95" t="s">
         <v>410</v>
       </c>
-      <c r="K95" t="s">
-        <v>433</v>
-      </c>
-      <c r="L95" t="s">
-        <v>409</v>
-      </c>
       <c r="N95" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O95" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P95" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q95" t="s">
-        <v>472</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP95" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:42">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
         <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E96" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F96" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H96" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I96" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J96" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K96" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L96" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N96" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O96" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P96" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q96" t="s">
-        <v>469</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP96" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="97" spans="1:42">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
         <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H97" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I97" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J97" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K97" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N97" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O97" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P97" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q97" t="s">
-        <v>470</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP97" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="98" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F98" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H98" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I98" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J98" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K98" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L98" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N98" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O98" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P98" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q98" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S98" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T98" t="s">
-        <v>515</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="X98">
         <v>59</v>
       </c>
-      <c r="AC98" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP98" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="99" spans="1:42">
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
         <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E99" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F99" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J99" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K99" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N99" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O99" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P99" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q99" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S99" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T99" t="s">
-        <v>515</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="X99">
         <v>617</v>
       </c>
-      <c r="AC99" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP99" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="100" spans="1:42">
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
         <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E100" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F100" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J100" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K100" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N100" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O100" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P100" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q100" t="s">
-        <v>470</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP100" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="101" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
         <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E101" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F101" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H101" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J101" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K101" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N101" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O101" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P101" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q101" t="s">
-        <v>470</v>
-      </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP101" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:42">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E102" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F102" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P102" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q102" t="s">
-        <v>472</v>
-      </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP102" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="103" spans="1:42">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
         <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E103" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F103" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H103" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I103" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J103" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K103" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N103" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O103" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P103" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q103" t="s">
-        <v>469</v>
-      </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP103" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="104" spans="1:42">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
         <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E104" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F104" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H104" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J104" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K104" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N104" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O104" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P104" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q104" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S104" t="s">
-        <v>504</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="X104">
         <v>636</v>
       </c>
-      <c r="AC104" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP104" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="105" spans="1:42">
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
         <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E105" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F105" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J105" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K105" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N105" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O105" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P105" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q105" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S105" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T105" t="s">
-        <v>507</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="X105">
         <v>30</v>
       </c>
-      <c r="AC105" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP105" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="106" spans="1:42">
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
         <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F106" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J106" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K106" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N106" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O106" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P106" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q106" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S106" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T106" t="s">
-        <v>514</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="X106">
         <v>42</v>
       </c>
-      <c r="AC106" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP106" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="107" spans="1:42">
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
         <v>144</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P107" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q107" t="s">
-        <v>476</v>
-      </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-      <c r="AC107" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP107" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:42">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
         <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F108" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P108" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q108" t="s">
-        <v>470</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP108" t="s">
-        <v>556</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
+      <c r="A109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" t="s">
+        <v>323</v>
+      </c>
+      <c r="F109" t="s">
+        <v>326</v>
+      </c>
+      <c r="P109" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -3137,7 +3137,11 @@
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>04-04-2025</t>
+        </is>
+      </c>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP109"/>
+  <dimension ref="A1:AQ109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +644,11 @@
           <t>Storage Incurred (Days)</t>
         </is>
       </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -794,6 +799,7 @@
       </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -940,6 +946,7 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1010,6 +1017,7 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1156,6 +1164,7 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1302,6 +1311,7 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1448,6 +1458,7 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1594,6 +1605,7 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1740,6 +1752,7 @@
       </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1878,6 +1891,7 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1948,6 +1962,7 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2086,6 +2101,7 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2228,6 +2244,7 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2366,6 +2383,7 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2508,6 +2526,7 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2654,6 +2673,7 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2800,6 +2820,7 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2870,6 +2891,7 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3004,6 +3026,7 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3146,6 +3169,7 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3296,6 +3320,7 @@
       </c>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3434,6 +3459,7 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3576,6 +3602,7 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3722,6 +3749,7 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3864,6 +3892,7 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4010,6 +4039,7 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4156,6 +4186,7 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4302,6 +4333,7 @@
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4448,6 +4480,7 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4518,6 +4551,7 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4588,6 +4622,7 @@
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4730,6 +4765,7 @@
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4872,6 +4908,7 @@
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5014,6 +5051,7 @@
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5164,6 +5202,7 @@
       </c>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5314,6 +5353,7 @@
       </c>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5384,6 +5424,7 @@
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5530,6 +5571,7 @@
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5676,6 +5718,7 @@
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5746,6 +5789,7 @@
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5816,6 +5860,7 @@
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5962,6 +6007,7 @@
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6108,6 +6154,7 @@
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6250,6 +6297,7 @@
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6396,6 +6444,7 @@
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6538,6 +6587,7 @@
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6680,6 +6730,7 @@
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6794,6 +6845,7 @@
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6936,6 +6988,7 @@
       </c>
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7052,6 +7105,7 @@
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7190,6 +7244,7 @@
       </c>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7324,6 +7379,7 @@
       </c>
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7438,6 +7494,7 @@
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7572,6 +7629,7 @@
       </c>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7642,6 +7700,7 @@
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7780,6 +7839,7 @@
       </c>
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7918,6 +7978,7 @@
       </c>
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8060,6 +8121,7 @@
       </c>
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8194,6 +8256,7 @@
       </c>
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8296,8 +8359,16 @@
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>08-04-2025</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
@@ -8312,6 +8383,7 @@
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8450,6 +8522,7 @@
       </c>
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8568,6 +8641,7 @@
       </c>
       <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8638,6 +8712,7 @@
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8706,6 +8781,7 @@
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8844,6 +8920,7 @@
       </c>
       <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8966,6 +9043,7 @@
       </c>
       <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9080,6 +9158,7 @@
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9194,6 +9273,7 @@
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9308,6 +9388,7 @@
       <c r="AN69" t="inlineStr"/>
       <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9422,6 +9503,7 @@
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9536,6 +9618,7 @@
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9646,6 +9729,7 @@
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9760,6 +9844,7 @@
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9874,6 +9959,7 @@
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
+      <c r="AQ74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9978,6 +10064,7 @@
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr"/>
+      <c r="AQ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10082,6 +10169,7 @@
       <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr"/>
+      <c r="AQ76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10196,6 +10284,7 @@
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr"/>
+      <c r="AQ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10310,6 +10399,7 @@
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr"/>
+      <c r="AQ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10414,6 +10504,7 @@
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10518,6 +10609,7 @@
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
+      <c r="AQ80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10622,6 +10714,7 @@
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
+      <c r="AQ81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10726,6 +10819,7 @@
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr"/>
+      <c r="AQ82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10830,6 +10924,7 @@
       <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr"/>
+      <c r="AQ83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10944,6 +11039,7 @@
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr"/>
+      <c r="AQ84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11044,6 +11140,7 @@
       <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr"/>
+      <c r="AQ85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11148,6 +11245,7 @@
       <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr"/>
+      <c r="AQ86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11262,6 +11360,7 @@
       <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr"/>
+      <c r="AQ87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11376,6 +11475,7 @@
       <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11490,6 +11590,7 @@
       <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr"/>
+      <c r="AQ89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11600,6 +11701,7 @@
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr"/>
+      <c r="AQ90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11704,6 +11806,7 @@
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr"/>
+      <c r="AQ91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11814,6 +11917,7 @@
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr"/>
+      <c r="AQ92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11924,6 +12028,7 @@
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr"/>
+      <c r="AQ93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11974,10 +12079,14 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>10-05-2025</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
+          <t>13-05-2025</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>07-04-2025</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
@@ -12024,6 +12133,7 @@
       <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr"/>
+      <c r="AQ94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12128,6 +12238,7 @@
       <c r="AN95" t="inlineStr"/>
       <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr"/>
+      <c r="AQ95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12232,6 +12343,7 @@
       <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr"/>
+      <c r="AQ96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12282,10 +12394,14 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>10-05-2025</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
+          <t>13-05-2025</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>07-04-2025</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
@@ -12338,6 +12454,7 @@
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr"/>
+      <c r="AQ97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12452,6 +12569,7 @@
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr"/>
+      <c r="AQ98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12498,10 +12616,14 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>10-05-2025</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
+          <t>13-05-2025</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>07-04-2025</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
@@ -12558,6 +12680,7 @@
       <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr"/>
+      <c r="AQ99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12642,6 +12765,7 @@
       <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr"/>
+      <c r="AQ100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12692,10 +12816,14 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>10-05-2025</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
+          <t>13-05-2025</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>07-04-2025</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
@@ -12742,6 +12870,7 @@
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr"/>
+      <c r="AQ101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12810,6 +12939,7 @@
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
+      <c r="AQ102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12860,10 +12990,14 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>10-05-2025</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
+          <t>13-05-2025</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>07-04-2025</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
@@ -12910,6 +13044,7 @@
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr"/>
+      <c r="AQ103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12960,10 +13095,14 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>10-05-2025</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
+          <t>13-05-2025</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>07-04-2025</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
@@ -13016,6 +13155,7 @@
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr"/>
+      <c r="AQ104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13110,6 +13250,7 @@
       <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr"/>
+      <c r="AQ105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13204,6 +13345,7 @@
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr"/>
+      <c r="AQ106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13272,6 +13414,7 @@
       <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr"/>
+      <c r="AQ107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13340,6 +13483,7 @@
       <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr"/>
+      <c r="AQ108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13408,6 +13552,7 @@
       <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr"/>
+      <c r="AQ109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\MSME Shipment Tracker\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849FA432-6A16-43AC-BA7C-422C8088158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="572">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -730,6 +724,9 @@
     <t>BOMM8960030</t>
   </si>
   <si>
+    <t>NAV/CHS/08383</t>
+  </si>
+  <si>
     <t>BOMM89600300</t>
   </si>
   <si>
@@ -1210,6 +1207,9 @@
     <t>TLLU4917648</t>
   </si>
   <si>
+    <t>HLBU1290378</t>
+  </si>
+  <si>
     <t>25-01-2025</t>
   </si>
   <si>
@@ -1345,7 +1345,7 @@
     <t>25-05-2025</t>
   </si>
   <si>
-    <t>10-05-2025</t>
+    <t>23-05-2025</t>
   </si>
   <si>
     <t>HMM (Hyundai Merchant Marine Co., Ltd.) (HDMU)</t>
@@ -1735,8 +1735,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1799,21 +1799,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1851,7 +1843,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1885,7 +1877,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1920,10 +1911,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2096,56 +2086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="60.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2287,79 +2235,79 @@
         <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AB2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AH2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AI2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AN2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2370,76 +2318,76 @@
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AA3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AB3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AH3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AI3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2450,76 +2398,76 @@
         <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X4">
         <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AB4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2530,76 +2478,76 @@
         <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AB5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2610,76 +2558,76 @@
         <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AB6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2690,76 +2638,76 @@
         <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X7">
         <v>157</v>
       </c>
       <c r="Z7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AA7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AB7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AH7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AI7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AL7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2770,76 +2718,76 @@
         <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AA8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AB8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AH8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AI8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AL8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2850,73 +2798,73 @@
         <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AA9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AB9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AH9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AI9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2927,70 +2875,70 @@
         <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S10" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T10" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AE10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AH10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AI10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AL10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3001,70 +2949,70 @@
         <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T11" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X11">
         <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AE11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AI11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AL11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3075,73 +3023,73 @@
         <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K12" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M12" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S12" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="X12">
         <v>24</v>
       </c>
       <c r="Z12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AA12" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AB12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AH12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AI12" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AL12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3152,70 +3100,70 @@
         <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J13" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L13" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N13" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q13" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T13" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X13">
         <v>20</v>
       </c>
       <c r="Z13" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AE13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH13" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AI13" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AL13" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3223,76 +3171,76 @@
         <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N14" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O14" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q14" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S14" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="T14" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="X14">
         <v>153</v>
       </c>
       <c r="Z14" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AB14" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AH14" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AI14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AL14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3303,76 +3251,76 @@
         <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J15" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L15" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O15" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S15" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="T15" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="X15">
         <v>77</v>
       </c>
       <c r="Z15" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AA15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AB15" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AI15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3383,76 +3331,76 @@
         <v>196</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N16" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O16" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P16" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S16" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="T16" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="X16">
         <v>5</v>
       </c>
       <c r="Z16" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AA16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AB16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AH16" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AI16" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AL16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3463,70 +3411,70 @@
         <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J17" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L17" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N17" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O17" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P17" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q17" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S17" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T17" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="X17">
         <v>150</v>
       </c>
       <c r="Z17" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AE17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AI17" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AL17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3537,76 +3485,76 @@
         <v>196</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J18" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K18" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L18" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M18" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N18" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O18" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P18" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q18" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S18" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="T18" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="X18">
         <v>142</v>
       </c>
       <c r="Z18" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA18" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AB18" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE18" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AH18" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AI18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3617,79 +3565,79 @@
         <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J19" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L19" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O19" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P19" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q19" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S19" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="T19" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="X19">
         <v>43</v>
       </c>
       <c r="Z19" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AA19" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH19" t="s">
         <v>555</v>
       </c>
-      <c r="AB19" t="s">
-        <v>559</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>415</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>553</v>
-      </c>
       <c r="AI19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AL19" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3700,73 +3648,76 @@
         <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K20" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M20" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N20" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P20" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q20" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S20" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T20" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="X20">
         <v>29</v>
       </c>
       <c r="Z20" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA20" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>560</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH20" t="s">
         <v>555</v>
       </c>
-      <c r="AB20" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>415</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>553</v>
-      </c>
       <c r="AI20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3777,73 +3728,73 @@
         <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N21" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O21" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P21" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="T21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="X21">
         <v>15</v>
       </c>
       <c r="Z21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AA21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB21" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AH21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AI21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3854,76 +3805,76 @@
         <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J22" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K22" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L22" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M22" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P22" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S22" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X22">
         <v>273</v>
       </c>
       <c r="Z22" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AA22" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AB22" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI22" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL22" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -3934,73 +3885,73 @@
         <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J23" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K23" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L23" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M23" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N23" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O23" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P23" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q23" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S23" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="T23" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="X23">
         <v>22</v>
       </c>
       <c r="Z23" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA23" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AB23" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AI23" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AL23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -4011,76 +3962,76 @@
         <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K24" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M24" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N24" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P24" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q24" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S24" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T24" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X24">
         <v>272</v>
       </c>
       <c r="Z24" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA24" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AB24" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI24" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL24" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -4091,76 +4042,76 @@
         <v>192</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N25" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q25" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S25" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T25" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X25">
         <v>122</v>
       </c>
       <c r="Z25" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AB25" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL25" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -4171,76 +4122,76 @@
         <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J26" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L26" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N26" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q26" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S26" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="T26" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="X26">
         <v>314</v>
       </c>
       <c r="Z26" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AA26" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AB26" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE26" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AH26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AI26" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL26" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -4251,76 +4202,76 @@
         <v>201</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K27" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M27" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N27" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P27" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q27" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S27" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T27" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X27">
         <v>370</v>
       </c>
       <c r="Z27" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA27" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AB27" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AH27" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AI27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL27" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -4331,73 +4282,73 @@
         <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J28" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L28" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O28" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P28" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q28" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S28" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="X28">
         <v>16</v>
       </c>
       <c r="Z28" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AA28" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>560</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH28" t="s">
         <v>421</v>
       </c>
-      <c r="AB28" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AI28" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL28" t="s">
         <v>349</v>
       </c>
-      <c r="AH28" t="s">
-        <v>419</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>349</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -4408,76 +4359,76 @@
         <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J29" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L29" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N29" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O29" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P29" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q29" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S29" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T29" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="X29">
         <v>220</v>
       </c>
       <c r="Z29" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AA29" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AB29" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH29" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AI29" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AL29" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -4488,73 +4439,73 @@
         <v>192</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J30" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L30" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N30" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O30" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S30" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="X30">
         <v>122</v>
       </c>
       <c r="Z30" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AA30" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AB30" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI30" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL30" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -4565,79 +4516,79 @@
         <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O31" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q31" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="T31" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="X31">
         <v>53</v>
       </c>
       <c r="Z31" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AB31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE31" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AH31" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI31" t="s">
         <v>353</v>
       </c>
-      <c r="AI31" t="s">
-        <v>352</v>
-      </c>
       <c r="AL31" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN31" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4648,79 +4599,79 @@
         <v>204</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J32" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K32" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L32" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M32" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N32" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O32" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P32" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q32" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S32" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="T32" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="X32">
         <v>53</v>
       </c>
       <c r="Z32" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AA32" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AB32" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE32" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AH32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI32" t="s">
         <v>353</v>
       </c>
-      <c r="AI32" t="s">
-        <v>352</v>
-      </c>
       <c r="AL32" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN32" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -4731,76 +4682,76 @@
         <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J33" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K33" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L33" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M33" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N33" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O33" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P33" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q33" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S33" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T33" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X33">
         <v>450</v>
       </c>
       <c r="Z33" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA33" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AB33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE33" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AH33" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AI33" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL33" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4811,76 +4762,76 @@
         <v>205</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J34" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L34" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N34" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O34" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q34" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S34" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T34" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X34">
         <v>152</v>
       </c>
       <c r="Z34" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AA34" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AB34" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AI34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL34" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -4891,76 +4842,76 @@
         <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J35" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K35" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L35" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M35" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N35" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O35" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P35" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q35" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S35" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="T35" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="X35">
         <v>414</v>
       </c>
       <c r="Z35" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA35" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AB35" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE35" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AH35" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL35" t="s">
         <v>352</v>
       </c>
-      <c r="AI35" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -4971,76 +4922,76 @@
         <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J36" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K36" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L36" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M36" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N36" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O36" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P36" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q36" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S36" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T36" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X36">
         <v>168</v>
       </c>
       <c r="Z36" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AA36" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AB36" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI36" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL36" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -5051,73 +5002,73 @@
         <v>196</v>
       </c>
       <c r="D37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I37" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J37" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K37" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L37" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M37" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N37" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O37" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P37" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q37" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S37" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="X37">
         <v>72</v>
       </c>
       <c r="Z37" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA37" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AB37" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE37" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL37" t="s">
         <v>415</v>
       </c>
-      <c r="AH37" t="s">
-        <v>425</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>351</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -5128,76 +5079,76 @@
         <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J38" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P38" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q38" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S38" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T38" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X38">
         <v>75</v>
       </c>
       <c r="Z38" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA38" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AB38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE38" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AH38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AI38" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AL38" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5208,73 +5159,73 @@
         <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H39" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J39" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O39" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P39" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q39" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S39" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T39" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="X39">
         <v>8</v>
       </c>
       <c r="Z39" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AA39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB39" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE39" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AH39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AI39" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -5285,73 +5236,73 @@
         <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I40" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J40" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O40" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P40" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q40" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S40" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="X40">
         <v>150</v>
       </c>
       <c r="Z40" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AA40" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AB40" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE40" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AH40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AI40" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AL40" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -5362,58 +5313,61 @@
         <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J41" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K41" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L41" t="s">
-        <v>404</v>
+        <v>406</v>
+      </c>
+      <c r="M41" t="s">
+        <v>426</v>
       </c>
       <c r="N41" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O41" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P41" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q41" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S41" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="T41" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="X41">
         <v>60</v>
       </c>
       <c r="AA41" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AB41" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -5424,73 +5378,76 @@
         <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K42" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N42" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O42" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P42" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q42" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S42" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T42" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="X42">
         <v>15</v>
       </c>
       <c r="AA42" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AB42" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE42" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI42" t="s">
         <v>355</v>
       </c>
-      <c r="AH42" t="s">
-        <v>352</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>354</v>
+      <c r="AL42" t="s">
+        <v>430</v>
       </c>
       <c r="AN42" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -5501,73 +5458,76 @@
         <v>210</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N43" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O43" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P43" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q43" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S43" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T43" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="X43">
         <v>15</v>
       </c>
       <c r="AA43" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB43" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE43" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI43" t="s">
         <v>355</v>
       </c>
-      <c r="AH43" t="s">
-        <v>352</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>354</v>
+      <c r="AL43" t="s">
+        <v>430</v>
       </c>
       <c r="AN43" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -5578,52 +5538,52 @@
         <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N44" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O44" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P44" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q44" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AE44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AH44" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -5634,76 +5594,76 @@
         <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M45" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N45" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O45" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P45" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q45" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S45" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T45" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X45">
         <v>71</v>
       </c>
       <c r="Z45" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AA45" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AB45" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE45" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI45" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL45" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN45" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -5714,76 +5674,76 @@
         <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J46" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K46" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L46" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M46" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N46" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O46" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P46" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q46" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S46" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T46" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X46">
         <v>71</v>
       </c>
       <c r="Z46" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AA46" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB46" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE46" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI46" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL46" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN46" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -5794,70 +5754,70 @@
         <v>213</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I47" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N47" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O47" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P47" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q47" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="S47" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="T47" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="X47">
         <v>160</v>
       </c>
       <c r="Z47" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AA47" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AB47" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AI47" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN47" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -5868,52 +5828,52 @@
         <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H48" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I48" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J48" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K48" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N48" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O48" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P48" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q48" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="S48" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="T48" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="X48">
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -5924,67 +5884,67 @@
         <v>215</v>
       </c>
       <c r="D49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H49" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J49" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N49" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O49" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P49" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q49" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="S49" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="T49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="X49">
         <v>59</v>
       </c>
       <c r="Z49" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AA49" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AB49" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AN49" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -5995,67 +5955,67 @@
         <v>215</v>
       </c>
       <c r="D50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I50" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J50" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L50" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M50" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N50" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O50" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P50" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q50" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="S50" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="T50" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="X50">
         <v>59</v>
       </c>
       <c r="Z50" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AA50" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB50" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AN50" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -6066,76 +6026,76 @@
         <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J51" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K51" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N51" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O51" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P51" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q51" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S51" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T51" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X51">
         <v>178</v>
       </c>
       <c r="Z51" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AA51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AB51" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AE51" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI51" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL51" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN51" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -6146,76 +6106,76 @@
         <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I52" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J52" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K52" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L52" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N52" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O52" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P52" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q52" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S52" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T52" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X52">
         <v>178</v>
       </c>
       <c r="Z52" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AA52" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AB52" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE52" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI52" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL52" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN52" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -6226,76 +6186,76 @@
         <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H53" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I53" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J53" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K53" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L53" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N53" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O53" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P53" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q53" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S53" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T53" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="X53">
         <v>266</v>
       </c>
       <c r="Z53" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AA53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB53" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE53" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AH53" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AI53" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AN53" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -6306,76 +6266,76 @@
         <v>212</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J54" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L54" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N54" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O54" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P54" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q54" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S54" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T54" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="X54">
         <v>266</v>
       </c>
       <c r="Z54" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AA54" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB54" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>414</v>
+      </c>
+      <c r="AI54" t="s">
         <v>559</v>
       </c>
-      <c r="AE54" t="s">
-        <v>428</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>412</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>557</v>
-      </c>
       <c r="AN54" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -6386,70 +6346,70 @@
         <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E55" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I55" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J55" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K55" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N55" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O55" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P55" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q55" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S55" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="X55">
         <v>160</v>
       </c>
       <c r="Z55" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AA55" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AB55" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE55" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN55" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -6460,64 +6420,64 @@
         <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E56" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F56" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J56" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L56" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N56" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O56" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P56" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q56" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S56" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T56" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="X56">
         <v>110</v>
       </c>
       <c r="AA56" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AB56" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AI56" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -6528,76 +6488,76 @@
         <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J57" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K57" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L57" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N57" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O57" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P57" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q57" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S57" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T57" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X57">
         <v>59</v>
       </c>
       <c r="Z57" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AA57" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AB57" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE57" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI57" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL57" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN57" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -6608,61 +6568,61 @@
         <v>217</v>
       </c>
       <c r="D58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J58" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K58" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L58" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N58" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P58" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q58" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S58" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="T58" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="X58">
         <v>35</v>
       </c>
       <c r="AA58" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB58" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AN58" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -6673,76 +6633,76 @@
         <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F59" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I59" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J59" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K59" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N59" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O59" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P59" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q59" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S59" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T59" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X59">
         <v>400</v>
       </c>
       <c r="Z59" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AA59" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AB59" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AE59" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI59" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN59" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -6753,61 +6713,61 @@
         <v>218</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I60" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J60" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L60" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N60" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O60" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P60" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q60" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S60" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="T60" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="X60">
         <v>160</v>
       </c>
       <c r="AI60" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN60" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -6818,55 +6778,55 @@
         <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I61" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J61" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K61" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L61" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M61" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N61" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O61" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P61" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q61" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S61" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T61" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X61">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -6877,55 +6837,55 @@
         <v>219</v>
       </c>
       <c r="D62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F62" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H62" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I62" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J62" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K62" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L62" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M62" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N62" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O62" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P62" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q62" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S62" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T62" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X62">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -6936,52 +6896,55 @@
         <v>220</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H63" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I63" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J63" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K63" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L63" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="M63" t="s">
+        <v>426</v>
       </c>
       <c r="N63" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O63" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P63" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q63" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S63" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="T63" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="X63">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -6992,61 +6955,61 @@
         <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F64" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J64" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K64" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N64" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O64" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P64" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q64" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="S64" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="T64" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="X64">
         <v>253</v>
       </c>
       <c r="AA64" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB64" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -7057,61 +7020,61 @@
         <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H65" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I65" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J65" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K65" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N65" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O65" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P65" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q65" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S65" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T65" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X65">
         <v>302</v>
       </c>
       <c r="AA65" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB65" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -7122,49 +7085,52 @@
         <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I66" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J66" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K66" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L66" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="M66" t="s">
+        <v>426</v>
       </c>
       <c r="N66" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O66" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P66" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q66" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S66" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="X66">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -7175,61 +7141,61 @@
         <v>219</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E67" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F67" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H67" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I67" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J67" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K67" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L67" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M67" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N67" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O67" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P67" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q67" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S67" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T67" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X67">
         <v>67</v>
       </c>
       <c r="AA67" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB67" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -7240,52 +7206,55 @@
         <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I68" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J68" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K68" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L68" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="M68" t="s">
+        <v>426</v>
       </c>
       <c r="N68" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O68" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P68" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q68" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S68" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T68" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="X68">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -7296,43 +7265,46 @@
         <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F69" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J69" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K69" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L69" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="M69" t="s">
+        <v>426</v>
       </c>
       <c r="N69" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O69" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P69" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q69" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -7343,43 +7315,43 @@
         <v>222</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I70" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J70" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K70" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L70" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N70" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O70" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P70" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q70" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -7390,52 +7362,52 @@
         <v>222</v>
       </c>
       <c r="D71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I71" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J71" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K71" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L71" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N71" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O71" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P71" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q71" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S71" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T71" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X71">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -7446,52 +7418,52 @@
         <v>222</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F72" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H72" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I72" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J72" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K72" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L72" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N72" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O72" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P72" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q72" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S72" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="T72" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="X72">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -7502,43 +7474,43 @@
         <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I73" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J73" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K73" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L73" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N73" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O73" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P73" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q73" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -7549,43 +7521,43 @@
         <v>222</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E74" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J74" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K74" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L74" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N74" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O74" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P74" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q74" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -7596,43 +7568,43 @@
         <v>223</v>
       </c>
       <c r="D75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I75" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J75" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K75" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L75" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N75" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O75" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P75" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q75" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -7643,43 +7615,43 @@
         <v>222</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E76" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F76" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I76" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J76" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K76" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L76" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N76" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O76" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P76" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q76" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -7690,43 +7662,43 @@
         <v>224</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F77" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I77" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J77" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K77" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L77" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N77" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O77" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P77" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q77" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
         <v>111</v>
       </c>
@@ -7737,52 +7709,52 @@
         <v>225</v>
       </c>
       <c r="D78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E78" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F78" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I78" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J78" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K78" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L78" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N78" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O78" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P78" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q78" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="S78" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="T78" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="X78">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
         <v>112</v>
       </c>
@@ -7793,40 +7765,40 @@
         <v>226</v>
       </c>
       <c r="D79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E79" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F79" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I79" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J79" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K79" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N79" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O79" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P79" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q79" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -7837,43 +7809,43 @@
         <v>227</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E80" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F80" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H80" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I80" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J80" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K80" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L80" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N80" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O80" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P80" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q80" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
         <v>114</v>
       </c>
@@ -7884,52 +7856,52 @@
         <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F81" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I81" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J81" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K81" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L81" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N81" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O81" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P81" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q81" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="S81" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="T81" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="X81">
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -7940,52 +7912,52 @@
         <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F82" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H82" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I82" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J82" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K82" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N82" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O82" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P82" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q82" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S82" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="T82" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="X82">
         <v>819</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
         <v>116</v>
       </c>
@@ -7996,52 +7968,52 @@
         <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E83" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F83" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H83" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J83" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K83" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N83" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O83" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P83" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q83" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S83" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="T83" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="X83">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -8052,49 +8024,49 @@
         <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E84" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I84" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J84" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K84" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N84" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O84" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P84" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q84" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S84" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T84" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X84">
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -8105,43 +8077,43 @@
         <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E85" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F85" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H85" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I85" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J85" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K85" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L85" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N85" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O85" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P85" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q85" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -8152,49 +8124,49 @@
         <v>226</v>
       </c>
       <c r="D86" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E86" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F86" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J86" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K86" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L86" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N86" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O86" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P86" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q86" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S86" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T86" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="X86">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -8205,49 +8177,49 @@
         <v>229</v>
       </c>
       <c r="D87" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E87" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F87" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H87" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I87" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J87" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K87" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L87" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N87" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O87" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P87" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q87" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S87" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="X87">
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -8258,43 +8230,43 @@
         <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H88" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I88" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J88" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K88" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L88" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N88" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O88" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P88" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q88" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -8305,43 +8277,43 @@
         <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H89" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I89" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J89" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K89" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L89" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N89" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O89" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P89" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q89" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -8352,43 +8324,43 @@
         <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E90" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H90" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I90" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K90" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N90" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O90" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P90" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q90" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -8399,49 +8371,49 @@
         <v>233</v>
       </c>
       <c r="D91" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E91" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H91" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J91" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K91" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L91" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N91" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O91" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P91" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q91" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S91" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="X91">
         <v>540</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -8452,52 +8424,52 @@
         <v>232</v>
       </c>
       <c r="D92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E92" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F92" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H92" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J92" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K92" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L92" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N92" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O92" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P92" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q92" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S92" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="T92" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="X92">
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -8508,49 +8480,49 @@
         <v>234</v>
       </c>
       <c r="D93" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E93" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F93" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I93" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J93" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K93" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L93" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N93" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O93" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P93" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q93" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S93" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="T93" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="X93">
         <v>617</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -8561,31 +8533,31 @@
         <v>235</v>
       </c>
       <c r="E94" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F94" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J94" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K94" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N94" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O94" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P94" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q94" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -8596,81 +8568,93 @@
         <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E95" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F95" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H95" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J95" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K95" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L95" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N95" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O95" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P95" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q95" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
         <v>129</v>
       </c>
       <c r="B96" t="s">
         <v>184</v>
       </c>
+      <c r="C96" t="s">
+        <v>236</v>
+      </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E96" t="s">
         <v>327</v>
       </c>
       <c r="F96" t="s">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="I96" t="s">
+        <v>397</v>
       </c>
       <c r="J96" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K96" t="s">
-        <v>441</v>
+        <v>443</v>
+      </c>
+      <c r="L96" t="s">
+        <v>420</v>
+      </c>
+      <c r="N96" t="s">
+        <v>446</v>
       </c>
       <c r="O96" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P96" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q96" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S96" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="X96">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -8681,43 +8665,43 @@
         <v>234</v>
       </c>
       <c r="D97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F97" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H97" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I97" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J97" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K97" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L97" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N97" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O97" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P97" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q97" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -8728,49 +8712,49 @@
         <v>233</v>
       </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E98" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F98" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H98" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I98" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J98" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K98" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L98" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N98" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O98" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P98" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q98" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S98" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="X98">
         <v>636</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -8778,40 +8762,40 @@
         <v>185</v>
       </c>
       <c r="E99" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F99" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J99" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K99" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N99" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O99" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P99" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q99" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S99" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T99" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="X99">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -8819,43 +8803,43 @@
         <v>157</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E100" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J100" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K100" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N100" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O100" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P100" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q100" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S100" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="T100" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="X100">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -8863,19 +8847,19 @@
         <v>186</v>
       </c>
       <c r="E101" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P101" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q101" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -8883,31 +8867,31 @@
         <v>187</v>
       </c>
       <c r="E102" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F102" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J102" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K102" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N102" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O102" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P102" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q102" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -8915,31 +8899,31 @@
         <v>156</v>
       </c>
       <c r="E103" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F103" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J103" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K103" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N103" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O103" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P103" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q103" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -8947,37 +8931,37 @@
         <v>188</v>
       </c>
       <c r="E104" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F104" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J104" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K104" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N104" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O104" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P104" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q104" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="S104" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="X104">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -8985,31 +8969,31 @@
         <v>155</v>
       </c>
       <c r="E105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F105" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J105" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K105" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N105" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O105" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P105" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q105" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -9017,34 +9001,34 @@
         <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F106" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J106" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K106" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N106" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O106" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P106" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q106" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -9052,19 +9036,19 @@
         <v>153</v>
       </c>
       <c r="E107" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P107" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q107" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -9072,19 +9056,19 @@
         <v>190</v>
       </c>
       <c r="E108" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F108" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P108" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q108" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -9092,19 +9076,19 @@
         <v>169</v>
       </c>
       <c r="E109" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F109" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P109" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q109" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -9112,19 +9096,19 @@
         <v>163</v>
       </c>
       <c r="E110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P110" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q110" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -9132,16 +9116,16 @@
         <v>169</v>
       </c>
       <c r="E111" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F111" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P111" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q111" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="577">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -145,6 +145,12 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pickup type</t>
+  </si>
+  <si>
     <t>2501LCLCMM05850007</t>
   </si>
   <si>
@@ -451,6 +457,9 @@
     <t>2504LCLCMM06590015</t>
   </si>
   <si>
+    <t>2504LCLCMM05920005</t>
+  </si>
+  <si>
     <t>METAMASH PRIVATE LIMITED</t>
   </si>
   <si>
@@ -589,6 +598,9 @@
     <t>L MAX B EXPORTS</t>
   </si>
   <si>
+    <t>FOODSOLVE PRIVATE LIMITED</t>
+  </si>
+  <si>
     <t>BOMM79673700</t>
   </si>
   <si>
@@ -1090,6 +1102,9 @@
     <t>02-04-2025</t>
   </si>
   <si>
+    <t>11-04-2025</t>
+  </si>
+  <si>
     <t>HMMU6222330</t>
   </si>
   <si>
@@ -1309,9 +1324,6 @@
     <t>12-04-2025</t>
   </si>
   <si>
-    <t>11-04-2025</t>
-  </si>
-  <si>
     <t>19-04-2025</t>
   </si>
   <si>
@@ -1694,6 +1706,9 @@
   </si>
   <si>
     <t>09-04-2025</t>
+  </si>
+  <si>
+    <t>15-04-2025</t>
   </si>
   <si>
     <t>Approve</t>
@@ -2087,13 +2102,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ111"/>
+  <dimension ref="A1:AS112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2223,3651 +2238,3657 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="J2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="T2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AA2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AB2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE2" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AH2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AI2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AL2" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AN2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="J3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L3" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T3" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AA3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="AB3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE3" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AH3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AI3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AL3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J4" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L4" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X4">
         <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AA4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AB4" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI4" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I5" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J5" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L5" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N5" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P5" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AA5" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AB5" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI5" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I6" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J6" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K6" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L6" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M6" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N6" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q6" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AA6" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AB6" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI6" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X7">
         <v>157</v>
       </c>
       <c r="Z7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AA7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AB7" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH7" t="s">
         <v>560</v>
       </c>
-      <c r="AE7" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>556</v>
-      </c>
       <c r="AI7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AL7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J8" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L8" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N8" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O8" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T8" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AA8" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="AB8" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AH8" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AI8" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AL8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="J9" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L9" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N9" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O9" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P9" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AA9" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AB9" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE9" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AH9" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AI9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AL9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="J10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K10" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M10" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="N10" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P10" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q10" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S10" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="T10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AE10" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AH10" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AI10" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AL10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J11" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L11" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N11" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S11" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="T11" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X11">
         <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AE11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AH11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" t="s">
+        <v>334</v>
+      </c>
+      <c r="H12" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" t="s">
         <v>408</v>
       </c>
-      <c r="AI11" t="s">
-        <v>422</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H12" t="s">
-        <v>336</v>
-      </c>
-      <c r="I12" t="s">
-        <v>363</v>
-      </c>
-      <c r="J12" t="s">
-        <v>403</v>
-      </c>
       <c r="K12" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L12" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M12" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N12" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O12" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P12" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q12" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S12" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="X12">
         <v>24</v>
       </c>
       <c r="Z12" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AA12" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AB12" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE12" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AH12" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="AI12" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AL12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I13" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J13" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L13" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N13" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O13" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P13" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q13" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T13" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X13">
         <v>20</v>
       </c>
       <c r="Z13" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AE13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>570</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" t="s">
         <v>341</v>
       </c>
-      <c r="AH13" t="s">
-        <v>565</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>422</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" t="s">
-        <v>326</v>
-      </c>
-      <c r="F14" t="s">
-        <v>329</v>
-      </c>
-      <c r="H14" t="s">
-        <v>337</v>
-      </c>
       <c r="I14" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="J14" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K14" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L14" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M14" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="N14" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O14" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P14" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q14" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="S14" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="T14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="X14">
         <v>153</v>
       </c>
       <c r="Z14" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA14" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AB14" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE14" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AH14" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AI14" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="AL14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H15" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I15" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="J15" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K15" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L15" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M15" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N15" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O15" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P15" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q15" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S15" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="T15" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="X15">
         <v>77</v>
       </c>
       <c r="Z15" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AA15" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AB15" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AI15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AL15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J16" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K16" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L16" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M16" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N16" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O16" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P16" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q16" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S16" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="T16" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X16">
         <v>5</v>
       </c>
       <c r="Z16" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AA16" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB16" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE16" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AH16" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AI16" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AL16" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F17" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H17" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I17" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="J17" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K17" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L17" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M17" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N17" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O17" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P17" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q17" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S17" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="T17" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X17">
         <v>150</v>
       </c>
       <c r="Z17" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AE17" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AH17" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AI17" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AL17" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H18" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I18" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J18" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K18" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L18" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M18" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N18" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O18" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P18" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q18" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S18" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="T18" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="X18">
         <v>142</v>
       </c>
       <c r="Z18" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA18" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AB18" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE18" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AH18" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AI18" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AL18" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F19" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I19" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J19" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K19" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L19" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M19" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N19" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O19" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P19" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q19" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S19" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="T19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X19">
         <v>43</v>
       </c>
       <c r="Z19" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AA19" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AB19" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE19" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AH19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AI19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AL19" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AN19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F20" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I20" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J20" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K20" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L20" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M20" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N20" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O20" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P20" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q20" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S20" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="T20" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="X20">
         <v>29</v>
       </c>
       <c r="Z20" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA20" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AB20" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE20" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AH20" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AI20" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AL20" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H21" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I21" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J21" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K21" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L21" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M21" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N21" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O21" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P21" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q21" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S21" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="T21" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="X21">
         <v>15</v>
       </c>
       <c r="Z21" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA21" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AB21" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE21" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AH21" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AI21" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F22" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H22" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I22" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J22" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K22" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L22" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M22" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N22" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O22" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P22" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S22" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T22" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X22">
         <v>273</v>
       </c>
       <c r="Z22" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AA22" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AB22" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE22" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH22" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI22" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL22" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F23" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I23" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J23" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K23" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L23" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M23" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O23" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P23" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q23" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S23" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="T23" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="X23">
         <v>22</v>
       </c>
       <c r="Z23" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AA23" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AB23" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE23" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AI23" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AL23" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H24" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I24" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J24" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K24" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L24" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M24" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N24" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O24" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P24" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q24" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S24" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T24" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X24">
         <v>272</v>
       </c>
       <c r="Z24" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AA24" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AB24" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE24" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH24" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI24" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL24" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H25" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I25" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J25" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K25" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L25" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M25" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N25" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O25" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P25" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q25" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S25" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T25" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X25">
         <v>122</v>
       </c>
       <c r="Z25" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AA25" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AB25" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE25" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH25" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI25" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL25" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E26" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F26" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H26" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I26" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="J26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K26" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L26" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M26" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N26" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O26" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P26" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q26" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S26" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T26" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X26">
         <v>314</v>
       </c>
       <c r="Z26" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AA26" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AB26" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE26" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AH26" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AI26" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL26" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F27" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I27" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="J27" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K27" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L27" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M27" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N27" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O27" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P27" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q27" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S27" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T27" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X27">
         <v>370</v>
       </c>
       <c r="Z27" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA27" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AB27" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH27" t="s">
         <v>561</v>
       </c>
-      <c r="AE27" t="s">
-        <v>414</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>557</v>
-      </c>
       <c r="AI27" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AL27" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E28" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F28" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I28" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="J28" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K28" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L28" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M28" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N28" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O28" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P28" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q28" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S28" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="X28">
         <v>16</v>
       </c>
       <c r="Z28" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AA28" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AB28" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE28" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AH28" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AI28" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AL28" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E29" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F29" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I29" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="J29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K29" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M29" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N29" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O29" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P29" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q29" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S29" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="T29" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X29">
         <v>220</v>
       </c>
       <c r="Z29" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AA29" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AB29" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE29" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AH29" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AI29" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AL29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F30" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H30" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I30" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J30" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K30" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L30" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M30" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N30" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O30" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P30" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q30" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S30" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="X30">
         <v>122</v>
       </c>
       <c r="Z30" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AA30" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AB30" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE30" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH30" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI30" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL30" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F31" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H31" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I31" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J31" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K31" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L31" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M31" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="N31" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O31" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P31" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q31" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="S31" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T31" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="X31">
         <v>53</v>
       </c>
       <c r="Z31" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA31" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB31" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE31" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AH31" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AI31" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AL31" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AN31" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F32" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I32" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J32" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K32" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L32" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M32" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="N32" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O32" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P32" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q32" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="S32" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T32" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="X32">
         <v>53</v>
       </c>
       <c r="Z32" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AA32" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AB32" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE32" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AH32" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AI32" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AL32" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AN32" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F33" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I33" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="J33" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K33" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L33" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M33" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N33" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O33" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P33" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q33" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S33" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T33" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X33">
         <v>450</v>
       </c>
       <c r="Z33" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA33" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AB33" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH33" t="s">
         <v>561</v>
       </c>
-      <c r="AE33" t="s">
-        <v>414</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>557</v>
-      </c>
       <c r="AI33" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AL33" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E34" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H34" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I34" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="J34" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K34" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M34" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N34" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O34" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P34" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q34" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S34" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T34" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X34">
         <v>152</v>
       </c>
       <c r="Z34" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AA34" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AB34" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL34" t="s">
         <v>561</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>350</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E35" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F35" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I35" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J35" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K35" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L35" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M35" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N35" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O35" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P35" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q35" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S35" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="T35" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="X35">
         <v>414</v>
       </c>
       <c r="Z35" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA35" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AB35" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE35" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AH35" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI35" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AL35" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H36" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I36" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J36" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K36" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L36" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M36" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N36" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O36" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P36" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q36" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S36" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T36" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X36">
         <v>168</v>
       </c>
       <c r="Z36" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AA36" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AB36" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE36" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH36" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI36" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL36" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E37" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H37" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I37" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J37" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K37" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L37" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M37" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N37" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O37" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P37" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q37" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S37" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="X37">
         <v>72</v>
       </c>
       <c r="Z37" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA37" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AB37" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE37" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AH37" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AI37" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AL37" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H38" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I38" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J38" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L38" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M38" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N38" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O38" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P38" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q38" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S38" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T38" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X38">
         <v>75</v>
       </c>
       <c r="Z38" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA38" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AB38" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE38" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AH38" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AI38" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AL38" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H39" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="J39" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M39" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O39" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P39" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q39" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S39" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="T39" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="X39">
         <v>8</v>
       </c>
       <c r="Z39" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AA39" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AB39" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE39" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AH39" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AI39" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E40" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F40" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H40" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J40" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M40" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N40" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O40" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P40" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q40" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S40" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="X40">
         <v>150</v>
       </c>
       <c r="Z40" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AA40" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="AB40" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE40" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AH40" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AI40" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AL40" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E41" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H41" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I41" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K41" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L41" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="N41" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O41" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P41" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q41" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="S41" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="T41" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="X41">
         <v>60</v>
       </c>
       <c r="AA41" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="AB41" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F42" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H42" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K42" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M42" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="N42" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O42" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P42" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q42" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S42" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="T42" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="X42">
         <v>15</v>
       </c>
       <c r="AA42" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AB42" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE42" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AH42" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI42" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AL42" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AN42" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D43" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E43" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H43" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I43" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="J43" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L43" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="N43" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O43" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P43" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q43" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S43" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="T43" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="X43">
         <v>15</v>
       </c>
       <c r="AA43" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB43" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE43" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AH43" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI43" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AL43" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AN43" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E44" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F44" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H44" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M44" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N44" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O44" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P44" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q44" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AE44" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AH44" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E45" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F45" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H45" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J45" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K45" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L45" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M45" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N45" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O45" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P45" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q45" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S45" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T45" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X45">
         <v>71</v>
       </c>
       <c r="Z45" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AA45" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AB45" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE45" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AI45" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AL45" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AN45" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E46" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H46" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J46" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K46" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L46" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M46" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N46" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O46" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P46" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q46" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S46" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T46" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X46">
         <v>71</v>
       </c>
       <c r="Z46" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AA46" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB46" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE46" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AI46" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AL46" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AN46" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F47" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H47" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J47" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K47" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M47" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N47" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O47" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P47" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q47" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S47" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="T47" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="X47">
         <v>160</v>
       </c>
       <c r="Z47" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AA47" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="AB47" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AI47" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="AN47" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E48" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F48" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H48" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I48" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="N48" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O48" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P48" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q48" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S48" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="T48" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="X48">
         <v>344</v>
@@ -5875,952 +5896,952 @@
     </row>
     <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F49" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H49" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I49" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J49" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K49" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M49" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N49" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O49" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P49" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q49" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S49" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="T49" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="X49">
         <v>59</v>
       </c>
       <c r="Z49" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AA49" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="AB49" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AN49" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E50" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F50" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H50" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I50" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J50" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K50" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L50" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N50" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O50" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P50" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q50" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S50" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="T50" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="X50">
         <v>59</v>
       </c>
       <c r="Z50" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AA50" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB50" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AN50" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D51" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E51" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F51" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H51" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I51" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J51" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K51" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L51" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M51" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N51" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O51" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P51" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q51" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S51" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T51" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X51">
         <v>178</v>
       </c>
       <c r="Z51" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA51" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AB51" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AE51" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AI51" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AL51" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AN51" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E52" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F52" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H52" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I52" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J52" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K52" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N52" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O52" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P52" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q52" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S52" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T52" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X52">
         <v>178</v>
       </c>
       <c r="Z52" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA52" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AB52" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE52" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AI52" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AL52" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AN52" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F53" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H53" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I53" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J53" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K53" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L53" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N53" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O53" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P53" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q53" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S53" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="T53" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X53">
         <v>266</v>
       </c>
       <c r="Z53" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AA53" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AB53" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AE53" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AH53" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AI53" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AN53" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E54" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F54" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H54" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J54" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O54" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P54" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q54" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S54" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="T54" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X54">
         <v>266</v>
       </c>
       <c r="Z54" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AA54" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB54" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE54" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AH54" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AI54" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AN54" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D55" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F55" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H55" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I55" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K55" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N55" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O55" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P55" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q55" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S55" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="X55">
         <v>160</v>
       </c>
       <c r="Z55" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA55" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AB55" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE55" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AI55" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AN55" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E56" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F56" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H56" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I56" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J56" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N56" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O56" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P56" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q56" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="S56" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="T56" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="X56">
         <v>110</v>
       </c>
       <c r="AA56" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AB56" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AI56" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E57" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F57" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H57" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I57" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J57" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L57" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M57" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N57" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O57" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P57" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q57" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S57" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T57" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X57">
         <v>59</v>
       </c>
       <c r="Z57" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA57" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AB57" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE57" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AI57" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AN57" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E58" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F58" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H58" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I58" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="J58" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K58" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="N58" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O58" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P58" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q58" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="S58" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="T58" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="X58">
         <v>35</v>
       </c>
       <c r="AA58" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB58" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AN58" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E59" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F59" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H59" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I59" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J59" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K59" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M59" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N59" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P59" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q59" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S59" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T59" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X59">
         <v>400</v>
       </c>
       <c r="Z59" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA59" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AB59" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AE59" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AI59" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AL59" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AN59" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F60" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H60" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I60" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="J60" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K60" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L60" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N60" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O60" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P60" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q60" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S60" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T60" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X60">
         <v>160</v>
       </c>
       <c r="AI60" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AN60" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E61" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F61" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H61" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I61" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J61" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K61" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M61" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="N61" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O61" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P61" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q61" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S61" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T61" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X61">
         <v>110</v>
@@ -6828,58 +6849,58 @@
     </row>
     <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E62" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F62" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H62" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I62" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J62" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K62" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L62" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M62" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="N62" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O62" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P62" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q62" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S62" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T62" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X62">
         <v>218</v>
@@ -6887,58 +6908,58 @@
     </row>
     <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D63" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E63" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F63" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H63" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I63" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J63" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K63" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L63" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M63" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="N63" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O63" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P63" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q63" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S63" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="T63" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="X63">
         <v>187</v>
@@ -6946,185 +6967,185 @@
     </row>
     <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E64" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H64" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I64" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="J64" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K64" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="L64" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M64" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="N64" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O64" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P64" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q64" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S64" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="T64" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="X64">
         <v>253</v>
       </c>
       <c r="AA64" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB64" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E65" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F65" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H65" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I65" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J65" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K65" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M65" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="N65" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O65" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P65" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q65" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S65" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T65" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X65">
         <v>302</v>
       </c>
       <c r="AA65" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB65" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F66" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H66" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I66" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J66" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K66" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M66" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="N66" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O66" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P66" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q66" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S66" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="X66">
         <v>203</v>
@@ -7132,276 +7153,282 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E67" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F67" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H67" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I67" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J67" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K67" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L67" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M67" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="N67" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O67" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P67" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q67" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S67" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T67" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X67">
         <v>67</v>
       </c>
       <c r="AA67" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB67" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D68" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E68" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F68" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H68" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I68" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J68" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K68" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L68" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M68" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="N68" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O68" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P68" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q68" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S68" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="T68" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X68">
         <v>219</v>
       </c>
+      <c r="AA68" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D69" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F69" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H69" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I69" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J69" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K69" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L69" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M69" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="N69" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O69" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P69" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q69" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F70" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H70" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I70" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="J70" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K70" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L70" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N70" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O70" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P70" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q70" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E71" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F71" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H71" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I71" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="J71" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K71" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N71" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O71" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P71" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q71" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S71" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T71" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X71">
         <v>108</v>
@@ -7409,55 +7436,55 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D72" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F72" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H72" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I72" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="J72" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K72" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L72" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N72" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O72" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P72" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q72" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S72" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="T72" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="X72">
         <v>120</v>
@@ -7465,290 +7492,290 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E73" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F73" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H73" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I73" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="J73" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K73" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L73" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N73" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O73" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P73" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q73" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E74" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H74" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I74" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="J74" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K74" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L74" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N74" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O74" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P74" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q74" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E75" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F75" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H75" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I75" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="J75" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K75" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L75" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N75" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O75" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P75" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q75" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E76" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F76" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H76" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I76" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="J76" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K76" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L76" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N76" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O76" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P76" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q76" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F77" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I77" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="J77" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K77" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L77" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N77" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O77" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P77" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q77" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E78" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F78" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H78" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I78" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="J78" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K78" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="N78" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O78" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P78" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q78" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S78" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="T78" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="X78">
         <v>14</v>
@@ -7756,146 +7783,146 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E79" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F79" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I79" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J79" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K79" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L79" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N79" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O79" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P79" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q79" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E80" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F80" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H80" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I80" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="J80" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K80" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L80" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="N80" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O80" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P80" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q80" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F81" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H81" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I81" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="J81" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K81" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L81" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N81" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O81" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P81" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q81" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S81" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="T81" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="X81">
         <v>34</v>
@@ -7903,55 +7930,55 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E82" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F82" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H82" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I82" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J82" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K82" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L82" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N82" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O82" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P82" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q82" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S82" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T82" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X82">
         <v>819</v>
@@ -7959,55 +7986,55 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D83" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E83" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F83" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H83" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I83" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J83" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K83" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L83" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N83" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O83" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P83" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q83" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S83" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="T83" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="X83">
         <v>34</v>
@@ -8015,52 +8042,52 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E84" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F84" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I84" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J84" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K84" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L84" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N84" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O84" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P84" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q84" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S84" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T84" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X84">
         <v>198</v>
@@ -8068,99 +8095,99 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E85" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H85" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I85" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J85" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K85" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L85" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N85" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O85" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P85" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q85" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E86" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F86" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I86" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J86" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K86" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L86" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N86" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O86" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P86" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q86" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S86" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T86" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X86">
         <v>210</v>
@@ -8168,52 +8195,52 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E87" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F87" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H87" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I87" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J87" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K87" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L87" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N87" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O87" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P87" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q87" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S87" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="X87">
         <v>211</v>
@@ -8221,193 +8248,193 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D88" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E88" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F88" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H88" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I88" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="J88" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K88" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L88" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N88" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O88" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P88" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q88" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E89" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F89" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H89" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I89" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J89" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K89" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L89" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="N89" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O89" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P89" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q89" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F90" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H90" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I90" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="J90" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K90" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L90" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N90" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O90" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P90" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q90" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D91" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E91" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F91" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H91" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I91" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="J91" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K91" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L91" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N91" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O91" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P91" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q91" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S91" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="X91">
         <v>540</v>
@@ -8415,55 +8442,55 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F92" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H92" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I92" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="J92" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K92" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L92" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N92" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O92" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P92" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q92" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S92" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T92" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X92">
         <v>59</v>
@@ -8471,52 +8498,52 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D93" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E93" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F93" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I93" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J93" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K93" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L93" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N93" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O93" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P93" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q93" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S93" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T93" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X93">
         <v>617</v>
@@ -8524,131 +8551,134 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E94" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F94" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J94" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K94" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N94" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O94" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P94" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q94" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E95" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F95" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H95" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I95" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J95" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K95" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L95" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N95" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O95" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P95" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q95" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D96" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E96" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F96" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="H96" t="s">
+        <v>362</v>
       </c>
       <c r="I96" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="J96" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K96" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L96" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="N96" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O96" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P96" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q96" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="S96" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="X96">
         <v>11</v>
@@ -8656,99 +8686,99 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C97" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E97" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F97" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H97" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I97" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J97" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K97" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L97" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N97" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O97" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P97" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q97" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E98" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F98" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H98" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I98" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="J98" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K98" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L98" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N98" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O98" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P98" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q98" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S98" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="X98">
         <v>636</v>
@@ -8756,40 +8786,40 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E99" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F99" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J99" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K99" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N99" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O99" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P99" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q99" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S99" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="T99" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="X99">
         <v>30</v>
@@ -8797,43 +8827,43 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E100" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F100" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J100" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K100" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N100" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O100" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P100" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q100" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="S100" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="T100" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="X100">
         <v>42</v>
@@ -8841,121 +8871,121 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E101" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F101" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P101" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q101" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E102" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F102" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J102" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K102" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N102" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O102" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P102" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q102" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E103" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F103" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J103" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K103" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N103" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O103" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P103" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q103" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F104" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J104" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K104" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N104" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O104" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P104" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q104" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="S104" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="X104">
         <v>10</v>
@@ -8963,169 +8993,189 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E105" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F105" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J105" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K105" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N105" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O105" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P105" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q105" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E106" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F106" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J106" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K106" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N106" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O106" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P106" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q106" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F107" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P107" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q107" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E108" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F108" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P108" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q108" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E109" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F109" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P109" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q109" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E110" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F110" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P110" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q110" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E111" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F111" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P111" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q111" t="s">
-        <v>484</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
+      <c r="A112" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+      <c r="E112" t="s">
+        <v>332</v>
+      </c>
+      <c r="F112" t="s">
+        <v>333</v>
+      </c>
+      <c r="P112" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="582">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -994,6 +994,9 @@
     <t>PLE2504B0258</t>
   </si>
   <si>
+    <t>PLE2504B0279</t>
+  </si>
+  <si>
     <t>PLE2504B0259</t>
   </si>
   <si>
@@ -1006,6 +1009,15 @@
     <t>PLE2504B0263</t>
   </si>
   <si>
+    <t>PLE2504B0280</t>
+  </si>
+  <si>
+    <t>PLE2504B0281</t>
+  </si>
+  <si>
+    <t>PLE2504B0285</t>
+  </si>
+  <si>
     <t>ARCHIVED</t>
   </si>
   <si>
@@ -1733,6 +1745,9 @@
   </si>
   <si>
     <t>07-03-2025</t>
+  </si>
+  <si>
+    <t>16-04-2025</t>
   </si>
   <si>
     <t>61 PKGS 4 PALLETS GOT DELIVERED</t>
@@ -2259,73 +2274,73 @@
         <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="T2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AA2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AB2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AH2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AI2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AL2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AN2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2342,70 +2357,70 @@
         <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O3" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T3" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AA3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AB3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AH3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AI3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AL3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2422,70 +2437,70 @@
         <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X4">
         <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AA4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AB4" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AH4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AL4" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -2502,70 +2517,70 @@
         <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P5" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AA5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AB5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AH5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AL5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -2582,70 +2597,70 @@
         <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K6" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M6" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O6" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P6" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S6" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T6" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AA6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AI6" t="s">
         <v>432</v>
       </c>
-      <c r="AB6" t="s">
-        <v>566</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>428</v>
-      </c>
       <c r="AL6" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -2662,70 +2677,70 @@
         <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="I7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="J7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X7">
         <v>157</v>
       </c>
       <c r="Z7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AA7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AB7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AH7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AI7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AL7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -2742,70 +2757,70 @@
         <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="I8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="J8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N8" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P8" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q8" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T8" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AA8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AB8" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AI8" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AL8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2822,67 +2837,67 @@
         <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I9" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J9" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K9" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L9" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M9" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N9" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P9" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S9" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA9" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AB9" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE9" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AH9" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AI9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AL9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2899,64 +2914,64 @@
         <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F10" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="N10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P10" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="T10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AE10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AH10" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AI10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AL10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2973,64 +2988,64 @@
         <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J11" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K11" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L11" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M11" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P11" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S11" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="T11" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X11">
         <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AE11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH11" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AI11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3047,67 +3062,67 @@
         <v>249</v>
       </c>
       <c r="E12" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H12" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I12" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K12" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M12" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N12" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O12" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P12" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q12" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S12" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="X12">
         <v>24</v>
       </c>
       <c r="Z12" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AA12" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AB12" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE12" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AH12" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AI12" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AL12" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -3124,64 +3139,64 @@
         <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I13" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N13" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O13" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P13" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q13" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X13">
         <v>20</v>
       </c>
       <c r="Z13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AE13" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH13" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AI13" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL13" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3195,70 +3210,70 @@
         <v>251</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F14" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="J14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K14" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M14" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N14" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O14" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P14" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q14" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S14" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="T14" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="X14">
         <v>153</v>
       </c>
       <c r="Z14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA14" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AB14" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE14" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AH14" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AI14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AL14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -3275,70 +3290,70 @@
         <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F15" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H15" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="I15" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="J15" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K15" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M15" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N15" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O15" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q15" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S15" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="T15" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="X15">
         <v>77</v>
       </c>
       <c r="Z15" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AA15" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AB15" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE15" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AH15" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI15" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AL15" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3355,70 +3370,70 @@
         <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F16" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H16" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J16" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K16" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L16" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M16" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N16" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O16" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P16" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q16" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S16" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="T16" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="X16">
         <v>5</v>
       </c>
       <c r="Z16" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AA16" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AB16" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE16" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AH16" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AI16" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AL16" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -3435,64 +3450,64 @@
         <v>254</v>
       </c>
       <c r="E17" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F17" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H17" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J17" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K17" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L17" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M17" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N17" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O17" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P17" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q17" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T17" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X17">
         <v>150</v>
       </c>
       <c r="Z17" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AE17" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AH17" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AI17" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AL17" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -3509,70 +3524,70 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I18" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J18" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K18" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L18" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M18" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N18" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O18" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P18" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q18" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S18" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="T18" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="X18">
         <v>142</v>
       </c>
       <c r="Z18" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA18" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AB18" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE18" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AH18" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AI18" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AL18" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -3589,73 +3604,73 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H19" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I19" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J19" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K19" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L19" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M19" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N19" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O19" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P19" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q19" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S19" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="T19" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="X19">
         <v>43</v>
       </c>
       <c r="Z19" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AA19" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AB19" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AH19" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AI19" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AL19" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AN19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -3672,70 +3687,70 @@
         <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F20" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I20" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J20" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K20" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L20" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M20" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N20" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O20" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P20" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q20" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S20" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="T20" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X20">
         <v>29</v>
       </c>
       <c r="Z20" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA20" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AB20" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE20" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AH20" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AI20" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AL20" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3752,67 +3767,67 @@
         <v>258</v>
       </c>
       <c r="E21" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J21" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K21" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L21" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M21" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N21" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O21" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P21" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q21" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S21" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="T21" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="X21">
         <v>15</v>
       </c>
       <c r="Z21" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AA21" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AB21" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE21" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AH21" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AI21" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -3829,70 +3844,70 @@
         <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H22" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I22" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J22" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K22" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L22" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M22" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N22" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O22" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P22" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q22" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S22" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T22" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X22">
         <v>273</v>
       </c>
       <c r="Z22" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AA22" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AB22" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE22" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AH22" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI22" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AL22" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3909,67 +3924,67 @@
         <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F23" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H23" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I23" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="J23" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K23" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L23" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M23" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N23" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O23" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P23" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q23" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S23" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T23" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="X23">
         <v>22</v>
       </c>
       <c r="Z23" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AA23" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AB23" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE23" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AI23" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AL23" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3986,70 +4001,70 @@
         <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F24" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H24" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I24" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J24" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K24" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L24" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M24" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N24" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O24" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q24" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S24" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T24" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X24">
         <v>272</v>
       </c>
       <c r="Z24" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AA24" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AB24" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE24" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AH24" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI24" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AL24" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -4066,70 +4081,70 @@
         <v>262</v>
       </c>
       <c r="E25" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H25" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I25" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J25" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K25" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L25" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M25" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N25" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O25" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P25" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q25" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S25" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T25" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X25">
         <v>122</v>
       </c>
       <c r="Z25" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AA25" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AB25" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE25" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AH25" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI25" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AL25" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -4146,70 +4161,70 @@
         <v>263</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F26" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H26" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I26" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J26" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K26" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L26" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M26" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N26" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O26" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P26" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q26" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S26" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="T26" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="X26">
         <v>314</v>
       </c>
       <c r="Z26" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AA26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AB26" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE26" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AH26" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AI26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AL26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -4226,70 +4241,70 @@
         <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F27" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H27" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I27" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J27" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K27" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L27" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M27" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N27" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O27" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P27" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q27" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S27" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T27" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X27">
         <v>370</v>
       </c>
       <c r="Z27" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA27" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AB27" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AH27" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AI27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AL27" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -4306,67 +4321,67 @@
         <v>265</v>
       </c>
       <c r="E28" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F28" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H28" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I28" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="J28" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K28" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L28" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M28" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N28" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O28" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P28" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q28" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S28" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="X28">
         <v>16</v>
       </c>
       <c r="Z28" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AA28" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AB28" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE28" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AH28" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AI28" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AL28" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -4383,70 +4398,70 @@
         <v>266</v>
       </c>
       <c r="E29" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F29" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I29" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="J29" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K29" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L29" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M29" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N29" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O29" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P29" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q29" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S29" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T29" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X29">
         <v>220</v>
       </c>
       <c r="Z29" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AA29" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AB29" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE29" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AH29" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AI29" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AL29" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -4463,67 +4478,67 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F30" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H30" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I30" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J30" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K30" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L30" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M30" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N30" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O30" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P30" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q30" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S30" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="X30">
         <v>122</v>
       </c>
       <c r="Z30" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AA30" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AB30" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE30" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AH30" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI30" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AL30" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -4540,73 +4555,73 @@
         <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F31" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H31" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I31" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J31" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K31" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L31" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M31" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N31" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O31" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P31" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q31" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S31" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="T31" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="X31">
         <v>53</v>
       </c>
       <c r="Z31" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA31" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AB31" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE31" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AH31" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AI31" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AL31" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AN31" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -4623,73 +4638,73 @@
         <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F32" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H32" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I32" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J32" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K32" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L32" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M32" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N32" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O32" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P32" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q32" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S32" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="T32" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="X32">
         <v>53</v>
       </c>
       <c r="Z32" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AA32" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AB32" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE32" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AH32" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AI32" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AL32" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AN32" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -4706,70 +4721,70 @@
         <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F33" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H33" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I33" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J33" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K33" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L33" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M33" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N33" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O33" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P33" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q33" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S33" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T33" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X33">
         <v>450</v>
       </c>
       <c r="Z33" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA33" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AB33" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE33" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AH33" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AI33" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AL33" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -4786,70 +4801,70 @@
         <v>271</v>
       </c>
       <c r="E34" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F34" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H34" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I34" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="J34" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K34" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L34" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M34" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N34" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O34" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P34" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q34" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S34" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X34">
         <v>152</v>
       </c>
       <c r="Z34" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AA34" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AB34" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE34" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AH34" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AI34" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AL34" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -4866,70 +4881,70 @@
         <v>272</v>
       </c>
       <c r="E35" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F35" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H35" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I35" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J35" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K35" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L35" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M35" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N35" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O35" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P35" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q35" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S35" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="T35" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="X35">
         <v>414</v>
       </c>
       <c r="Z35" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA35" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AB35" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE35" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AH35" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AI35" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AL35" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -4946,70 +4961,70 @@
         <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I36" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J36" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K36" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L36" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M36" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N36" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O36" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P36" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q36" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S36" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T36" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X36">
         <v>168</v>
       </c>
       <c r="Z36" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AA36" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AB36" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE36" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AH36" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI36" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AL36" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:40">
@@ -5026,67 +5041,67 @@
         <v>274</v>
       </c>
       <c r="E37" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F37" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H37" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I37" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K37" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L37" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M37" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N37" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O37" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P37" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q37" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S37" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="X37">
         <v>72</v>
       </c>
       <c r="Z37" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA37" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AB37" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE37" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AH37" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AI37" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AL37" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:40">
@@ -5103,70 +5118,70 @@
         <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H38" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I38" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K38" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M38" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O38" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P38" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q38" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S38" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T38" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X38">
         <v>75</v>
       </c>
       <c r="Z38" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AA38" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AB38" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI38" t="s">
         <v>565</v>
       </c>
-      <c r="AE38" t="s">
-        <v>430</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>561</v>
-      </c>
       <c r="AL38" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -5183,67 +5198,67 @@
         <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H39" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I39" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K39" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M39" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O39" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P39" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q39" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S39" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="T39" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X39">
         <v>8</v>
       </c>
       <c r="Z39" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AA39" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AB39" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI39" t="s">
         <v>565</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>430</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:40">
@@ -5260,67 +5275,67 @@
         <v>277</v>
       </c>
       <c r="E40" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F40" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H40" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I40" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="J40" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K40" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M40" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N40" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O40" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P40" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q40" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S40" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="X40">
         <v>150</v>
       </c>
       <c r="Z40" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AA40" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AB40" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI40" t="s">
         <v>565</v>
       </c>
-      <c r="AE40" t="s">
-        <v>430</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>561</v>
-      </c>
       <c r="AL40" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:40">
@@ -5337,55 +5352,55 @@
         <v>278</v>
       </c>
       <c r="E41" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H41" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I41" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="J41" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K41" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L41" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M41" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="N41" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O41" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P41" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q41" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S41" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="T41" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="X41">
         <v>60</v>
       </c>
       <c r="AA41" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AB41" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -5402,70 +5417,70 @@
         <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H42" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K42" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L42" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="N42" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O42" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P42" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q42" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S42" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="T42" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X42">
         <v>15</v>
       </c>
       <c r="AA42" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AB42" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE42" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AH42" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AI42" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AL42" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AN42" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:40">
@@ -5482,70 +5497,70 @@
         <v>279</v>
       </c>
       <c r="E43" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F43" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H43" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I43" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K43" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L43" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="N43" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O43" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P43" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q43" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S43" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="T43" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X43">
         <v>15</v>
       </c>
       <c r="AA43" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AB43" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE43" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AH43" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AI43" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AL43" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AN43" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:40">
@@ -5562,46 +5577,46 @@
         <v>280</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H44" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M44" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N44" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O44" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P44" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q44" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AE44" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AH44" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:40">
@@ -5618,70 +5633,70 @@
         <v>281</v>
       </c>
       <c r="E45" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F45" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H45" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K45" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L45" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M45" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N45" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O45" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P45" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q45" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S45" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T45" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X45">
         <v>71</v>
       </c>
       <c r="Z45" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AA45" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AB45" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE45" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AI45" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AL45" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AN45" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:40">
@@ -5698,70 +5713,70 @@
         <v>281</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F46" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H46" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K46" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L46" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M46" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N46" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O46" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P46" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q46" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S46" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T46" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X46">
         <v>71</v>
       </c>
       <c r="Z46" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AA46" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AB46" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE46" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AI46" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AL46" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AN46" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:40">
@@ -5778,64 +5793,64 @@
         <v>282</v>
       </c>
       <c r="E47" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F47" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K47" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M47" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N47" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O47" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P47" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q47" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="S47" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="T47" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="X47">
         <v>160</v>
       </c>
       <c r="Z47" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AA47" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AB47" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AI47" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AN47" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:40">
@@ -5852,43 +5867,43 @@
         <v>283</v>
       </c>
       <c r="E48" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F48" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H48" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J48" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K48" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O48" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P48" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q48" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="S48" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="T48" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="X48">
         <v>344</v>
@@ -5908,61 +5923,64 @@
         <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F49" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H49" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I49" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J49" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M49" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N49" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O49" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P49" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q49" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="S49" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="T49" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="X49">
         <v>59</v>
       </c>
       <c r="Z49" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="AA49" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AB49" t="s">
-        <v>565</v>
+        <v>569</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>366</v>
       </c>
       <c r="AN49" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:40">
@@ -5979,61 +5997,64 @@
         <v>284</v>
       </c>
       <c r="E50" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F50" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H50" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I50" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J50" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L50" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N50" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O50" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P50" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q50" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="S50" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="T50" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="X50">
         <v>59</v>
       </c>
       <c r="Z50" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="AA50" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AB50" t="s">
-        <v>566</v>
+        <v>570</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>366</v>
       </c>
       <c r="AN50" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:40">
@@ -6050,70 +6071,70 @@
         <v>285</v>
       </c>
       <c r="E51" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H51" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I51" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J51" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M51" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N51" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O51" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P51" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q51" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S51" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T51" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X51">
         <v>178</v>
       </c>
       <c r="Z51" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AA51" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AB51" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AE51" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AI51" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AL51" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AN51" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:40">
@@ -6130,70 +6151,70 @@
         <v>285</v>
       </c>
       <c r="E52" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F52" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H52" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I52" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J52" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K52" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M52" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N52" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O52" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P52" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q52" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S52" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T52" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X52">
         <v>178</v>
       </c>
       <c r="Z52" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AA52" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AB52" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE52" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AI52" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AL52" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AN52" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:40">
@@ -6210,70 +6231,70 @@
         <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F53" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H53" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I53" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J53" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K53" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N53" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O53" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P53" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q53" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S53" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T53" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X53">
         <v>266</v>
       </c>
       <c r="Z53" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AA53" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AB53" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AE53" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AH53" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AI53" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AN53" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:40">
@@ -6290,70 +6311,70 @@
         <v>286</v>
       </c>
       <c r="E54" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F54" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H54" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I54" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J54" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K54" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M54" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N54" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O54" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P54" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q54" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S54" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T54" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X54">
         <v>266</v>
       </c>
       <c r="Z54" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AA54" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AB54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AE54" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AH54" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AI54" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AN54" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:40">
@@ -6370,64 +6391,67 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F55" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H55" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I55" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J55" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K55" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L55" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N55" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O55" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P55" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q55" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S55" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="X55">
         <v>160</v>
       </c>
       <c r="Z55" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AA55" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AB55" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE55" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AI55" t="s">
-        <v>359</v>
+        <v>363</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>577</v>
       </c>
       <c r="AN55" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:40">
@@ -6444,58 +6468,58 @@
         <v>288</v>
       </c>
       <c r="E56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F56" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H56" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J56" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N56" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O56" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P56" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q56" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S56" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="T56" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="X56">
         <v>110</v>
       </c>
       <c r="AA56" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AB56" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AI56" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:40">
@@ -6512,70 +6536,70 @@
         <v>289</v>
       </c>
       <c r="E57" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F57" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H57" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J57" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K57" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M57" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P57" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q57" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S57" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T57" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X57">
         <v>59</v>
       </c>
       <c r="Z57" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AA57" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AB57" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE57" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AI57" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AL57" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AN57" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:40">
@@ -6592,55 +6616,55 @@
         <v>290</v>
       </c>
       <c r="E58" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F58" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H58" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I58" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="J58" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K58" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O58" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P58" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q58" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S58" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="T58" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="X58">
         <v>35</v>
       </c>
       <c r="AA58" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AB58" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AN58" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:40">
@@ -6657,70 +6681,70 @@
         <v>291</v>
       </c>
       <c r="E59" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F59" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H59" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I59" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J59" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K59" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N59" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P59" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q59" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S59" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T59" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X59">
         <v>400</v>
       </c>
       <c r="Z59" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AA59" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AB59" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AE59" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AI59" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AL59" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AN59" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:40">
@@ -6737,55 +6761,55 @@
         <v>292</v>
       </c>
       <c r="E60" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F60" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H60" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I60" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="J60" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K60" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L60" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M60" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N60" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O60" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P60" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q60" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S60" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="T60" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="X60">
         <v>160</v>
       </c>
       <c r="AI60" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AN60" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:40">
@@ -6802,46 +6826,46 @@
         <v>293</v>
       </c>
       <c r="E61" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H61" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I61" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J61" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K61" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M61" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N61" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O61" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P61" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q61" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S61" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T61" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X61">
         <v>110</v>
@@ -6861,46 +6885,46 @@
         <v>294</v>
       </c>
       <c r="E62" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F62" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H62" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I62" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J62" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K62" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L62" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M62" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N62" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O62" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P62" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q62" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S62" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T62" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X62">
         <v>218</v>
@@ -6920,46 +6944,46 @@
         <v>295</v>
       </c>
       <c r="E63" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F63" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H63" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I63" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J63" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K63" t="s">
+        <v>439</v>
+      </c>
+      <c r="L63" t="s">
+        <v>420</v>
+      </c>
+      <c r="M63" t="s">
         <v>435</v>
       </c>
-      <c r="L63" t="s">
-        <v>416</v>
-      </c>
-      <c r="M63" t="s">
-        <v>431</v>
-      </c>
       <c r="N63" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O63" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P63" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q63" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S63" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="T63" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="X63">
         <v>187</v>
@@ -6979,55 +7003,55 @@
         <v>296</v>
       </c>
       <c r="E64" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F64" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H64" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I64" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J64" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K64" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L64" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="N64" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O64" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P64" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q64" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="S64" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="T64" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="X64">
         <v>253</v>
       </c>
       <c r="AA64" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AB64" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -7044,55 +7068,55 @@
         <v>297</v>
       </c>
       <c r="E65" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F65" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H65" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I65" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J65" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K65" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M65" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N65" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O65" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P65" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q65" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S65" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T65" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X65">
         <v>302</v>
       </c>
       <c r="AA65" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AB65" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -7109,43 +7133,43 @@
         <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F66" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H66" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I66" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J66" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K66" t="s">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s">
+        <v>420</v>
+      </c>
+      <c r="M66" t="s">
         <v>435</v>
       </c>
-      <c r="L66" t="s">
-        <v>416</v>
-      </c>
-      <c r="M66" t="s">
-        <v>431</v>
-      </c>
       <c r="N66" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O66" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P66" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q66" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S66" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="X66">
         <v>203</v>
@@ -7165,55 +7189,55 @@
         <v>299</v>
       </c>
       <c r="E67" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F67" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H67" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I67" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J67" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K67" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L67" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M67" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N67" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O67" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P67" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q67" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S67" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T67" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X67">
         <v>67</v>
       </c>
       <c r="AA67" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AB67" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -7230,55 +7254,55 @@
         <v>300</v>
       </c>
       <c r="E68" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F68" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H68" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I68" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J68" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K68" t="s">
+        <v>439</v>
+      </c>
+      <c r="L68" t="s">
+        <v>420</v>
+      </c>
+      <c r="M68" t="s">
         <v>435</v>
       </c>
-      <c r="L68" t="s">
-        <v>416</v>
-      </c>
-      <c r="M68" t="s">
-        <v>431</v>
-      </c>
       <c r="N68" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O68" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P68" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q68" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S68" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T68" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="X68">
         <v>219</v>
       </c>
       <c r="AA68" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="AB68" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -7295,40 +7319,40 @@
         <v>301</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F69" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H69" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I69" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J69" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K69" t="s">
+        <v>439</v>
+      </c>
+      <c r="L69" t="s">
+        <v>420</v>
+      </c>
+      <c r="M69" t="s">
         <v>435</v>
       </c>
-      <c r="L69" t="s">
-        <v>416</v>
-      </c>
-      <c r="M69" t="s">
-        <v>431</v>
-      </c>
       <c r="N69" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O69" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P69" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q69" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -7345,37 +7369,37 @@
         <v>302</v>
       </c>
       <c r="E70" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F70" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H70" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I70" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J70" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K70" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L70" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N70" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O70" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P70" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q70" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -7392,43 +7416,43 @@
         <v>303</v>
       </c>
       <c r="E71" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F71" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H71" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I71" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J71" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K71" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L71" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N71" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O71" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P71" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q71" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S71" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T71" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X71">
         <v>108</v>
@@ -7448,43 +7472,43 @@
         <v>304</v>
       </c>
       <c r="E72" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F72" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H72" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I72" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J72" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K72" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L72" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N72" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O72" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P72" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q72" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S72" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="T72" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="X72">
         <v>120</v>
@@ -7504,37 +7528,37 @@
         <v>305</v>
       </c>
       <c r="E73" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F73" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H73" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I73" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J73" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K73" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L73" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N73" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O73" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P73" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q73" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7551,37 +7575,37 @@
         <v>306</v>
       </c>
       <c r="E74" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H74" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I74" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J74" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K74" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L74" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N74" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O74" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P74" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q74" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -7598,37 +7622,37 @@
         <v>307</v>
       </c>
       <c r="E75" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F75" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H75" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I75" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J75" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K75" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L75" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N75" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O75" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P75" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q75" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7645,37 +7669,37 @@
         <v>308</v>
       </c>
       <c r="E76" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F76" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H76" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I76" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J76" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K76" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L76" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N76" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O76" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P76" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q76" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7692,37 +7716,37 @@
         <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H77" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I77" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J77" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K77" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L77" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N77" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O77" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P77" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q77" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7739,43 +7763,43 @@
         <v>310</v>
       </c>
       <c r="E78" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F78" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H78" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I78" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J78" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K78" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L78" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N78" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O78" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P78" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q78" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="S78" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="T78" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="X78">
         <v>14</v>
@@ -7795,34 +7819,34 @@
         <v>311</v>
       </c>
       <c r="E79" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F79" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I79" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J79" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K79" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L79" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N79" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O79" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P79" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q79" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7839,37 +7863,37 @@
         <v>312</v>
       </c>
       <c r="E80" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F80" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H80" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I80" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J80" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K80" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L80" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="N80" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O80" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P80" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q80" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -7886,43 +7910,43 @@
         <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F81" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I81" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J81" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K81" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L81" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N81" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O81" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P81" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q81" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="S81" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="T81" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="X81">
         <v>34</v>
@@ -7942,43 +7966,43 @@
         <v>314</v>
       </c>
       <c r="E82" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F82" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H82" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I82" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J82" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K82" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L82" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N82" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O82" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P82" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q82" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S82" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="T82" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="X82">
         <v>819</v>
@@ -7998,43 +8022,43 @@
         <v>315</v>
       </c>
       <c r="E83" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F83" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H83" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I83" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J83" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K83" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L83" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N83" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O83" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P83" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q83" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S83" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T83" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="X83">
         <v>34</v>
@@ -8054,40 +8078,40 @@
         <v>316</v>
       </c>
       <c r="E84" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F84" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I84" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J84" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K84" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L84" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N84" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O84" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P84" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q84" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S84" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T84" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X84">
         <v>198</v>
@@ -8107,37 +8131,37 @@
         <v>317</v>
       </c>
       <c r="E85" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F85" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H85" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I85" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J85" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K85" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L85" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N85" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O85" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P85" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q85" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -8154,40 +8178,40 @@
         <v>318</v>
       </c>
       <c r="E86" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F86" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I86" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J86" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K86" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L86" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N86" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O86" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P86" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q86" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S86" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="T86" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="X86">
         <v>210</v>
@@ -8207,40 +8231,40 @@
         <v>319</v>
       </c>
       <c r="E87" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F87" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H87" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I87" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J87" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K87" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L87" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N87" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O87" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P87" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q87" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S87" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="X87">
         <v>211</v>
@@ -8260,37 +8284,37 @@
         <v>320</v>
       </c>
       <c r="E88" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F88" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H88" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I88" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J88" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K88" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L88" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N88" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O88" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P88" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q88" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -8307,37 +8331,37 @@
         <v>321</v>
       </c>
       <c r="E89" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F89" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H89" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I89" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J89" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K89" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L89" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="N89" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O89" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P89" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q89" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -8354,37 +8378,37 @@
         <v>322</v>
       </c>
       <c r="E90" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F90" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H90" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I90" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J90" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K90" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L90" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N90" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O90" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P90" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q90" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -8401,40 +8425,40 @@
         <v>323</v>
       </c>
       <c r="E91" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F91" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H91" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I91" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="J91" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K91" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L91" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N91" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O91" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P91" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q91" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S91" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X91">
         <v>540</v>
@@ -8454,43 +8478,43 @@
         <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F92" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H92" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I92" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J92" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K92" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L92" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N92" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O92" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P92" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q92" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S92" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="T92" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="X92">
         <v>59</v>
@@ -8510,40 +8534,40 @@
         <v>325</v>
       </c>
       <c r="E93" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F93" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I93" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J93" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K93" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L93" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N93" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O93" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P93" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q93" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S93" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="T93" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="X93">
         <v>617</v>
@@ -8559,29 +8583,32 @@
       <c r="C94" t="s">
         <v>239</v>
       </c>
+      <c r="D94" t="s">
+        <v>326</v>
+      </c>
       <c r="E94" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F94" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J94" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K94" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N94" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="O94" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P94" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q94" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -8595,40 +8622,40 @@
         <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E95" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F95" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H95" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I95" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J95" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K95" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L95" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N95" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O95" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P95" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q95" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -8642,43 +8669,43 @@
         <v>240</v>
       </c>
       <c r="D96" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E96" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F96" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H96" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I96" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J96" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K96" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L96" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="N96" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O96" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P96" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q96" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S96" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="X96">
         <v>11</v>
@@ -8695,40 +8722,40 @@
         <v>238</v>
       </c>
       <c r="D97" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E97" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F97" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H97" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I97" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J97" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K97" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L97" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N97" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O97" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P97" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q97" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8742,43 +8769,43 @@
         <v>237</v>
       </c>
       <c r="D98" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E98" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F98" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H98" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I98" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="J98" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K98" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L98" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N98" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O98" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P98" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q98" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S98" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="X98">
         <v>636</v>
@@ -8791,35 +8818,38 @@
       <c r="B99" t="s">
         <v>188</v>
       </c>
+      <c r="D99" t="s">
+        <v>331</v>
+      </c>
       <c r="E99" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F99" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J99" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K99" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N99" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="O99" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P99" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q99" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S99" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="T99" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="X99">
         <v>30</v>
@@ -8835,35 +8865,38 @@
       <c r="C100" t="s">
         <v>241</v>
       </c>
+      <c r="D100" t="s">
+        <v>332</v>
+      </c>
       <c r="E100" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F100" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J100" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K100" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N100" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="O100" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P100" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q100" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="S100" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T100" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="X100">
         <v>42</v>
@@ -8877,16 +8910,16 @@
         <v>189</v>
       </c>
       <c r="E101" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F101" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P101" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q101" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8897,28 +8930,28 @@
         <v>190</v>
       </c>
       <c r="E102" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F102" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J102" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K102" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N102" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="O102" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P102" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q102" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8929,28 +8962,28 @@
         <v>159</v>
       </c>
       <c r="E103" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F103" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J103" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K103" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N103" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O103" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P103" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q103" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -8961,31 +8994,31 @@
         <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F104" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J104" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K104" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N104" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O104" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P104" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q104" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S104" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="X104">
         <v>10</v>
@@ -8999,28 +9032,28 @@
         <v>158</v>
       </c>
       <c r="E105" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F105" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J105" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K105" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N105" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O105" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P105" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q105" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -9033,29 +9066,32 @@
       <c r="C106" t="s">
         <v>241</v>
       </c>
+      <c r="D106" t="s">
+        <v>333</v>
+      </c>
       <c r="E106" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F106" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J106" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K106" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N106" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="O106" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P106" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q106" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -9066,16 +9102,16 @@
         <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F107" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P107" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q107" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -9086,16 +9122,16 @@
         <v>193</v>
       </c>
       <c r="E108" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F108" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P108" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q108" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -9106,16 +9142,16 @@
         <v>172</v>
       </c>
       <c r="E109" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F109" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P109" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q109" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -9126,16 +9162,16 @@
         <v>166</v>
       </c>
       <c r="E110" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F110" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P110" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q110" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -9146,16 +9182,16 @@
         <v>172</v>
       </c>
       <c r="E111" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F111" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P111" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q111" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -9166,16 +9202,16 @@
         <v>194</v>
       </c>
       <c r="E112" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F112" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P112" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q112" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="590">
   <si>
     <t>Agraga Booking #</t>
   </si>
@@ -460,6 +460,18 @@
     <t>2504LCLCMM05920005</t>
   </si>
   <si>
+    <t>2504LCLCMM07360002</t>
+  </si>
+  <si>
+    <t>2504LCLCMM06570045</t>
+  </si>
+  <si>
+    <t>2504LCLCMM06570046</t>
+  </si>
+  <si>
+    <t>2504LCLCMM07250004</t>
+  </si>
+  <si>
     <t>METAMASH PRIVATE LIMITED</t>
   </si>
   <si>
@@ -601,6 +613,12 @@
     <t>FOODSOLVE PRIVATE LIMITED</t>
   </si>
   <si>
+    <t>M. A. INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>WARPFY TECHNOLOGIES PRIVATE LIMITED</t>
+  </si>
+  <si>
     <t>BOMM79673700</t>
   </si>
   <si>
@@ -1495,6 +1513,9 @@
     <t>Los Angeles, United States (USLAX)</t>
   </si>
   <si>
+    <t>Chicago, United States (USCHI)</t>
+  </si>
+  <si>
     <t>HIA1 17057, Middletown, Middletown, Pennsylvania, United States</t>
   </si>
   <si>
@@ -1720,6 +1741,9 @@
     <t>09-04-2025</t>
   </si>
   <si>
+    <t>16-04-2025</t>
+  </si>
+  <si>
     <t>15-04-2025</t>
   </si>
   <si>
@@ -1744,10 +1768,10 @@
     <t>18-02-2025</t>
   </si>
   <si>
+    <t>18-04-2025</t>
+  </si>
+  <si>
     <t>07-03-2025</t>
-  </si>
-  <si>
-    <t>16-04-2025</t>
   </si>
   <si>
     <t>61 PKGS 4 PALLETS GOT DELIVERED</t>
@@ -2117,7 +2141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS112"/>
+  <dimension ref="A1:AS116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2265,82 +2289,82 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="Q2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S2" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="T2" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="X2">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="AA2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AB2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE2" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AH2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AI2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AL2" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2348,79 +2372,79 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O3" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q3" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S3" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X3">
         <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="AA3" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AB3" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE3" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AH3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AI3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AL3" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2428,79 +2452,79 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J4" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K4" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L4" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M4" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O4" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P4" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q4" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S4" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T4" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X4">
         <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AA4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AB4" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AH4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AI4" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL4" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -2508,79 +2532,79 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F5" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I5" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J5" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K5" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L5" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M5" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N5" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O5" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P5" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q5" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S5" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T5" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X5">
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AA5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AB5" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AH5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AI5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL5" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -2588,79 +2612,79 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H6" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J6" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K6" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L6" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M6" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N6" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O6" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P6" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q6" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S6" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T6" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X6">
         <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AA6" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AB6" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AH6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AI6" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL6" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -2668,79 +2692,79 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="I7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X7">
         <v>157</v>
       </c>
       <c r="Z7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="AA7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AB7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AH7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AI7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AL7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -2748,79 +2772,79 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="I8" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J8" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K8" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L8" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M8" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N8" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O8" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P8" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q8" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S8" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T8" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X8">
         <v>157</v>
       </c>
       <c r="Z8" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="AA8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AB8" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE8" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AH8" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AI8" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AL8" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2828,76 +2852,76 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I9" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J9" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K9" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L9" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M9" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N9" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O9" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P9" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S9" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="X9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AA9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AB9" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE9" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AH9" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AI9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AL9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2905,73 +2929,73 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H10" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="I10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="J10" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L10" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="N10" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O10" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P10" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q10" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S10" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="T10" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="X10">
         <v>16</v>
       </c>
       <c r="Z10" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="AE10" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AH10" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AI10" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AL10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2979,73 +3003,73 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="J11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N11" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O11" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P11" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q11" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S11" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="T11" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X11">
         <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AE11" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AH11" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AI11" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AL11" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3053,76 +3077,76 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E12" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I12" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K12" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M12" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N12" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O12" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P12" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="Q12" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S12" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="X12">
         <v>24</v>
       </c>
       <c r="Z12" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AA12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AB12" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>581</v>
+      </c>
+      <c r="AI12" t="s">
         <v>570</v>
       </c>
-      <c r="AE12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>573</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>563</v>
-      </c>
       <c r="AL12" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -3130,73 +3154,73 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I13" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="J13" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L13" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N13" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O13" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P13" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Q13" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S13" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T13" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X13">
         <v>20</v>
       </c>
       <c r="Z13" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AE13" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AH13" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AI13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AL13" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3204,76 +3228,76 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F14" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H14" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I14" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J14" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K14" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L14" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M14" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="N14" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O14" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P14" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q14" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="S14" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="T14" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="X14">
         <v>153</v>
       </c>
       <c r="Z14" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA14" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AB14" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE14" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AH14" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AI14" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AL14" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -3281,79 +3305,79 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F15" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H15" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="I15" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="J15" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K15" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L15" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M15" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N15" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O15" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P15" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q15" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="T15" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="X15">
         <v>77</v>
       </c>
       <c r="Z15" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AA15" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AB15" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE15" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AH15" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AI15" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AL15" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3361,79 +3385,79 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F16" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H16" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I16" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J16" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K16" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L16" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M16" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N16" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O16" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P16" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q16" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S16" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="T16" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="X16">
         <v>5</v>
       </c>
       <c r="Z16" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="AA16" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AB16" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE16" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AH16" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AI16" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AL16" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -3441,73 +3465,73 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E17" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F17" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H17" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I17" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="J17" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K17" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L17" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M17" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N17" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O17" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P17" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q17" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S17" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="T17" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="X17">
         <v>150</v>
       </c>
       <c r="Z17" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="AE17" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AH17" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AI17" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AL17" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -3515,79 +3539,79 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H18" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I18" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J18" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K18" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L18" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M18" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N18" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O18" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P18" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q18" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S18" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="T18" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="X18">
         <v>142</v>
       </c>
       <c r="Z18" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA18" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AB18" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE18" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AH18" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AI18" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AL18" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -3595,82 +3619,82 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F19" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H19" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I19" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J19" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K19" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L19" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M19" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N19" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O19" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P19" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="Q19" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S19" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="T19" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="X19">
         <v>43</v>
       </c>
       <c r="Z19" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="AA19" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AB19" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH19" t="s">
         <v>570</v>
       </c>
-      <c r="AE19" t="s">
-        <v>426</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>563</v>
-      </c>
       <c r="AI19" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AL19" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AN19" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -3678,79 +3702,79 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F20" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H20" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J20" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K20" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L20" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M20" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N20" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O20" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P20" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q20" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S20" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="T20" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="X20">
         <v>29</v>
       </c>
       <c r="Z20" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA20" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AB20" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE20" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AH20" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AI20" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AL20" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3758,76 +3782,76 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F21" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H21" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I21" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J21" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K21" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L21" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M21" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N21" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O21" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P21" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q21" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S21" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="T21" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="X21">
         <v>15</v>
       </c>
       <c r="Z21" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AA21" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AB21" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE21" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AH21" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AI21" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -3835,79 +3859,79 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E22" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F22" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H22" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I22" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J22" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K22" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L22" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M22" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N22" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O22" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P22" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q22" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S22" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T22" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X22">
         <v>273</v>
       </c>
       <c r="Z22" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AA22" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AB22" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE22" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AH22" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AI22" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL22" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3915,76 +3939,76 @@
         <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E23" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F23" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H23" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I23" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J23" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K23" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L23" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M23" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N23" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O23" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P23" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q23" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S23" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="T23" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="X23">
         <v>22</v>
       </c>
       <c r="Z23" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AA23" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AB23" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE23" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AI23" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AL23" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3992,79 +4016,79 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E24" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F24" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H24" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I24" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J24" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K24" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L24" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M24" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N24" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O24" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P24" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q24" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S24" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T24" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X24">
         <v>272</v>
       </c>
       <c r="Z24" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AA24" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AB24" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE24" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AH24" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AI24" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL24" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -4072,79 +4096,79 @@
         <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E25" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F25" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H25" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J25" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K25" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L25" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M25" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N25" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O25" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P25" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q25" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S25" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T25" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X25">
         <v>122</v>
       </c>
       <c r="Z25" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AA25" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AB25" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE25" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AH25" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AI25" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL25" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -4152,79 +4176,79 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E26" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F26" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H26" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I26" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J26" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K26" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L26" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M26" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N26" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O26" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P26" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q26" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S26" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="T26" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="X26">
         <v>314</v>
       </c>
       <c r="Z26" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AA26" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AB26" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE26" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AH26" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AI26" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL26" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -4232,79 +4256,79 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E27" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H27" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I27" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J27" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K27" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L27" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M27" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N27" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O27" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P27" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q27" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S27" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T27" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X27">
         <v>370</v>
       </c>
       <c r="Z27" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA27" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AB27" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE27" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AH27" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AI27" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AL27" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -4312,76 +4336,76 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E28" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H28" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I28" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="J28" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K28" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L28" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M28" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N28" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O28" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P28" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="Q28" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S28" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="X28">
         <v>16</v>
       </c>
       <c r="Z28" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AA28" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AB28" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE28" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AH28" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AI28" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AL28" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -4389,79 +4413,79 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F29" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H29" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I29" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="J29" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K29" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L29" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M29" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N29" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O29" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P29" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q29" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S29" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="T29" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="X29">
         <v>220</v>
       </c>
       <c r="Z29" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="AA29" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AB29" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE29" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AH29" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AI29" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AL29" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -4469,76 +4493,76 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F30" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H30" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I30" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J30" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K30" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L30" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M30" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N30" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O30" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P30" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Q30" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S30" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="X30">
         <v>122</v>
       </c>
       <c r="Z30" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AA30" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AB30" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE30" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AH30" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AI30" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL30" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -4546,82 +4570,82 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F31" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I31" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="J31" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K31" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L31" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M31" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N31" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O31" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P31" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="Q31" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="S31" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="T31" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="X31">
         <v>53</v>
       </c>
       <c r="Z31" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA31" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AB31" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE31" t="s">
         <v>570</v>
       </c>
-      <c r="AE31" t="s">
-        <v>563</v>
-      </c>
       <c r="AH31" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AI31" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AL31" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AN31" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -4629,82 +4653,82 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F32" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H32" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I32" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="J32" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K32" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L32" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M32" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N32" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O32" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P32" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q32" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="S32" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="T32" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="X32">
         <v>53</v>
       </c>
       <c r="Z32" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="AA32" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AB32" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE32" t="s">
         <v>570</v>
       </c>
-      <c r="AE32" t="s">
-        <v>563</v>
-      </c>
       <c r="AH32" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AI32" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AL32" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AN32" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -4712,79 +4736,79 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E33" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H33" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I33" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J33" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K33" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L33" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M33" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N33" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O33" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P33" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q33" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S33" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T33" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X33">
         <v>450</v>
       </c>
       <c r="Z33" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA33" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AB33" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE33" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AH33" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AI33" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AL33" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -4792,79 +4816,79 @@
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D34" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F34" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H34" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I34" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="J34" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K34" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L34" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M34" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N34" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O34" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P34" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q34" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S34" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T34" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X34">
         <v>152</v>
       </c>
       <c r="Z34" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AA34" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AB34" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE34" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AH34" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AI34" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AL34" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -4872,79 +4896,79 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E35" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F35" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H35" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I35" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J35" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K35" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L35" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M35" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N35" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O35" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P35" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q35" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S35" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="T35" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="X35">
         <v>414</v>
       </c>
       <c r="Z35" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA35" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AB35" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE35" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AH35" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AI35" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AL35" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -4952,79 +4976,79 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E36" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F36" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H36" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I36" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J36" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K36" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L36" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M36" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N36" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O36" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P36" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q36" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S36" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T36" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X36">
         <v>168</v>
       </c>
       <c r="Z36" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AA36" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AB36" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE36" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AH36" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AI36" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AL36" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:40">
@@ -5032,76 +5056,76 @@
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H37" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I37" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J37" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K37" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L37" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M37" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N37" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O37" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P37" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q37" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S37" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="X37">
         <v>72</v>
       </c>
       <c r="Z37" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA37" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AB37" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE37" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AH37" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AI37" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AL37" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:40">
@@ -5109,79 +5133,79 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I38" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="J38" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K38" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M38" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N38" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O38" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P38" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q38" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S38" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T38" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X38">
         <v>75</v>
       </c>
       <c r="Z38" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA38" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AB38" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE38" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AH38" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AI38" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AL38" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -5189,76 +5213,76 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E39" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H39" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="J39" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M39" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N39" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O39" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P39" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q39" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S39" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="T39" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="X39">
         <v>8</v>
       </c>
       <c r="Z39" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AA39" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AB39" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE39" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AH39" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AI39" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:40">
@@ -5266,76 +5290,76 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H40" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I40" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M40" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N40" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O40" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P40" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q40" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S40" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="X40">
         <v>150</v>
       </c>
       <c r="Z40" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AA40" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="AB40" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE40" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AH40" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AI40" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AL40" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:40">
@@ -5343,64 +5367,67 @@
         <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E41" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F41" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H41" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="I41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="J41" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K41" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L41" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M41" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N41" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O41" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P41" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q41" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="S41" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="T41" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="X41">
         <v>60</v>
       </c>
       <c r="AA41" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AB41" t="s">
-        <v>569</v>
+        <v>577</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -5408,79 +5435,79 @@
         <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E42" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H42" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="I42" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="J42" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K42" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L42" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="N42" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O42" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P42" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="Q42" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S42" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="T42" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="X42">
         <v>15</v>
       </c>
       <c r="AA42" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AB42" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE42" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AH42" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AI42" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AL42" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AN42" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:40">
@@ -5488,79 +5515,79 @@
         <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H43" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="N43" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O43" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P43" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="Q43" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S43" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="T43" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="X43">
         <v>15</v>
       </c>
       <c r="AA43" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AB43" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE43" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AH43" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AI43" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AN43" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:40">
@@ -5568,55 +5595,55 @@
         <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E44" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H44" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="J44" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M44" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O44" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P44" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q44" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="AE44" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AH44" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:40">
@@ -5624,79 +5651,79 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E45" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H45" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K45" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L45" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M45" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N45" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O45" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P45" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q45" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S45" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T45" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X45">
         <v>71</v>
       </c>
       <c r="Z45" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AA45" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AB45" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE45" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AI45" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AL45" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AN45" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:40">
@@ -5704,79 +5731,79 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E46" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F46" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H46" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K46" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L46" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N46" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O46" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P46" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q46" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S46" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T46" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X46">
         <v>71</v>
       </c>
       <c r="Z46" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AA46" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AB46" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE46" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AI46" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AL46" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AN46" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:40">
@@ -5784,73 +5811,73 @@
         <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F47" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H47" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I47" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K47" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M47" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="N47" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O47" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P47" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q47" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="S47" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="T47" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="X47">
         <v>160</v>
       </c>
       <c r="Z47" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="AA47" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AB47" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AI47" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AN47" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:40">
@@ -5858,52 +5885,52 @@
         <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E48" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F48" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H48" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I48" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J48" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K48" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="N48" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O48" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P48" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q48" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="S48" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="T48" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="X48">
         <v>344</v>
@@ -5914,73 +5941,73 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E49" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F49" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H49" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I49" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K49" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M49" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N49" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O49" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P49" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q49" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="S49" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="T49" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="X49">
         <v>59</v>
       </c>
       <c r="Z49" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="AA49" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AB49" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AI49" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AN49" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="1:40">
@@ -5988,73 +6015,73 @@
         <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E50" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F50" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H50" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I50" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K50" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M50" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N50" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O50" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P50" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q50" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="S50" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="T50" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="X50">
         <v>59</v>
       </c>
       <c r="Z50" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="AA50" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AB50" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AI50" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AN50" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="1:40">
@@ -6062,79 +6089,79 @@
         <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E51" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F51" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H51" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I51" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K51" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L51" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M51" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N51" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P51" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q51" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S51" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T51" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X51">
         <v>178</v>
       </c>
       <c r="Z51" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AA51" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AB51" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AE51" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AI51" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AL51" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AN51" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:40">
@@ -6142,79 +6169,79 @@
         <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E52" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H52" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I52" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J52" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K52" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L52" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M52" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N52" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P52" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q52" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S52" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T52" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X52">
         <v>178</v>
       </c>
       <c r="Z52" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AA52" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AB52" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE52" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AI52" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AL52" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AN52" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:40">
@@ -6222,79 +6249,79 @@
         <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E53" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F53" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H53" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K53" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L53" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N53" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O53" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P53" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q53" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S53" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="T53" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="X53">
         <v>266</v>
       </c>
       <c r="Z53" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="AA53" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AB53" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE53" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AH53" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AI53" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AN53" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:40">
@@ -6302,79 +6329,79 @@
         <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E54" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F54" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H54" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I54" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K54" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L54" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M54" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N54" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O54" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P54" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q54" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S54" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="T54" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="X54">
         <v>266</v>
       </c>
       <c r="Z54" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="AA54" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AB54" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AE54" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AH54" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AI54" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AN54" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:40">
@@ -6382,76 +6409,76 @@
         <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E55" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F55" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H55" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I55" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J55" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K55" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N55" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O55" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P55" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Q55" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S55" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="X55">
         <v>160</v>
       </c>
       <c r="Z55" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AA55" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AB55" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE55" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AI55" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AL55" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AN55" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:40">
@@ -6459,67 +6486,70 @@
         <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E56" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F56" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H56" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I56" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="J56" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K56" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L56" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N56" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O56" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P56" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q56" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="S56" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="T56" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="X56">
         <v>110</v>
       </c>
       <c r="AA56" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AB56" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AI56" t="s">
-        <v>366</v>
+        <v>372</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="1:40">
@@ -6527,79 +6557,79 @@
         <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E57" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F57" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H57" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I57" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J57" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K57" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O57" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P57" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q57" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S57" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T57" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X57">
         <v>59</v>
       </c>
       <c r="Z57" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AA57" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AB57" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE57" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AI57" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AL57" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AN57" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:40">
@@ -6607,64 +6637,67 @@
         <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E58" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F58" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H58" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="I58" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="J58" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K58" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N58" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O58" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P58" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q58" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="S58" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="T58" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="X58">
         <v>35</v>
       </c>
       <c r="AA58" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AB58" t="s">
-        <v>569</v>
+        <v>577</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>584</v>
       </c>
       <c r="AN58" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="59" spans="1:40">
@@ -6672,79 +6705,79 @@
         <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E59" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F59" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H59" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I59" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J59" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K59" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L59" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M59" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N59" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O59" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P59" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q59" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S59" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T59" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X59">
         <v>400</v>
       </c>
       <c r="Z59" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AA59" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AB59" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AE59" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AI59" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AL59" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AN59" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:40">
@@ -6752,64 +6785,64 @@
         <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E60" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F60" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H60" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="I60" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="J60" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K60" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L60" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M60" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N60" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O60" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P60" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q60" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S60" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="T60" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="X60">
         <v>160</v>
       </c>
       <c r="AI60" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AN60" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:40">
@@ -6817,55 +6850,55 @@
         <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E61" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F61" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H61" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="I61" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J61" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K61" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L61" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="N61" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O61" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P61" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="Q61" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S61" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T61" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X61">
         <v>110</v>
@@ -6876,58 +6909,64 @@
         <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D62" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F62" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H62" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="I62" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J62" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K62" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L62" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M62" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="N62" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O62" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P62" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q62" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S62" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T62" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X62">
         <v>218</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:40">
@@ -6935,58 +6974,64 @@
         <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D63" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E63" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F63" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H63" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I63" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J63" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K63" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N63" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O63" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P63" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q63" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S63" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="T63" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="X63">
         <v>187</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="1:40">
@@ -6994,906 +7039,930 @@
         <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D64" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E64" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F64" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H64" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="I64" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="J64" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K64" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L64" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="N64" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O64" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P64" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q64" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="S64" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="T64" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="X64">
         <v>253</v>
       </c>
       <c r="AA64" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AB64" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38">
       <c r="A65" t="s">
         <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E65" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F65" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H65" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="I65" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J65" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K65" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M65" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="N65" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O65" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P65" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q65" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S65" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T65" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X65">
         <v>302</v>
       </c>
       <c r="AA65" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AB65" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28">
+        <v>578</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38">
       <c r="A66" t="s">
         <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E66" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H66" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I66" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J66" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K66" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M66" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N66" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O66" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P66" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q66" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S66" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="X66">
         <v>203</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AA66" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38">
       <c r="A67" t="s">
         <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E67" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F67" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H67" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="I67" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J67" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K67" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L67" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M67" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O67" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P67" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q67" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S67" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T67" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X67">
         <v>67</v>
       </c>
       <c r="AA67" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AB67" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+        <v>578</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38">
       <c r="A68" t="s">
         <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D68" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E68" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F68" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H68" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I68" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J68" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K68" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L68" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M68" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N68" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O68" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P68" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q68" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S68" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="T68" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="X68">
         <v>219</v>
       </c>
       <c r="AA68" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AB68" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38">
       <c r="A69" t="s">
         <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E69" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F69" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H69" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I69" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J69" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K69" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L69" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N69" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O69" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P69" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28">
+        <v>491</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38">
       <c r="A70" t="s">
         <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D70" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E70" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F70" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H70" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I70" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J70" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K70" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N70" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O70" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P70" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q70" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38">
       <c r="A71" t="s">
         <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E71" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F71" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H71" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I71" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J71" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K71" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L71" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N71" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O71" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P71" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q71" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S71" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T71" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X71">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:38">
       <c r="A72" t="s">
         <v>107</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E72" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F72" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H72" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I72" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J72" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K72" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L72" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N72" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O72" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P72" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q72" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S72" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="T72" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="X72">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:38">
       <c r="A73" t="s">
         <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E73" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F73" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H73" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I73" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J73" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K73" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L73" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N73" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O73" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P73" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q73" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38">
       <c r="A74" t="s">
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D74" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E74" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F74" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H74" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I74" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J74" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K74" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L74" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N74" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O74" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P74" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q74" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38">
       <c r="A75" t="s">
         <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E75" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F75" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H75" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I75" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="J75" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K75" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L75" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="N75" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O75" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P75" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q75" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38">
       <c r="A76" t="s">
         <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F76" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H76" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I76" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J76" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K76" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L76" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N76" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O76" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P76" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q76" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38">
       <c r="A77" t="s">
         <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D77" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E77" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F77" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H77" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I77" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="J77" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K77" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="N77" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O77" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P77" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q77" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38">
       <c r="A78" t="s">
         <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F78" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H78" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="I78" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="J78" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K78" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L78" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="N78" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O78" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P78" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q78" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="S78" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="T78" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="X78">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:38">
       <c r="A79" t="s">
         <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D79" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E79" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F79" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I79" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="J79" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K79" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L79" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N79" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O79" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P79" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q79" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38">
       <c r="A80" t="s">
         <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D80" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E80" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F80" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H80" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I80" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J80" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K80" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L80" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N80" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O80" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P80" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q80" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -7901,52 +7970,52 @@
         <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D81" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E81" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F81" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H81" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="I81" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J81" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K81" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L81" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="N81" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O81" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P81" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q81" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="S81" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="T81" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="X81">
         <v>34</v>
@@ -7957,52 +8026,52 @@
         <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E82" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F82" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H82" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I82" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="J82" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K82" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L82" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N82" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O82" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P82" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q82" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S82" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="T82" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="X82">
         <v>819</v>
@@ -8013,52 +8082,52 @@
         <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E83" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F83" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H83" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I83" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="J83" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K83" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L83" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N83" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O83" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P83" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q83" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S83" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="T83" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="X83">
         <v>34</v>
@@ -8069,49 +8138,49 @@
         <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E84" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F84" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I84" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="J84" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K84" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L84" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N84" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O84" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P84" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q84" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S84" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T84" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X84">
         <v>198</v>
@@ -8122,46 +8191,46 @@
         <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D85" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E85" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F85" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H85" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I85" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="J85" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K85" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L85" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N85" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O85" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P85" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q85" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -8169,49 +8238,49 @@
         <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E86" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F86" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I86" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="J86" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K86" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L86" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N86" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O86" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P86" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q86" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S86" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="T86" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="X86">
         <v>210</v>
@@ -8222,49 +8291,49 @@
         <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D87" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E87" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F87" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H87" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I87" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="J87" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K87" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L87" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N87" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O87" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P87" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Q87" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S87" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="X87">
         <v>211</v>
@@ -8275,46 +8344,46 @@
         <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D88" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E88" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F88" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H88" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I88" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="J88" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K88" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L88" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="N88" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O88" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P88" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q88" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -8322,46 +8391,46 @@
         <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D89" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E89" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F89" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H89" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I89" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="J89" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K89" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L89" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N89" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O89" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P89" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q89" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -8369,46 +8438,46 @@
         <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D90" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E90" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F90" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H90" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I90" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="J90" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K90" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L90" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N90" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O90" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P90" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q90" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -8416,49 +8485,49 @@
         <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D91" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E91" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F91" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H91" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I91" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J91" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K91" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L91" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="N91" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O91" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P91" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q91" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S91" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="X91">
         <v>540</v>
@@ -8469,52 +8538,52 @@
         <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D92" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E92" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F92" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H92" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I92" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="J92" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K92" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L92" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N92" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O92" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P92" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q92" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S92" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="T92" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="X92">
         <v>59</v>
@@ -8525,49 +8594,49 @@
         <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D93" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E93" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F93" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I93" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="J93" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K93" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L93" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="N93" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O93" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P93" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="Q93" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S93" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="T93" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="X93">
         <v>617</v>
@@ -8578,37 +8647,37 @@
         <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E94" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F94" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J94" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K94" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N94" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O94" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P94" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q94" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -8616,46 +8685,46 @@
         <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D95" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E95" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F95" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H95" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I95" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="J95" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K95" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L95" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="N95" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O95" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P95" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q95" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -8663,49 +8732,49 @@
         <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D96" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E96" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F96" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H96" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="I96" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J96" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K96" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L96" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="N96" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O96" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P96" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q96" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="S96" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="X96">
         <v>11</v>
@@ -8716,46 +8785,46 @@
         <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D97" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E97" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F97" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H97" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I97" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="J97" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K97" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L97" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="N97" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O97" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P97" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q97" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8763,49 +8832,49 @@
         <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E98" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F98" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H98" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I98" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J98" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K98" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L98" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="N98" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O98" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P98" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q98" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S98" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="X98">
         <v>636</v>
@@ -8816,40 +8885,40 @@
         <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D99" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E99" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F99" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J99" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K99" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N99" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O99" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P99" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q99" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S99" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="T99" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="X99">
         <v>30</v>
@@ -8860,43 +8929,43 @@
         <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D100" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E100" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F100" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J100" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K100" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N100" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O100" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P100" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="Q100" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="S100" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="T100" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="X100">
         <v>42</v>
@@ -8907,19 +8976,19 @@
         <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E101" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F101" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P101" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q101" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8927,31 +8996,31 @@
         <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E102" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F102" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J102" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K102" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N102" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O102" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P102" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q102" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8959,31 +9028,31 @@
         <v>138</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F103" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="J103" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K103" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N103" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O103" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P103" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q103" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -8991,34 +9060,34 @@
         <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E104" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F104" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J104" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K104" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N104" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O104" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P104" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q104" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S104" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="X104">
         <v>10</v>
@@ -9029,31 +9098,31 @@
         <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E105" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F105" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J105" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K105" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N105" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O105" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P105" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q105" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -9061,37 +9130,37 @@
         <v>141</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D106" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E106" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F106" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J106" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K106" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N106" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O106" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P106" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q106" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -9099,19 +9168,19 @@
         <v>142</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F107" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P107" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q107" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -9119,19 +9188,19 @@
         <v>143</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E108" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F108" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P108" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q108" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -9139,19 +9208,19 @@
         <v>144</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E109" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F109" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P109" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q109" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -9159,19 +9228,19 @@
         <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E110" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F110" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P110" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q110" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -9179,19 +9248,19 @@
         <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E111" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F111" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P111" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q111" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -9199,19 +9268,99 @@
         <v>147</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E112" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F112" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P112" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q112" t="s">
-        <v>486</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="E113" t="s">
+        <v>342</v>
+      </c>
+      <c r="F113" t="s">
+        <v>344</v>
+      </c>
+      <c r="P113" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" t="s">
+        <v>181</v>
+      </c>
+      <c r="E114" t="s">
+        <v>342</v>
+      </c>
+      <c r="F114" t="s">
+        <v>343</v>
+      </c>
+      <c r="P114" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" t="s">
+        <v>342</v>
+      </c>
+      <c r="F115" t="s">
+        <v>344</v>
+      </c>
+      <c r="P115" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" t="s">
+        <v>200</v>
+      </c>
+      <c r="E116" t="s">
+        <v>342</v>
+      </c>
+      <c r="F116" t="s">
+        <v>343</v>
+      </c>
+      <c r="P116" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
